--- a/Input.xlsx
+++ b/Input.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB9C780-97C0-452A-A88A-09CCAA5AD91E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784F9EC6-14F5-40D9-8089-7720B1E24171}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,486 +28,486 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="160">
+  <si>
+    <t>SG Wählitz</t>
+  </si>
+  <si>
+    <t>Frank Hildebrandt</t>
+  </si>
+  <si>
+    <t>Christian Schreiber</t>
+  </si>
+  <si>
+    <t>Sven Kettenbeil</t>
+  </si>
+  <si>
+    <t>Alexander Wenzel</t>
+  </si>
+  <si>
+    <t>Georg Richter</t>
+  </si>
+  <si>
+    <t>Patrick Pfundheller</t>
+  </si>
+  <si>
+    <t>Mirko Beyer</t>
+  </si>
+  <si>
+    <t>SG Wählitz II</t>
+  </si>
+  <si>
+    <t>Thomas Weber</t>
+  </si>
+  <si>
+    <t>Andreas Wrubel</t>
+  </si>
+  <si>
+    <t>Robert Krusekopf</t>
+  </si>
+  <si>
+    <t>Toni Zimmermann</t>
+  </si>
+  <si>
+    <t>Marco Oehler</t>
+  </si>
+  <si>
+    <t>Thomas Stephan</t>
+  </si>
+  <si>
+    <t>Marcel Müller</t>
+  </si>
+  <si>
+    <t>Maik Fuchs</t>
+  </si>
+  <si>
+    <t>Sebastian Sitter</t>
+  </si>
+  <si>
+    <t>Christian Speck</t>
+  </si>
+  <si>
+    <t>Christian Schmidt</t>
+  </si>
+  <si>
+    <t>Rene Peter</t>
+  </si>
+  <si>
+    <t>Jens Wittow</t>
+  </si>
+  <si>
+    <t>Christoph Krause</t>
+  </si>
+  <si>
+    <t>Andre Traue</t>
+  </si>
+  <si>
+    <t>VfB Scharnhorst Großgörschen</t>
+  </si>
+  <si>
+    <t>Mathias Voigt</t>
+  </si>
+  <si>
+    <t>Enrico Kunze</t>
+  </si>
+  <si>
+    <t>Jörg Frauendorf</t>
+  </si>
+  <si>
+    <t>Ronny Herler</t>
+  </si>
+  <si>
+    <t>Uwe Andersohn</t>
+  </si>
+  <si>
+    <t>Jan Steidel</t>
+  </si>
+  <si>
+    <t>Andre Traue 2</t>
+  </si>
+  <si>
+    <t>SV Grün-Weiß Granschütz</t>
+  </si>
+  <si>
+    <t>Ralf Erfurth</t>
+  </si>
+  <si>
+    <t>Oliver Heinold</t>
+  </si>
+  <si>
+    <t>Lothar Fuchs</t>
+  </si>
+  <si>
+    <t>Rene Zehmisch</t>
+  </si>
+  <si>
+    <t>Andreas Böhm</t>
+  </si>
+  <si>
+    <t>SV Fortuna Kayna</t>
+  </si>
+  <si>
+    <t>Bernd Bradatsch</t>
+  </si>
+  <si>
+    <t>SV Teuchern</t>
+  </si>
+  <si>
+    <t>Sven Kanold</t>
+  </si>
+  <si>
+    <t>Maik Schunke</t>
+  </si>
+  <si>
+    <t>Ronny Pietschmann</t>
+  </si>
+  <si>
+    <t>Andre Grau</t>
+  </si>
+  <si>
+    <t>Holger Erdmenger</t>
+  </si>
+  <si>
+    <t>SV Lok Weissenfels</t>
+  </si>
+  <si>
+    <t>Steffen Lukas</t>
+  </si>
+  <si>
+    <t>Rene Dietze</t>
+  </si>
+  <si>
+    <t>Tommy Gröbe</t>
+  </si>
+  <si>
+    <t>Ronald Pauditz</t>
+  </si>
+  <si>
+    <t>Thomas Schwabe</t>
+  </si>
+  <si>
+    <t>Peter Gonell</t>
+  </si>
+  <si>
+    <t>SV Burgwerben</t>
+  </si>
+  <si>
+    <t>Andreas Knesebeck</t>
+  </si>
+  <si>
+    <t>Frank Prinz</t>
+  </si>
+  <si>
+    <t>Michael Mahnstein</t>
+  </si>
+  <si>
+    <t>Daniel Rupprich</t>
+  </si>
+  <si>
+    <t>Matthias Mahnstein</t>
+  </si>
+  <si>
+    <t>Michael Richter</t>
+  </si>
+  <si>
+    <t>Erik Seefeld</t>
+  </si>
+  <si>
+    <t>SV Grün-Weiß Granschütz II</t>
+  </si>
+  <si>
+    <t>Lutz Kanold</t>
+  </si>
+  <si>
+    <t>Rudolf Klein</t>
+  </si>
+  <si>
+    <t>Enrico Geißler</t>
+  </si>
+  <si>
+    <t>Tobias Lange</t>
+  </si>
+  <si>
+    <t>Dirk Bauer</t>
+  </si>
+  <si>
+    <t>KSV Flemmingen</t>
+  </si>
+  <si>
+    <t>Olaf Gottschling</t>
+  </si>
+  <si>
+    <t>Henri Kistritz</t>
+  </si>
+  <si>
+    <t>Carol Odrich</t>
+  </si>
+  <si>
+    <t>Ralf Nelkenbrecher</t>
+  </si>
+  <si>
+    <t>Andre Knauf</t>
+  </si>
+  <si>
+    <t>Eberhard Lindam</t>
+  </si>
+  <si>
+    <t>SV Eintracht Profen</t>
+  </si>
+  <si>
+    <t>Alexander Schulze</t>
+  </si>
+  <si>
+    <t>Stefan Derf</t>
+  </si>
+  <si>
+    <t>Andreas Legler</t>
+  </si>
+  <si>
+    <t>Udo Jäschke</t>
+  </si>
+  <si>
+    <t>Martin Kitze</t>
+  </si>
+  <si>
+    <t>Patrick Stahl</t>
+  </si>
+  <si>
+    <t>Ronny Gerhardt</t>
+  </si>
+  <si>
+    <t>KSV Lossa</t>
+  </si>
+  <si>
+    <t>Nico Schiele</t>
+  </si>
+  <si>
+    <t>Marcus Weinreich</t>
+  </si>
+  <si>
+    <t>Tim Nagel</t>
+  </si>
+  <si>
+    <t>Sebastian Wrobel</t>
+  </si>
+  <si>
+    <t>Till Möller</t>
+  </si>
+  <si>
+    <t>Alexander Hörig</t>
+  </si>
+  <si>
+    <t>SV Grün-Weiß Langendorf II</t>
+  </si>
+  <si>
+    <t>Marco Schemer</t>
+  </si>
+  <si>
+    <t>Jens Krause</t>
+  </si>
+  <si>
+    <t>Silvio Koch</t>
+  </si>
+  <si>
+    <t>Frank Christke</t>
+  </si>
+  <si>
+    <t>Wethauer KC</t>
+  </si>
+  <si>
+    <t>Sören Apelt</t>
+  </si>
+  <si>
+    <t>Egbert Gaudig</t>
+  </si>
+  <si>
+    <t>Jürgen Lindam</t>
+  </si>
+  <si>
+    <t>Steffen Schindler</t>
+  </si>
+  <si>
+    <t>Wolfgang Kanitz</t>
+  </si>
+  <si>
+    <t>Detlef Schneider</t>
+  </si>
+  <si>
+    <t>SV Göbitz</t>
+  </si>
+  <si>
+    <t>Stefa Kalb</t>
+  </si>
+  <si>
+    <t>David Döring</t>
+  </si>
+  <si>
+    <t>Jürgen Pfeiffer</t>
+  </si>
+  <si>
+    <t>Robby Flügge</t>
+  </si>
+  <si>
+    <t>Olaf Schröter</t>
+  </si>
+  <si>
+    <t>Maik Grimmer</t>
+  </si>
+  <si>
+    <t>Norbert Döring</t>
+  </si>
+  <si>
+    <t>SV Nebra</t>
+  </si>
+  <si>
+    <t>Sebastian Knöfel</t>
+  </si>
+  <si>
+    <t>Daniel Weise</t>
+  </si>
+  <si>
+    <t>Axel Kuder</t>
+  </si>
+  <si>
+    <t>Gerhard Störmer</t>
+  </si>
+  <si>
+    <t>Hagen Unger</t>
+  </si>
+  <si>
+    <t>SG Eintracht Großjena</t>
+  </si>
+  <si>
+    <t>Thomas Stephan 2</t>
+  </si>
+  <si>
+    <t>Frank Eisenschmidt</t>
+  </si>
+  <si>
+    <t>Andreas Klauser</t>
+  </si>
+  <si>
+    <t>Tobias Loth</t>
+  </si>
+  <si>
+    <t>Dieter Werner</t>
+  </si>
+  <si>
+    <t>Stefan Krause</t>
+  </si>
+  <si>
+    <t>SG Blau-Weiß Bad Kösen</t>
+  </si>
+  <si>
+    <t>Henry Scherch</t>
+  </si>
+  <si>
+    <t>Christian Strohbach</t>
+  </si>
+  <si>
+    <t>Frank Altmann</t>
+  </si>
+  <si>
+    <t>Daniel Kunze</t>
+  </si>
+  <si>
+    <t>Kevin Ritter</t>
+  </si>
+  <si>
+    <t>Hartmut Preßler</t>
+  </si>
+  <si>
+    <t>Andreas Türke</t>
+  </si>
+  <si>
+    <t>SV Eintracht Theißen</t>
+  </si>
+  <si>
+    <t>Daniel Ottmann</t>
+  </si>
+  <si>
+    <t>Dieter Göcker</t>
+  </si>
+  <si>
+    <t>marcel Ottmann</t>
+  </si>
+  <si>
+    <t>Rene Kindschuh</t>
+  </si>
+  <si>
+    <t>SG Aufbau Zeitz</t>
+  </si>
+  <si>
+    <t>Gerald Eichler</t>
+  </si>
+  <si>
+    <t>Thomas Wollfert</t>
+  </si>
+  <si>
+    <t>Felix Haubenreißer</t>
+  </si>
+  <si>
+    <t>Jörg Traika</t>
+  </si>
+  <si>
+    <t>SV Empor Gröben</t>
+  </si>
+  <si>
+    <t>Lars Böttcher</t>
+  </si>
+  <si>
+    <t>Roland Bergner</t>
+  </si>
+  <si>
+    <t>Christoph Gaudigs</t>
+  </si>
+  <si>
+    <t>Raik Fitzner</t>
+  </si>
+  <si>
+    <t>Samuel Ritzschke</t>
+  </si>
+  <si>
+    <t>Sven Lisson</t>
+  </si>
+  <si>
+    <t>Volker Gaudigs</t>
+  </si>
+  <si>
+    <t>SG Wählitz III</t>
+  </si>
+  <si>
+    <t>Markus</t>
+  </si>
+  <si>
+    <t>Marvin</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>Sven</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Rico</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>SV Grün-Weiß Langendorf</t>
+  </si>
+  <si>
+    <t>Marco Klein</t>
+  </si>
   <si>
     <t>Kreisoberliga</t>
-  </si>
-  <si>
-    <t>SG Wählitz</t>
-  </si>
-  <si>
-    <t>Frank Hildebrandt</t>
-  </si>
-  <si>
-    <t>Christian Schreiber</t>
-  </si>
-  <si>
-    <t>Sven Kettenbeil</t>
-  </si>
-  <si>
-    <t>Alexander Wenzel</t>
-  </si>
-  <si>
-    <t>Georg Richter</t>
-  </si>
-  <si>
-    <t>Patrick Pfundheller</t>
-  </si>
-  <si>
-    <t>Mirko Beyer</t>
-  </si>
-  <si>
-    <t>SG Wählitz II</t>
-  </si>
-  <si>
-    <t>Thomas Weber</t>
-  </si>
-  <si>
-    <t>Andreas Wrubel</t>
-  </si>
-  <si>
-    <t>Robert Krusekopf</t>
-  </si>
-  <si>
-    <t>Toni Zimmermann</t>
-  </si>
-  <si>
-    <t>Marco Oehler</t>
-  </si>
-  <si>
-    <t>Thomas Stephan</t>
-  </si>
-  <si>
-    <t>Marcel Müller</t>
-  </si>
-  <si>
-    <t>Maik Fuchs</t>
-  </si>
-  <si>
-    <t>Sebastian Sitter</t>
-  </si>
-  <si>
-    <t>Christian Speck</t>
-  </si>
-  <si>
-    <t>Christian Schmidt</t>
-  </si>
-  <si>
-    <t>Rene Peter</t>
-  </si>
-  <si>
-    <t>Jens Wittow</t>
-  </si>
-  <si>
-    <t>Christoph Krause</t>
-  </si>
-  <si>
-    <t>Andre Traue</t>
-  </si>
-  <si>
-    <t>SV Grün-Weiß Langendorf</t>
-  </si>
-  <si>
-    <t>VfB Scharnhorst Großgörschen</t>
-  </si>
-  <si>
-    <t>Mathias Voigt</t>
-  </si>
-  <si>
-    <t>Enrico Kunze</t>
-  </si>
-  <si>
-    <t>Jörg Frauendorf</t>
-  </si>
-  <si>
-    <t>Ronny Herler</t>
-  </si>
-  <si>
-    <t>Uwe Andersohn</t>
-  </si>
-  <si>
-    <t>Jan Steidel</t>
-  </si>
-  <si>
-    <t>Marco Klein</t>
-  </si>
-  <si>
-    <t>Andre Traue 2</t>
-  </si>
-  <si>
-    <t>SV Grün-Weiß Granschütz</t>
-  </si>
-  <si>
-    <t>Ralf Erfurth</t>
-  </si>
-  <si>
-    <t>Oliver Heinold</t>
-  </si>
-  <si>
-    <t>Lothar Fuchs</t>
-  </si>
-  <si>
-    <t>Rene Zehmisch</t>
-  </si>
-  <si>
-    <t>Andreas Böhm</t>
-  </si>
-  <si>
-    <t>SV Fortuna Kayna</t>
-  </si>
-  <si>
-    <t>Bernd Bradatsch</t>
-  </si>
-  <si>
-    <t>SV Teuchern</t>
-  </si>
-  <si>
-    <t>Sven Kanold</t>
-  </si>
-  <si>
-    <t>Maik Schunke</t>
-  </si>
-  <si>
-    <t>Ronny Pietschmann</t>
-  </si>
-  <si>
-    <t>Andre Grau</t>
-  </si>
-  <si>
-    <t>Holger Erdmenger</t>
-  </si>
-  <si>
-    <t>SV Lok Weissenfels</t>
-  </si>
-  <si>
-    <t>Steffen Lukas</t>
-  </si>
-  <si>
-    <t>Rene Dietze</t>
-  </si>
-  <si>
-    <t>Tommy Gröbe</t>
-  </si>
-  <si>
-    <t>Ronald Pauditz</t>
-  </si>
-  <si>
-    <t>Thomas Schwabe</t>
-  </si>
-  <si>
-    <t>Peter Gonell</t>
-  </si>
-  <si>
-    <t>SV Burgwerben</t>
-  </si>
-  <si>
-    <t>Andreas Knesebeck</t>
-  </si>
-  <si>
-    <t>Frank Prinz</t>
-  </si>
-  <si>
-    <t>Michael Mahnstein</t>
-  </si>
-  <si>
-    <t>Daniel Rupprich</t>
-  </si>
-  <si>
-    <t>Matthias Mahnstein</t>
-  </si>
-  <si>
-    <t>Michael Richter</t>
-  </si>
-  <si>
-    <t>Erik Seefeld</t>
-  </si>
-  <si>
-    <t>SV Grün-Weiß Granschütz II</t>
-  </si>
-  <si>
-    <t>Lutz Kanold</t>
-  </si>
-  <si>
-    <t>Rudolf Klein</t>
-  </si>
-  <si>
-    <t>Enrico Geißler</t>
-  </si>
-  <si>
-    <t>Tobias Lange</t>
-  </si>
-  <si>
-    <t>Dirk Bauer</t>
-  </si>
-  <si>
-    <t>KSV Flemmingen</t>
-  </si>
-  <si>
-    <t>Olaf Gottschling</t>
-  </si>
-  <si>
-    <t>Henri Kistritz</t>
-  </si>
-  <si>
-    <t>Carol Odrich</t>
-  </si>
-  <si>
-    <t>Ralf Nelkenbrecher</t>
-  </si>
-  <si>
-    <t>Andre Knauf</t>
-  </si>
-  <si>
-    <t>Eberhard Lindam</t>
-  </si>
-  <si>
-    <t>SV Eintracht Profen</t>
-  </si>
-  <si>
-    <t>Alexander Schulze</t>
-  </si>
-  <si>
-    <t>Stefan Derf</t>
-  </si>
-  <si>
-    <t>Andreas Legler</t>
-  </si>
-  <si>
-    <t>Udo Jäschke</t>
-  </si>
-  <si>
-    <t>Martin Kitze</t>
-  </si>
-  <si>
-    <t>Patrick Stahl</t>
-  </si>
-  <si>
-    <t>Ronny Gerhardt</t>
-  </si>
-  <si>
-    <t>KSV Lossa</t>
-  </si>
-  <si>
-    <t>Nico Schiele</t>
-  </si>
-  <si>
-    <t>Marcus Weinreich</t>
-  </si>
-  <si>
-    <t>Tim Nagel</t>
-  </si>
-  <si>
-    <t>Sebastian Wrobel</t>
-  </si>
-  <si>
-    <t>Till Möller</t>
-  </si>
-  <si>
-    <t>Alexander Hörig</t>
-  </si>
-  <si>
-    <t>SV Grün-Weiß Langendorf II</t>
-  </si>
-  <si>
-    <t>Marco Schemer</t>
-  </si>
-  <si>
-    <t>Jens Krause</t>
-  </si>
-  <si>
-    <t>Silvio Koch</t>
-  </si>
-  <si>
-    <t>Frank Christke</t>
-  </si>
-  <si>
-    <t>Wethauer KC</t>
-  </si>
-  <si>
-    <t>Sören Apelt</t>
-  </si>
-  <si>
-    <t>Egbert Gaudig</t>
-  </si>
-  <si>
-    <t>Jürgen Lindam</t>
-  </si>
-  <si>
-    <t>Steffen Schindler</t>
-  </si>
-  <si>
-    <t>Wolfgang Kanitz</t>
-  </si>
-  <si>
-    <t>Detlef Schneider</t>
-  </si>
-  <si>
-    <t>SV Göbitz</t>
-  </si>
-  <si>
-    <t>Stefa Kalb</t>
-  </si>
-  <si>
-    <t>David Döring</t>
-  </si>
-  <si>
-    <t>Jürgen Pfeiffer</t>
-  </si>
-  <si>
-    <t>Robby Flügge</t>
-  </si>
-  <si>
-    <t>Olaf Schröter</t>
-  </si>
-  <si>
-    <t>Maik Grimmer</t>
-  </si>
-  <si>
-    <t>Norbert Döring</t>
-  </si>
-  <si>
-    <t>SV Nebra</t>
-  </si>
-  <si>
-    <t>Sebastian Knöfel</t>
-  </si>
-  <si>
-    <t>Daniel Weise</t>
-  </si>
-  <si>
-    <t>Axel Kuder</t>
-  </si>
-  <si>
-    <t>Gerhard Störmer</t>
-  </si>
-  <si>
-    <t>Hagen Unger</t>
-  </si>
-  <si>
-    <t>SG Eintracht Großjena</t>
-  </si>
-  <si>
-    <t>Thomas Stephan 2</t>
-  </si>
-  <si>
-    <t>Frank Eisenschmidt</t>
-  </si>
-  <si>
-    <t>Andreas Klauser</t>
-  </si>
-  <si>
-    <t>Tobias Loth</t>
-  </si>
-  <si>
-    <t>Dieter Werner</t>
-  </si>
-  <si>
-    <t>Stefan Krause</t>
-  </si>
-  <si>
-    <t>SG Blau-Weiß Bad Kösen</t>
-  </si>
-  <si>
-    <t>Henry Scherch</t>
-  </si>
-  <si>
-    <t>Christian Strohbach</t>
-  </si>
-  <si>
-    <t>Frank Altmann</t>
-  </si>
-  <si>
-    <t>Daniel Kunze</t>
-  </si>
-  <si>
-    <t>Kevin Ritter</t>
-  </si>
-  <si>
-    <t>Hartmut Preßler</t>
-  </si>
-  <si>
-    <t>Andreas Türke</t>
-  </si>
-  <si>
-    <t>SV Eintracht Theißen</t>
-  </si>
-  <si>
-    <t>Daniel Ottmann</t>
-  </si>
-  <si>
-    <t>Dieter Göcker</t>
-  </si>
-  <si>
-    <t>marcel Ottmann</t>
-  </si>
-  <si>
-    <t>Rene Kindschuh</t>
-  </si>
-  <si>
-    <t>SG Aufbau Zeitz</t>
-  </si>
-  <si>
-    <t>Gerald Eichler</t>
-  </si>
-  <si>
-    <t>Thomas Wollfert</t>
-  </si>
-  <si>
-    <t>Felix Haubenreißer</t>
-  </si>
-  <si>
-    <t>Jörg Traika</t>
-  </si>
-  <si>
-    <t>SV Empor Gröben</t>
-  </si>
-  <si>
-    <t>Lars Böttcher</t>
-  </si>
-  <si>
-    <t>Roland Bergner</t>
-  </si>
-  <si>
-    <t>Christoph Gaudigs</t>
-  </si>
-  <si>
-    <t>Raik Fitzner</t>
-  </si>
-  <si>
-    <t>Samuel Ritzschke</t>
-  </si>
-  <si>
-    <t>Sven Lisson</t>
-  </si>
-  <si>
-    <t>Volker Gaudigs</t>
-  </si>
-  <si>
-    <t>SG Wählitz III</t>
-  </si>
-  <si>
-    <t>Markus</t>
-  </si>
-  <si>
-    <t>Marvin</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Nico</t>
-  </si>
-  <si>
-    <t>Sven</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>Rico</t>
-  </si>
-  <si>
-    <t>Ron</t>
   </si>
 </sst>
 </file>
@@ -827,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,156 +841,156 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1">
-        <v>573</v>
+        <v>34</v>
+      </c>
+      <c r="E1">
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1">
-        <v>552</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1">
-        <v>544</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="E5" s="1">
-        <v>539</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="E6" s="1">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1">
-        <v>525</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1">
-        <v>553</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1">
-        <v>549</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1">
-        <v>542</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1">
-        <v>535</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1">
-        <v>526</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1">
-        <v>518</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1">
-        <v>514</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" t="s">
         <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -997,15 +998,15 @@
         <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>553</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1">
-        <v>552</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1013,36 +1014,36 @@
         <v>6</v>
       </c>
       <c r="E20" s="1">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>523</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="E22" s="1">
-        <v>520</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>520</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E24" s="1">
         <v>536</v>
@@ -1050,13 +1051,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1">
         <v>515</v>
@@ -1064,7 +1065,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E26" s="1">
         <v>506</v>
@@ -1072,61 +1073,61 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E27" s="1">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E28" s="1">
-        <v>504</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E29" s="1">
-        <v>504</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E30" s="1">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E31" s="1">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E32" s="1">
-        <v>484</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E33" s="1">
         <v>539</v>
@@ -1134,7 +1135,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E34" s="1">
         <v>532</v>
@@ -1142,7 +1143,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1">
         <v>524</v>
@@ -1150,7 +1151,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E36" s="1">
         <v>519</v>
@@ -1158,7 +1159,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E37" s="1">
         <v>514</v>
@@ -1166,7 +1167,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E38" s="1">
         <v>514</v>
@@ -1174,7 +1175,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E39" s="1">
         <v>512</v>
@@ -1182,7 +1183,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E40" s="1">
         <v>494</v>
@@ -1190,13 +1191,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E41" s="1">
         <v>529</v>
@@ -1204,7 +1205,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E42" s="1">
         <v>528</v>
@@ -1212,7 +1213,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E43" s="1">
         <v>512</v>
@@ -1220,7 +1221,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E44" s="1">
         <v>495</v>
@@ -1228,7 +1229,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E45" s="1">
         <v>492</v>
@@ -1236,7 +1237,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E46" s="1">
         <v>491</v>
@@ -1244,7 +1245,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E47" s="1">
         <v>509</v>
@@ -1252,7 +1253,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E48" s="1">
         <v>498</v>
@@ -1260,13 +1261,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
         <v>9</v>
-      </c>
-      <c r="D49" t="s">
-        <v>10</v>
       </c>
       <c r="E49" s="1">
         <v>544</v>
@@ -1274,7 +1275,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" s="1">
         <v>536</v>
@@ -1282,7 +1283,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51" s="1">
         <v>532</v>
@@ -1290,7 +1291,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52" s="1">
         <v>516</v>
@@ -1298,7 +1299,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53" s="1">
         <v>513</v>
@@ -1306,7 +1307,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54" s="1">
         <v>512</v>
@@ -1314,7 +1315,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E55" s="1">
         <v>495</v>
@@ -1322,7 +1323,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E56" s="1">
         <v>476</v>
@@ -1330,13 +1331,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D57" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E57" s="1">
         <v>544</v>
@@ -1344,7 +1345,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E58" s="1">
         <v>541</v>
@@ -1352,7 +1353,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E59" s="1">
         <v>512</v>
@@ -1360,7 +1361,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E60" s="1">
         <v>508</v>
@@ -1368,7 +1369,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E61" s="1">
         <v>507</v>
@@ -1376,7 +1377,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E62" s="1">
         <v>498</v>
@@ -1384,7 +1385,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E63" s="1">
         <v>500</v>
@@ -1392,7 +1393,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E64" s="1">
         <v>493</v>
@@ -1400,13 +1401,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E65" s="1">
         <v>519</v>
@@ -1414,7 +1415,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E66" s="1">
         <v>508</v>
@@ -1422,7 +1423,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E67" s="1">
         <v>507</v>
@@ -1430,7 +1431,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E68" s="1">
         <v>504</v>
@@ -1438,7 +1439,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E69" s="1">
         <v>494</v>
@@ -1446,7 +1447,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E70" s="1">
         <v>480</v>
@@ -1454,7 +1455,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E71" s="1">
         <v>470</v>
@@ -1462,7 +1463,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E72" s="1">
         <v>511</v>
@@ -1470,13 +1471,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D73" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E73" s="1">
         <v>519</v>
@@ -1484,7 +1485,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E74" s="1">
         <v>518</v>
@@ -1492,7 +1493,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E75" s="1">
         <v>506</v>
@@ -1500,7 +1501,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E76" s="1">
         <v>506</v>
@@ -1508,7 +1509,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E77" s="1">
         <v>477</v>
@@ -1516,7 +1517,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E78" s="1">
         <v>524</v>
@@ -1524,7 +1525,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E79" s="1">
         <v>523</v>
@@ -1532,7 +1533,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E80" s="1">
         <v>516</v>
@@ -1540,13 +1541,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D81" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E81" s="1">
         <v>546</v>
@@ -1554,7 +1555,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E82" s="1">
         <v>529</v>
@@ -1562,7 +1563,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E83" s="1">
         <v>528</v>
@@ -1570,7 +1571,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E84" s="1">
         <v>525</v>
@@ -1578,7 +1579,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E85" s="1">
         <v>515</v>
@@ -1586,7 +1587,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E86" s="1">
         <v>506</v>
@@ -1594,7 +1595,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E87" s="1">
         <v>523</v>
@@ -1602,7 +1603,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E88" s="1">
         <v>522</v>
@@ -1610,13 +1611,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D89" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E89" s="1">
         <v>555</v>
@@ -1624,7 +1625,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E90" s="1">
         <v>534</v>
@@ -1632,7 +1633,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E91" s="1">
         <v>507</v>
@@ -1640,7 +1641,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E92" s="1">
         <v>502</v>
@@ -1648,7 +1649,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E93" s="1">
         <v>497</v>
@@ -1656,7 +1657,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E94" s="1">
         <v>492</v>
@@ -1664,7 +1665,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E95" s="1">
         <v>491</v>
@@ -1672,7 +1673,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E96" s="1">
         <v>481</v>
@@ -1680,13 +1681,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B97" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D97" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E97" s="1">
         <v>546</v>
@@ -1694,7 +1695,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E98" s="1">
         <v>542</v>
@@ -1702,7 +1703,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E99" s="1">
         <v>538</v>
@@ -1710,7 +1711,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E100" s="1">
         <v>523</v>
@@ -1718,7 +1719,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E101" s="1">
         <v>522</v>
@@ -1726,7 +1727,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E102" s="1">
         <v>487</v>
@@ -1734,7 +1735,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E103" s="1">
         <v>512</v>
@@ -1742,7 +1743,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E104" s="1">
         <v>508</v>
@@ -1750,72 +1751,72 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B105" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D105" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E105" s="1">
-        <v>460</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E106" s="1">
-        <v>460</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E107" s="1">
-        <v>460</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E108" s="1">
-        <v>460</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E109" s="1">
-        <v>460</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E110" s="1">
-        <v>460</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E111" s="1">
-        <v>460</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E112" s="1">
-        <v>460</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +1964,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E8">
+  <conditionalFormatting sqref="E2:E8">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -2136,24 +2137,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241AF5C2-1412-4CE1-B384-5D5E5A93430C}">
-  <dimension ref="A1:K130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FCCE33-F92C-4E22-8FF3-7AC10E83F131}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K113" sqref="H1:K113"/>
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241AF5C2-1412-4CE1-B384-5D5E5A93430C}">
+  <dimension ref="A1:L130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D1">
         <v>438</v>
@@ -2162,24 +2181,27 @@
         <v>525.6</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="1">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="I1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D2">
         <v>432</v>
@@ -2187,22 +2209,22 @@
       <c r="E2" s="1">
         <v>518.4</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1">
         <v>559</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
         <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>100</v>
       </c>
       <c r="D3">
         <v>428</v>
@@ -2210,22 +2232,22 @@
       <c r="E3" s="1">
         <v>513.6</v>
       </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1">
         <v>552</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <v>427</v>
@@ -2233,22 +2255,22 @@
       <c r="E4" s="1">
         <v>512.4</v>
       </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1">
         <v>544</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5">
         <v>423</v>
@@ -2256,22 +2278,22 @@
       <c r="E5" s="1">
         <v>507.59999999999997</v>
       </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="1">
         <v>539</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D6">
         <v>405</v>
@@ -2279,22 +2301,22 @@
       <c r="E6" s="1">
         <v>486</v>
       </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="1">
         <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D7">
         <v>447</v>
@@ -2302,22 +2324,22 @@
       <c r="E7" s="1">
         <v>536.4</v>
       </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="1">
         <v>529</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D8">
         <v>440</v>
@@ -2325,22 +2347,22 @@
       <c r="E8" s="1">
         <v>528</v>
       </c>
-      <c r="J8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="1">
         <v>525</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
       <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
         <v>104</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
       </c>
       <c r="D9">
         <v>436</v>
@@ -2349,24 +2371,27 @@
         <v>523.19999999999993</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="1">
+        <v>159</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="1">
         <v>562</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D10">
         <v>432</v>
@@ -2374,22 +2399,22 @@
       <c r="E10" s="1">
         <v>518.4</v>
       </c>
-      <c r="J10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="1">
         <v>553</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D11">
         <v>418</v>
@@ -2397,22 +2422,22 @@
       <c r="E11" s="1">
         <v>501.59999999999997</v>
       </c>
-      <c r="J11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="1">
         <v>549</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D12">
         <v>415</v>
@@ -2420,22 +2445,22 @@
       <c r="E12" s="1">
         <v>498</v>
       </c>
-      <c r="J12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="1">
         <v>542</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D13">
         <v>403</v>
@@ -2443,22 +2468,22 @@
       <c r="E13" s="1">
         <v>483.59999999999997</v>
       </c>
-      <c r="J13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="1">
         <v>535</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D14">
         <v>422</v>
@@ -2466,22 +2491,22 @@
       <c r="E14" s="1">
         <v>506.4</v>
       </c>
-      <c r="J14" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="K14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="1">
         <v>526</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D15">
         <v>422</v>
@@ -2489,22 +2514,22 @@
       <c r="E15" s="1">
         <v>506.4</v>
       </c>
-      <c r="J15" t="s">
-        <v>99</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="K15" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" s="1">
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17</v>
       </c>
       <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
         <v>112</v>
-      </c>
-      <c r="C16" t="s">
-        <v>115</v>
       </c>
       <c r="D16">
         <v>420</v>
@@ -2512,22 +2537,22 @@
       <c r="E16" s="1">
         <v>504</v>
       </c>
-      <c r="J16" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="K16" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="1">
         <v>514</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D17">
         <v>420</v>
@@ -2536,24 +2561,27 @@
         <v>504</v>
       </c>
       <c r="H17" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
         <v>1</v>
       </c>
-      <c r="J17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>553</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D18">
         <v>405</v>
@@ -2561,22 +2589,22 @@
       <c r="E18" s="1">
         <v>486</v>
       </c>
-      <c r="J18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="K18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="1">
         <v>553</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D19">
         <v>428</v>
@@ -2584,22 +2612,22 @@
       <c r="E19" s="1">
         <v>513.6</v>
       </c>
-      <c r="J19" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="1">
+      <c r="K19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
         <v>552</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D20">
         <v>427</v>
@@ -2607,22 +2635,22 @@
       <c r="E20" s="1">
         <v>512.4</v>
       </c>
-      <c r="J20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K20" s="1">
+      <c r="K20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="1">
         <v>526</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
         <v>118</v>
-      </c>
-      <c r="C21" t="s">
-        <v>121</v>
       </c>
       <c r="D21">
         <v>412</v>
@@ -2630,22 +2658,22 @@
       <c r="E21" s="1">
         <v>494.4</v>
       </c>
-      <c r="J21" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="1">
+      <c r="K21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="1">
         <v>523</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D22">
         <v>411</v>
@@ -2653,22 +2681,22 @@
       <c r="E22" s="1">
         <v>493.2</v>
       </c>
-      <c r="J22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="1">
+      <c r="K22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D23">
         <v>398</v>
@@ -2676,22 +2704,22 @@
       <c r="E23" s="1">
         <v>477.59999999999997</v>
       </c>
-      <c r="J23" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="1">
+      <c r="K23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D24">
         <v>371</v>
@@ -2699,22 +2727,22 @@
       <c r="E24" s="1">
         <v>445.2</v>
       </c>
-      <c r="J24" t="s">
-        <v>105</v>
-      </c>
-      <c r="K24" s="1">
+      <c r="K24" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" s="1">
         <v>536</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D25">
         <v>424</v>
@@ -2723,24 +2751,27 @@
         <v>508.79999999999995</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" t="s">
-        <v>42</v>
-      </c>
-      <c r="K25" s="1">
+        <v>159</v>
+      </c>
+      <c r="I25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="1">
         <v>515</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D26">
         <v>415</v>
@@ -2748,22 +2779,22 @@
       <c r="E26" s="1">
         <v>498</v>
       </c>
-      <c r="J26" t="s">
-        <v>113</v>
-      </c>
-      <c r="K26" s="1">
+      <c r="K26" t="s">
+        <v>110</v>
+      </c>
+      <c r="L26" s="1">
         <v>506</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
       <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
         <v>125</v>
-      </c>
-      <c r="C27" t="s">
-        <v>128</v>
       </c>
       <c r="D27">
         <v>411</v>
@@ -2771,22 +2802,22 @@
       <c r="E27" s="1">
         <v>493.2</v>
       </c>
-      <c r="J27" t="s">
-        <v>114</v>
-      </c>
-      <c r="K27" s="1">
+      <c r="K27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L27" s="1">
         <v>506</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D28">
         <v>410</v>
@@ -2794,22 +2825,22 @@
       <c r="E28" s="1">
         <v>492</v>
       </c>
-      <c r="J28" t="s">
-        <v>115</v>
-      </c>
-      <c r="K28" s="1">
+      <c r="K28" t="s">
+        <v>112</v>
+      </c>
+      <c r="L28" s="1">
         <v>504</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D29">
         <v>406</v>
@@ -2817,22 +2848,22 @@
       <c r="E29" s="1">
         <v>487.2</v>
       </c>
-      <c r="J29" t="s">
-        <v>116</v>
-      </c>
-      <c r="K29" s="1">
+      <c r="K29" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" s="1">
         <v>504</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D30">
         <v>406</v>
@@ -2840,22 +2871,22 @@
       <c r="E30" s="1">
         <v>487.2</v>
       </c>
-      <c r="J30" t="s">
-        <v>117</v>
-      </c>
-      <c r="K30" s="1">
+      <c r="K30" t="s">
+        <v>114</v>
+      </c>
+      <c r="L30" s="1">
         <v>486</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D31">
         <v>394</v>
@@ -2863,22 +2894,22 @@
       <c r="E31" s="1">
         <v>472.79999999999995</v>
       </c>
-      <c r="J31" t="s">
-        <v>110</v>
-      </c>
-      <c r="K31" s="1">
+      <c r="K31" t="s">
+        <v>107</v>
+      </c>
+      <c r="L31" s="1">
         <v>498</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D32">
         <v>417</v>
@@ -2886,22 +2917,22 @@
       <c r="E32" s="1">
         <v>500.4</v>
       </c>
-      <c r="J32" t="s">
-        <v>111</v>
-      </c>
-      <c r="K32" s="1">
+      <c r="K32" t="s">
+        <v>108</v>
+      </c>
+      <c r="L32" s="1">
         <v>484</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D33">
         <v>411</v>
@@ -2910,24 +2941,27 @@
         <v>493.2</v>
       </c>
       <c r="H33" t="s">
-        <v>43</v>
-      </c>
-      <c r="J33" t="s">
-        <v>44</v>
-      </c>
-      <c r="K33" s="1">
+        <v>159</v>
+      </c>
+      <c r="I33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="1">
         <v>539</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20</v>
       </c>
       <c r="B34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" t="s">
         <v>133</v>
-      </c>
-      <c r="C34" t="s">
-        <v>136</v>
       </c>
       <c r="D34">
         <v>405</v>
@@ -2935,22 +2969,22 @@
       <c r="E34" s="1">
         <v>486</v>
       </c>
-      <c r="J34" t="s">
-        <v>45</v>
-      </c>
-      <c r="K34" s="1">
+      <c r="K34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" s="1">
         <v>532</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D35">
         <v>396</v>
@@ -2958,22 +2992,22 @@
       <c r="E35" s="1">
         <v>475.2</v>
       </c>
-      <c r="J35" t="s">
-        <v>46</v>
-      </c>
-      <c r="K35" s="1">
+      <c r="K35" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="1">
         <v>524</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D36">
         <v>426</v>
@@ -2981,22 +3015,22 @@
       <c r="E36" s="1">
         <v>511.2</v>
       </c>
-      <c r="J36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K36" s="1">
+      <c r="K36" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" s="1">
         <v>519</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D37">
         <v>408</v>
@@ -3004,22 +3038,22 @@
       <c r="E37" s="1">
         <v>489.59999999999997</v>
       </c>
-      <c r="J37" t="s">
-        <v>48</v>
-      </c>
-      <c r="K37" s="1">
+      <c r="K37" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37" s="1">
         <v>514</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>21</v>
       </c>
       <c r="B38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" t="s">
         <v>138</v>
-      </c>
-      <c r="C38" t="s">
-        <v>141</v>
       </c>
       <c r="D38">
         <v>402</v>
@@ -3027,22 +3061,22 @@
       <c r="E38" s="1">
         <v>482.4</v>
       </c>
-      <c r="J38" t="s">
-        <v>119</v>
-      </c>
-      <c r="K38" s="1">
+      <c r="K38" t="s">
+        <v>116</v>
+      </c>
+      <c r="L38" s="1">
         <v>514</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D39">
         <v>400</v>
@@ -3050,22 +3084,22 @@
       <c r="E39" s="1">
         <v>480</v>
       </c>
-      <c r="J39" t="s">
-        <v>120</v>
-      </c>
-      <c r="K39" s="1">
+      <c r="K39" t="s">
+        <v>117</v>
+      </c>
+      <c r="L39" s="1">
         <v>512</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D40">
         <v>437</v>
@@ -3073,22 +3107,22 @@
       <c r="E40" s="1">
         <v>524.4</v>
       </c>
-      <c r="J40" t="s">
-        <v>121</v>
-      </c>
-      <c r="K40" s="1">
+      <c r="K40" t="s">
+        <v>118</v>
+      </c>
+      <c r="L40" s="1">
         <v>494</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D41">
         <v>436</v>
@@ -3097,24 +3131,27 @@
         <v>523.19999999999993</v>
       </c>
       <c r="H41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J41" t="s">
-        <v>27</v>
-      </c>
-      <c r="K41" s="1">
+        <v>159</v>
+      </c>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="1">
         <v>529</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>22</v>
       </c>
       <c r="B42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" t="s">
         <v>143</v>
-      </c>
-      <c r="C42" t="s">
-        <v>146</v>
       </c>
       <c r="D42">
         <v>430</v>
@@ -3122,22 +3159,22 @@
       <c r="E42" s="1">
         <v>516</v>
       </c>
-      <c r="J42" t="s">
-        <v>28</v>
-      </c>
-      <c r="K42" s="1">
+      <c r="K42" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" s="1">
         <v>528</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D43">
         <v>425</v>
@@ -3145,22 +3182,22 @@
       <c r="E43" s="1">
         <v>510</v>
       </c>
-      <c r="J43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K43" s="1">
+      <c r="K43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="1">
         <v>512</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D44">
         <v>421</v>
@@ -3168,22 +3205,22 @@
       <c r="E44" s="1">
         <v>505.2</v>
       </c>
-      <c r="J44" t="s">
-        <v>30</v>
-      </c>
-      <c r="K44" s="1">
+      <c r="K44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" s="1">
         <v>495</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D45">
         <v>413</v>
@@ -3191,22 +3228,22 @@
       <c r="E45" s="1">
         <v>495.59999999999997</v>
       </c>
-      <c r="J45" t="s">
-        <v>31</v>
-      </c>
-      <c r="K45" s="1">
+      <c r="K45" t="s">
+        <v>29</v>
+      </c>
+      <c r="L45" s="1">
         <v>492</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D46">
         <v>401</v>
@@ -3214,531 +3251,540 @@
       <c r="E46" s="1">
         <v>481.2</v>
       </c>
-      <c r="J46" t="s">
-        <v>32</v>
-      </c>
-      <c r="K46" s="1">
+      <c r="K46" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" s="1">
         <v>491</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E47" s="1">
         <v>519.33333333333337</v>
       </c>
-      <c r="J47" t="s">
-        <v>126</v>
-      </c>
-      <c r="K47" s="1">
+      <c r="K47" t="s">
+        <v>123</v>
+      </c>
+      <c r="L47" s="1">
         <v>509</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E48" s="1">
         <v>507.75</v>
       </c>
-      <c r="J48" t="s">
-        <v>127</v>
-      </c>
-      <c r="K48" s="1">
+      <c r="K48" t="s">
+        <v>124</v>
+      </c>
+      <c r="L48" s="1">
         <v>498</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>9</v>
       </c>
       <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
         <v>56</v>
-      </c>
-      <c r="C49" t="s">
-        <v>59</v>
       </c>
       <c r="E49" s="1">
         <v>507.25</v>
       </c>
       <c r="H49" t="s">
+        <v>159</v>
+      </c>
+      <c r="I49" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" t="s">
         <v>9</v>
       </c>
-      <c r="J49" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="1">
+      <c r="L49" s="1">
         <v>544</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E50" s="1">
         <v>503.5</v>
       </c>
-      <c r="J50" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="1">
+      <c r="K50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" s="1">
         <v>536</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E51" s="1">
         <v>494</v>
       </c>
-      <c r="J51" t="s">
-        <v>12</v>
-      </c>
-      <c r="K51" s="1">
+      <c r="K51" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="1">
         <v>532</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E52" s="1">
         <v>480</v>
       </c>
-      <c r="J52" t="s">
-        <v>13</v>
-      </c>
-      <c r="K52" s="1">
+      <c r="K52" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="1">
         <v>516</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E53" s="1">
         <v>470.33333333333331</v>
       </c>
-      <c r="J53" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53" s="1">
+      <c r="K53" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" s="1">
         <v>513</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E54" s="1">
         <v>519</v>
       </c>
-      <c r="J54" t="s">
-        <v>15</v>
-      </c>
-      <c r="K54" s="1">
+      <c r="K54" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="1">
         <v>512</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E55" s="1">
         <v>518</v>
       </c>
-      <c r="J55" t="s">
-        <v>16</v>
-      </c>
-      <c r="K55" s="1">
+      <c r="K55" t="s">
+        <v>15</v>
+      </c>
+      <c r="L55" s="1">
         <v>495</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10</v>
       </c>
       <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" t="s">
         <v>64</v>
-      </c>
-      <c r="C56" t="s">
-        <v>67</v>
       </c>
       <c r="E56" s="1">
         <v>506</v>
       </c>
-      <c r="J56" t="s">
-        <v>17</v>
-      </c>
-      <c r="K56" s="1">
+      <c r="K56" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="1">
         <v>476</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E57" s="1">
         <v>505.66666666666669</v>
       </c>
       <c r="H57" t="s">
-        <v>49</v>
-      </c>
-      <c r="J57" t="s">
-        <v>50</v>
-      </c>
-      <c r="K57" s="1">
+        <v>159</v>
+      </c>
+      <c r="I57" t="s">
+        <v>46</v>
+      </c>
+      <c r="K57" t="s">
+        <v>47</v>
+      </c>
+      <c r="L57" s="1">
         <v>544</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E58" s="1">
         <v>476.5</v>
       </c>
-      <c r="J58" t="s">
-        <v>51</v>
-      </c>
-      <c r="K58" s="1">
+      <c r="K58" t="s">
+        <v>48</v>
+      </c>
+      <c r="L58" s="1">
         <v>541</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E59" s="1">
         <v>546.33333333333337</v>
       </c>
-      <c r="J59" t="s">
-        <v>52</v>
-      </c>
-      <c r="K59" s="1">
+      <c r="K59" t="s">
+        <v>49</v>
+      </c>
+      <c r="L59" s="1">
         <v>512</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E60" s="1">
         <v>528.66666666666663</v>
       </c>
-      <c r="J60" t="s">
-        <v>53</v>
-      </c>
-      <c r="K60" s="1">
+      <c r="K60" t="s">
+        <v>50</v>
+      </c>
+      <c r="L60" s="1">
         <v>508</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11</v>
       </c>
       <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
         <v>70</v>
-      </c>
-      <c r="C61" t="s">
-        <v>73</v>
       </c>
       <c r="E61" s="1">
         <v>527.75</v>
       </c>
-      <c r="J61" t="s">
-        <v>54</v>
-      </c>
-      <c r="K61" s="1">
+      <c r="K61" t="s">
+        <v>51</v>
+      </c>
+      <c r="L61" s="1">
         <v>507</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E62" s="1">
         <v>524.75</v>
       </c>
-      <c r="J62" t="s">
-        <v>55</v>
-      </c>
-      <c r="K62" s="1">
+      <c r="K62" t="s">
+        <v>52</v>
+      </c>
+      <c r="L62" s="1">
         <v>498</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E63" s="1">
         <v>515.25</v>
       </c>
-      <c r="J63" t="s">
-        <v>134</v>
-      </c>
-      <c r="K63" s="1">
+      <c r="K63" t="s">
+        <v>131</v>
+      </c>
+      <c r="L63" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E64" s="1">
         <v>506</v>
       </c>
-      <c r="J64" t="s">
-        <v>135</v>
-      </c>
-      <c r="K64" s="1">
+      <c r="K64" t="s">
+        <v>132</v>
+      </c>
+      <c r="L64" s="1">
         <v>493</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E65" s="1">
         <v>555</v>
       </c>
       <c r="H65" t="s">
-        <v>56</v>
-      </c>
-      <c r="J65" t="s">
-        <v>57</v>
-      </c>
-      <c r="K65" s="1">
+        <v>159</v>
+      </c>
+      <c r="I65" t="s">
+        <v>53</v>
+      </c>
+      <c r="K65" t="s">
+        <v>54</v>
+      </c>
+      <c r="L65" s="1">
         <v>519</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E66" s="1">
         <v>533.79999999999995</v>
       </c>
-      <c r="J66" t="s">
-        <v>58</v>
-      </c>
-      <c r="K66" s="1">
+      <c r="K66" t="s">
+        <v>55</v>
+      </c>
+      <c r="L66" s="1">
         <v>508</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>12</v>
       </c>
       <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
         <v>77</v>
-      </c>
-      <c r="C67" t="s">
-        <v>80</v>
       </c>
       <c r="E67" s="1">
         <v>506.8</v>
       </c>
-      <c r="J67" t="s">
-        <v>59</v>
-      </c>
-      <c r="K67" s="1">
+      <c r="K67" t="s">
+        <v>56</v>
+      </c>
+      <c r="L67" s="1">
         <v>507</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E68" s="1">
         <v>502</v>
       </c>
-      <c r="J68" t="s">
-        <v>60</v>
-      </c>
-      <c r="K68" s="1">
+      <c r="K68" t="s">
+        <v>57</v>
+      </c>
+      <c r="L68" s="1">
         <v>504</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E69" s="1">
         <v>496.5</v>
       </c>
-      <c r="J69" t="s">
-        <v>61</v>
-      </c>
-      <c r="K69" s="1">
+      <c r="K69" t="s">
+        <v>58</v>
+      </c>
+      <c r="L69" s="1">
         <v>494</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E70" s="1">
         <v>492</v>
       </c>
-      <c r="J70" t="s">
-        <v>62</v>
-      </c>
-      <c r="K70" s="1">
+      <c r="K70" t="s">
+        <v>59</v>
+      </c>
+      <c r="L70" s="1">
         <v>480</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E71" s="1">
         <v>491.4</v>
       </c>
-      <c r="J71" t="s">
-        <v>63</v>
-      </c>
-      <c r="K71" s="1">
+      <c r="K71" t="s">
+        <v>60</v>
+      </c>
+      <c r="L71" s="1">
         <v>470</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D72">
         <v>455</v>
@@ -3746,22 +3792,22 @@
       <c r="E72" s="1">
         <v>546</v>
       </c>
-      <c r="J72" t="s">
-        <v>139</v>
-      </c>
-      <c r="K72" s="1">
+      <c r="K72" t="s">
+        <v>136</v>
+      </c>
+      <c r="L72" s="1">
         <v>511</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D73">
         <v>452</v>
@@ -3770,24 +3816,27 @@
         <v>542.4</v>
       </c>
       <c r="H73" t="s">
-        <v>64</v>
-      </c>
-      <c r="J73" t="s">
-        <v>65</v>
-      </c>
-      <c r="K73" s="1">
+        <v>159</v>
+      </c>
+      <c r="I73" t="s">
+        <v>61</v>
+      </c>
+      <c r="K73" t="s">
+        <v>62</v>
+      </c>
+      <c r="L73" s="1">
         <v>519</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>13</v>
       </c>
       <c r="B74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" t="s">
         <v>85</v>
-      </c>
-      <c r="C74" t="s">
-        <v>88</v>
       </c>
       <c r="D74">
         <v>448</v>
@@ -3795,22 +3844,22 @@
       <c r="E74" s="1">
         <v>537.6</v>
       </c>
-      <c r="J74" t="s">
-        <v>66</v>
-      </c>
-      <c r="K74" s="1">
+      <c r="K74" t="s">
+        <v>63</v>
+      </c>
+      <c r="L74" s="1">
         <v>518</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D75">
         <v>436</v>
@@ -3818,22 +3867,22 @@
       <c r="E75" s="1">
         <v>523.19999999999993</v>
       </c>
-      <c r="J75" t="s">
-        <v>67</v>
-      </c>
-      <c r="K75" s="1">
+      <c r="K75" t="s">
+        <v>64</v>
+      </c>
+      <c r="L75" s="1">
         <v>506</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D76">
         <v>435</v>
@@ -3841,22 +3890,22 @@
       <c r="E76" s="1">
         <v>522</v>
       </c>
-      <c r="J76" t="s">
-        <v>68</v>
-      </c>
-      <c r="K76" s="1">
+      <c r="K76" t="s">
+        <v>65</v>
+      </c>
+      <c r="L76" s="1">
         <v>506</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D77">
         <v>406</v>
@@ -3864,22 +3913,22 @@
       <c r="E77" s="1">
         <v>487.2</v>
       </c>
-      <c r="J77" t="s">
-        <v>69</v>
-      </c>
-      <c r="K77" s="1">
+      <c r="K77" t="s">
+        <v>66</v>
+      </c>
+      <c r="L77" s="1">
         <v>477</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D78">
         <v>440</v>
@@ -3887,22 +3936,22 @@
       <c r="E78" s="1">
         <v>528</v>
       </c>
-      <c r="J78" t="s">
-        <v>144</v>
-      </c>
-      <c r="K78" s="1">
+      <c r="K78" t="s">
+        <v>141</v>
+      </c>
+      <c r="L78" s="1">
         <v>524</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D79">
         <v>428</v>
@@ -3910,22 +3959,22 @@
       <c r="E79" s="1">
         <v>513.6</v>
       </c>
-      <c r="J79" t="s">
-        <v>145</v>
-      </c>
-      <c r="K79" s="1">
+      <c r="K79" t="s">
+        <v>142</v>
+      </c>
+      <c r="L79" s="1">
         <v>523</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D80">
         <v>422</v>
@@ -3933,22 +3982,22 @@
       <c r="E80" s="1">
         <v>506.4</v>
       </c>
-      <c r="J80" t="s">
-        <v>146</v>
-      </c>
-      <c r="K80" s="1">
+      <c r="K80" t="s">
+        <v>143</v>
+      </c>
+      <c r="L80" s="1">
         <v>516</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>14</v>
       </c>
       <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" t="s">
         <v>92</v>
-      </c>
-      <c r="C81" t="s">
-        <v>95</v>
       </c>
       <c r="D81">
         <v>421</v>
@@ -3957,24 +4006,27 @@
         <v>505.2</v>
       </c>
       <c r="H81" t="s">
-        <v>70</v>
-      </c>
-      <c r="J81" t="s">
-        <v>71</v>
-      </c>
-      <c r="K81" s="1">
+        <v>159</v>
+      </c>
+      <c r="I81" t="s">
+        <v>67</v>
+      </c>
+      <c r="K81" t="s">
+        <v>68</v>
+      </c>
+      <c r="L81" s="1">
         <v>546</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D82">
         <v>408</v>
@@ -3982,259 +4034,268 @@
       <c r="E82" s="1">
         <v>489.59999999999997</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
+        <v>69</v>
+      </c>
+      <c r="L82" s="1">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K83" t="s">
+        <v>70</v>
+      </c>
+      <c r="L83" s="1">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K84" t="s">
+        <v>71</v>
+      </c>
+      <c r="L84" s="1">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K85" t="s">
         <v>72</v>
       </c>
-      <c r="K82" s="1">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J83" t="s">
+      <c r="L85" s="1">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K86" t="s">
         <v>73</v>
       </c>
-      <c r="K83" s="1">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J84" t="s">
+      <c r="L86" s="1">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K87" t="s">
+        <v>86</v>
+      </c>
+      <c r="L87" s="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K88" t="s">
+        <v>87</v>
+      </c>
+      <c r="L88" s="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
+        <v>159</v>
+      </c>
+      <c r="I89" t="s">
         <v>74</v>
       </c>
-      <c r="K84" s="1">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J85" t="s">
+      <c r="K89" t="s">
         <v>75</v>
       </c>
-      <c r="K85" s="1">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J86" t="s">
+      <c r="L89" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K90" t="s">
         <v>76</v>
       </c>
-      <c r="K86" s="1">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J87" t="s">
-        <v>89</v>
-      </c>
-      <c r="K87" s="1">
+      <c r="L90" s="1">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K91" t="s">
+        <v>77</v>
+      </c>
+      <c r="L91" s="1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K92" t="s">
+        <v>78</v>
+      </c>
+      <c r="L92" s="1">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K93" t="s">
+        <v>79</v>
+      </c>
+      <c r="L93" s="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K94" t="s">
+        <v>80</v>
+      </c>
+      <c r="L94" s="1">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K95" t="s">
+        <v>81</v>
+      </c>
+      <c r="L95" s="1">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K96" t="s">
+        <v>147</v>
+      </c>
+      <c r="L96" s="1">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="97" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>159</v>
+      </c>
+      <c r="I97" t="s">
+        <v>82</v>
+      </c>
+      <c r="K97" t="s">
+        <v>83</v>
+      </c>
+      <c r="L97" s="1">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="98" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K98" t="s">
+        <v>84</v>
+      </c>
+      <c r="L98" s="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="99" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K99" t="s">
+        <v>85</v>
+      </c>
+      <c r="L99" s="1">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="100" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K100" t="s">
+        <v>86</v>
+      </c>
+      <c r="L100" s="1">
         <v>523</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J88" t="s">
-        <v>90</v>
-      </c>
-      <c r="K88" s="1">
+    <row r="101" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K101" t="s">
+        <v>87</v>
+      </c>
+      <c r="L101" s="1">
         <v>522</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H89" t="s">
-        <v>77</v>
-      </c>
-      <c r="J89" t="s">
-        <v>78</v>
-      </c>
-      <c r="K89" s="1">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J90" t="s">
-        <v>79</v>
-      </c>
-      <c r="K90" s="1">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J91" t="s">
-        <v>80</v>
-      </c>
-      <c r="K91" s="1">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J92" t="s">
-        <v>81</v>
-      </c>
-      <c r="K92" s="1">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J93" t="s">
-        <v>82</v>
-      </c>
-      <c r="K93" s="1">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J94" t="s">
-        <v>83</v>
-      </c>
-      <c r="K94" s="1">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J95" t="s">
-        <v>84</v>
-      </c>
-      <c r="K95" s="1">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J96" t="s">
+    <row r="102" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K102" t="s">
+        <v>88</v>
+      </c>
+      <c r="L102" s="1">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="103" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K103" t="s">
+        <v>98</v>
+      </c>
+      <c r="L103" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="104" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K104" t="s">
+        <v>99</v>
+      </c>
+      <c r="L104" s="1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="105" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H105" t="s">
+        <v>159</v>
+      </c>
+      <c r="I105" t="s">
+        <v>148</v>
+      </c>
+      <c r="K105" t="s">
+        <v>149</v>
+      </c>
+      <c r="L105" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="106" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K106" t="s">
         <v>150</v>
       </c>
-      <c r="K96" s="1">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="97" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H97" t="s">
-        <v>85</v>
-      </c>
-      <c r="J97" t="s">
-        <v>86</v>
-      </c>
-      <c r="K97" s="1">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="98" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="J98" t="s">
-        <v>87</v>
-      </c>
-      <c r="K98" s="1">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="99" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="J99" t="s">
-        <v>88</v>
-      </c>
-      <c r="K99" s="1">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="100" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="J100" t="s">
-        <v>89</v>
-      </c>
-      <c r="K100" s="1">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="101" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="J101" t="s">
-        <v>90</v>
-      </c>
-      <c r="K101" s="1">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="102" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="J102" t="s">
-        <v>91</v>
-      </c>
-      <c r="K102" s="1">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="103" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="J103" t="s">
-        <v>101</v>
-      </c>
-      <c r="K103" s="1">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="104" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="J104" t="s">
-        <v>102</v>
-      </c>
-      <c r="K104" s="1">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="105" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H105" t="s">
+      <c r="L106" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="107" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K107" t="s">
         <v>151</v>
       </c>
-      <c r="J105" t="s">
+      <c r="L107" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="108" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K108" t="s">
         <v>152</v>
       </c>
-      <c r="K105" s="1">
+      <c r="L108" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="J106" t="s">
+    <row r="109" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K109" t="s">
         <v>153</v>
       </c>
-      <c r="K106" s="1">
+      <c r="L109" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="107" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="J107" t="s">
+    <row r="110" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K110" t="s">
         <v>154</v>
       </c>
-      <c r="K107" s="1">
+      <c r="L110" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="J108" t="s">
+    <row r="111" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K111" t="s">
         <v>155</v>
       </c>
-      <c r="K108" s="1">
+      <c r="L111" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="J109" t="s">
+    <row r="112" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K112" t="s">
         <v>156</v>
       </c>
-      <c r="K109" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="110" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="J110" t="s">
-        <v>157</v>
-      </c>
-      <c r="K110" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="111" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="J111" t="s">
-        <v>158</v>
-      </c>
-      <c r="K111" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="112" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="J112" t="s">
-        <v>159</v>
-      </c>
-      <c r="K112" s="1">
+      <c r="L112" s="1">
         <v>300</v>
       </c>
     </row>
@@ -4245,31 +4306,163 @@
       <c r="E130" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K9:K13">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K23">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
+  <conditionalFormatting sqref="E129:E130 E1:E82">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="num" val="460"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:L13">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="num" val="460"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:L23">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="num" val="460"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="num" val="460"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33:L37">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="num" val="460"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L41:L46">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="num" val="460"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49:L56">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="num" val="460"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L57:L62">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="num" val="460"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L65:L71">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="num" val="460"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L73:L77">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="num" val="460"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L81:L86">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="num" val="460"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L89:L95">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="num" val="460"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L97:L102 L105:L112">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="num" val="460"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L8">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -4281,127 +4474,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:K37">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41:K46">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49:K56">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:K62">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K65:K71">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K73:K77">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K81:K86">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K89:K95">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K97:K102 K105:K112">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K8 E129:E130 E1:E82">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K16">
+  <conditionalFormatting sqref="L14:L16">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -4413,7 +4486,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
+  <conditionalFormatting sqref="L24">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -4425,7 +4498,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:K30">
+  <conditionalFormatting sqref="L26:L30">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -4437,7 +4510,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:K32">
+  <conditionalFormatting sqref="L31:L32">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -4449,7 +4522,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:K40">
+  <conditionalFormatting sqref="L38:L40">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -4461,7 +4534,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:K48">
+  <conditionalFormatting sqref="L47:L48">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -4473,7 +4546,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:K64">
+  <conditionalFormatting sqref="L63:L64">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -4485,7 +4558,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K72">
+  <conditionalFormatting sqref="L72">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -4497,7 +4570,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K78:K80">
+  <conditionalFormatting sqref="L78:L80">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -4509,7 +4582,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K87:K88">
+  <conditionalFormatting sqref="L87:L88">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -4521,7 +4594,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K96">
+  <conditionalFormatting sqref="L96">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -4533,7 +4606,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K103">
+  <conditionalFormatting sqref="L103">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -4545,7 +4618,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K104">
+  <conditionalFormatting sqref="L104">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="460"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784F9EC6-14F5-40D9-8089-7720B1E24171}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C7C1C6-659A-4ECF-848A-5BBE97A70328}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="160">
   <si>
     <t>SG Wählitz</t>
   </si>
@@ -829,7 +829,7 @@
   <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,69 +844,69 @@
         <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E1">
-        <v>553</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1">
-        <v>549</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1">
-        <v>535</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1">
-        <v>562</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1">
-        <v>518</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1">
-        <v>526</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1">
-        <v>514</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1">
-        <v>542</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -914,69 +914,69 @@
         <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1">
-        <v>552</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1">
-        <v>529</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1">
-        <v>526</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1">
-        <v>525</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1">
-        <v>520</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="E14" s="1">
-        <v>544</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="E15" s="1">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="E16" s="1">
-        <v>539</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -987,58 +987,58 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>523</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1">
-        <v>553</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
       <c r="E22" s="1">
-        <v>572</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E23" s="1">
-        <v>553</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" s="1">
         <v>506</v>
@@ -1073,50 +1073,50 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27" s="1">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E28" s="1">
-        <v>486</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E29" s="1">
-        <v>484</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E30" s="1">
-        <v>498</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E31" s="1">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E32" s="1">
-        <v>506</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2138,7 +2138,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FCCE33-F92C-4E22-8FF3-7AC10E83F131}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -2149,7 +2149,708 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2">
+        <v>131</v>
+      </c>
+      <c r="C2">
+        <v>132</v>
+      </c>
+      <c r="D2">
+        <v>147</v>
+      </c>
+      <c r="E2">
+        <v>125</v>
+      </c>
+      <c r="F2">
+        <v>535</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>509</v>
+      </c>
+      <c r="L2">
+        <v>128</v>
+      </c>
+      <c r="M2">
+        <v>117</v>
+      </c>
+      <c r="N2">
+        <v>145</v>
+      </c>
+      <c r="O2">
+        <v>119</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>147</v>
+      </c>
+      <c r="C3">
+        <v>129</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3">
+        <v>146</v>
+      </c>
+      <c r="F3">
+        <v>572</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>535</v>
+      </c>
+      <c r="L3">
+        <v>151</v>
+      </c>
+      <c r="M3">
+        <v>139</v>
+      </c>
+      <c r="N3">
+        <v>119</v>
+      </c>
+      <c r="O3">
+        <v>126</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>138</v>
+      </c>
+      <c r="C4">
+        <v>135</v>
+      </c>
+      <c r="D4">
+        <v>155</v>
+      </c>
+      <c r="E4">
+        <v>148</v>
+      </c>
+      <c r="F4">
+        <v>576</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>513</v>
+      </c>
+      <c r="L4">
+        <v>134</v>
+      </c>
+      <c r="M4">
+        <v>115</v>
+      </c>
+      <c r="N4">
+        <v>121</v>
+      </c>
+      <c r="O4">
+        <v>143</v>
+      </c>
+      <c r="P4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5">
+        <v>138</v>
+      </c>
+      <c r="C5">
+        <v>123</v>
+      </c>
+      <c r="D5">
+        <v>128</v>
+      </c>
+      <c r="E5">
+        <v>132</v>
+      </c>
+      <c r="F5">
+        <v>521</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>557</v>
+      </c>
+      <c r="L5">
+        <v>131</v>
+      </c>
+      <c r="M5">
+        <v>136</v>
+      </c>
+      <c r="N5">
+        <v>140</v>
+      </c>
+      <c r="O5">
+        <v>150</v>
+      </c>
+      <c r="P5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>136</v>
+      </c>
+      <c r="C6">
+        <v>119</v>
+      </c>
+      <c r="D6">
+        <v>129</v>
+      </c>
+      <c r="E6">
+        <v>140</v>
+      </c>
+      <c r="F6">
+        <v>524</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>526</v>
+      </c>
+      <c r="L6">
+        <v>131</v>
+      </c>
+      <c r="M6">
+        <v>133</v>
+      </c>
+      <c r="N6">
+        <v>138</v>
+      </c>
+      <c r="O6">
+        <v>124</v>
+      </c>
+      <c r="P6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>160</v>
+      </c>
+      <c r="C7">
+        <v>147</v>
+      </c>
+      <c r="D7">
+        <v>146</v>
+      </c>
+      <c r="E7">
+        <v>151</v>
+      </c>
+      <c r="F7">
+        <v>604</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>559</v>
+      </c>
+      <c r="L7">
+        <v>145</v>
+      </c>
+      <c r="M7">
+        <v>148</v>
+      </c>
+      <c r="N7">
+        <v>137</v>
+      </c>
+      <c r="O7">
+        <v>129</v>
+      </c>
+      <c r="P7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>3332</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>3199</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>124</v>
+      </c>
+      <c r="C12">
+        <v>125</v>
+      </c>
+      <c r="D12">
+        <v>134</v>
+      </c>
+      <c r="E12">
+        <v>135</v>
+      </c>
+      <c r="F12">
+        <v>518</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>480</v>
+      </c>
+      <c r="L12">
+        <v>122</v>
+      </c>
+      <c r="M12">
+        <v>114</v>
+      </c>
+      <c r="N12">
+        <v>120</v>
+      </c>
+      <c r="O12">
+        <v>124</v>
+      </c>
+      <c r="P12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>130</v>
+      </c>
+      <c r="C13">
+        <v>118</v>
+      </c>
+      <c r="D13">
+        <v>118</v>
+      </c>
+      <c r="E13">
+        <v>144</v>
+      </c>
+      <c r="F13">
+        <v>510</v>
+      </c>
+      <c r="G13">
+        <v>2.5</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1.5</v>
+      </c>
+      <c r="K13">
+        <v>487</v>
+      </c>
+      <c r="L13">
+        <v>120</v>
+      </c>
+      <c r="M13">
+        <v>121</v>
+      </c>
+      <c r="N13">
+        <v>118</v>
+      </c>
+      <c r="O13">
+        <v>128</v>
+      </c>
+      <c r="P13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>124</v>
+      </c>
+      <c r="C14">
+        <v>131</v>
+      </c>
+      <c r="D14">
+        <v>123</v>
+      </c>
+      <c r="E14">
+        <v>141</v>
+      </c>
+      <c r="F14">
+        <v>519</v>
+      </c>
+      <c r="G14">
+        <v>3.5</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.5</v>
+      </c>
+      <c r="K14">
+        <v>483</v>
+      </c>
+      <c r="L14">
+        <v>124</v>
+      </c>
+      <c r="M14">
+        <v>107</v>
+      </c>
+      <c r="N14">
+        <v>121</v>
+      </c>
+      <c r="O14">
+        <v>131</v>
+      </c>
+      <c r="P14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15">
+        <v>155</v>
+      </c>
+      <c r="C15">
+        <v>151</v>
+      </c>
+      <c r="D15">
+        <v>153</v>
+      </c>
+      <c r="E15">
+        <v>148</v>
+      </c>
+      <c r="F15">
+        <v>607</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>465</v>
+      </c>
+      <c r="L15">
+        <v>138</v>
+      </c>
+      <c r="M15">
+        <v>123</v>
+      </c>
+      <c r="N15">
+        <v>97</v>
+      </c>
+      <c r="O15">
+        <v>107</v>
+      </c>
+      <c r="P15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>125</v>
+      </c>
+      <c r="C16">
+        <v>126</v>
+      </c>
+      <c r="D16">
+        <v>111</v>
+      </c>
+      <c r="E16">
+        <v>129</v>
+      </c>
+      <c r="F16">
+        <v>491</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>500</v>
+      </c>
+      <c r="L16">
+        <v>135</v>
+      </c>
+      <c r="M16">
+        <v>123</v>
+      </c>
+      <c r="N16">
+        <v>124</v>
+      </c>
+      <c r="O16">
+        <v>118</v>
+      </c>
+      <c r="P16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>129</v>
+      </c>
+      <c r="C17">
+        <v>143</v>
+      </c>
+      <c r="D17">
+        <v>150</v>
+      </c>
+      <c r="E17">
+        <v>152</v>
+      </c>
+      <c r="F17">
+        <v>574</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>480</v>
+      </c>
+      <c r="L17">
+        <v>113</v>
+      </c>
+      <c r="M17">
+        <v>117</v>
+      </c>
+      <c r="N17">
+        <v>129</v>
+      </c>
+      <c r="O17">
+        <v>121</v>
+      </c>
+      <c r="P17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>3219</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>2895</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2158,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241AF5C2-1412-4CE1-B384-5D5E5A93430C}">
   <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:L112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C7C1C6-659A-4ECF-848A-5BBE97A70328}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B3E501-0D3D-45FA-976C-8C4442054123}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -829,7 +829,7 @@
   <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B3E501-0D3D-45FA-976C-8C4442054123}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C27A934-2858-453C-8FCA-D8AB92F2B725}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId2"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId3"/>
+    <sheet name="Tabelle4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="202">
   <si>
     <t>SG Wählitz</t>
   </si>
@@ -508,6 +509,132 @@
   </si>
   <si>
     <t>Kreisoberliga</t>
+  </si>
+  <si>
+    <t>Name                            Punkte    S    U    N     MP     SP    Schnitt</t>
+  </si>
+  <si>
+    <t>----------------------------  --------  ---  ---  ---  -----  -----  ---------</t>
+  </si>
+  <si>
+    <t>SV Grün-Weiß Langendorf             70   23    1    2  168.5  445.5    3263.35</t>
+  </si>
+  <si>
+    <t>SV Grün-Weiß Granschütz             69   22    3    1  152    411      3204.23</t>
+  </si>
+  <si>
+    <t>SG Wählitz                          58   19    1    6  150.5  405      3192.65</t>
+  </si>
+  <si>
+    <t>KSV Flemmingen                      52   17    1    8  129    360      3142.62</t>
+  </si>
+  <si>
+    <t>SG Wählitz II                       50   16    2    8  127    360      3136.23</t>
+  </si>
+  <si>
+    <t>KSV Lossa                           42   14    0   12  118.5  343.5    3126.31</t>
+  </si>
+  <si>
+    <t>SV Teuchern                         41   13    2   11  106    323      3085.77</t>
+  </si>
+  <si>
+    <t>SV Grün-Weiß Granschütz II          32   10    2   14   94    295.5    3053</t>
+  </si>
+  <si>
+    <t>SV Eintracht Profen                 30   10    0   16   92.5  310.5    3008.23</t>
+  </si>
+  <si>
+    <t>SV Lok Weissenfels                  25    8    1   17   79    273.5    3045.12</t>
+  </si>
+  <si>
+    <t>SV Burgwerben                       24    8    0   18   68.5  256.5    2995.81</t>
+  </si>
+  <si>
+    <t>SV Fortuna Kayna                    23    7    2   17   87.5  300.5    2986.65</t>
+  </si>
+  <si>
+    <t>VfB Scharnhorst Großgörschen        22    7    1   18   83    283.5    3024.96</t>
+  </si>
+  <si>
+    <t>SG Wählitz III                       0    0    0   26    0      0      1777.96</t>
+  </si>
+  <si>
+    <t>SV Grün-Weiß Granschütz             69   22    3    1  159    412      3206.08</t>
+  </si>
+  <si>
+    <t>SV Grün-Weiß Langendorf             63   21    0    5  155.5  418      3259.92</t>
+  </si>
+  <si>
+    <t>SG Wählitz                          62   20    2    4  142    385      3181.27</t>
+  </si>
+  <si>
+    <t>SG Wählitz II                       52   17    1    8  136    386.5    3204.62</t>
+  </si>
+  <si>
+    <t>KSV Flemmingen                      52   17    1    8  133    377.5    3144.81</t>
+  </si>
+  <si>
+    <t>SV Teuchern                         49   16    1    9  117.5  346      3102.88</t>
+  </si>
+  <si>
+    <t>KSV Lossa                           42   14    0   12  104    297      3103.27</t>
+  </si>
+  <si>
+    <t>VfB Scharnhorst Großgörschen        41   13    2   11  115.5  350.5    3053.46</t>
+  </si>
+  <si>
+    <t>SV Lok Weissenfels                  36   12    0   14   98    305      3000.58</t>
+  </si>
+  <si>
+    <t>SV Eintracht Profen                 22    7    1   18   84.5  305      2995.31</t>
+  </si>
+  <si>
+    <t>SV Grün-Weiß Granschütz II          22    7    1   18   74    281      3043.65</t>
+  </si>
+  <si>
+    <t>SV Fortuna Kayna                    19    6    1   19   82    286      2992.65</t>
+  </si>
+  <si>
+    <t>SV Burgwerben                       10    3    1   22   55    218.5    2973.96</t>
+  </si>
+  <si>
+    <t>SG Wählitz III                       0    0    0   26    0      0      1799.92</t>
+  </si>
+  <si>
+    <t>Langendorf zu Wählitz</t>
+  </si>
+  <si>
+    <t>minus10% Basis oder Abzüge doppeln??</t>
+  </si>
+  <si>
+    <t>Lossa Wählitz</t>
+  </si>
+  <si>
+    <t>0.5 auf 0.3</t>
+  </si>
+  <si>
+    <t>Lossa zu Wählitz</t>
+  </si>
+  <si>
+    <t>SV Lok WSF</t>
+  </si>
+  <si>
+    <t>(jetzt geändert auf 28)</t>
+  </si>
+  <si>
+    <t>Starkes Alter 25</t>
+  </si>
+  <si>
+    <t>(Starkes Alter 27 - Alter)/2</t>
+  </si>
+  <si>
+    <t>Schnitt</t>
+  </si>
+  <si>
+    <t>Gut</t>
+  </si>
+  <si>
+    <t>Schlecht</t>
   </si>
 </sst>
 </file>
@@ -543,9 +670,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -826,20 +955,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>159</v>
       </c>
@@ -852,64 +976,88 @@
       <c r="E1">
         <v>572</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="1">
         <v>559</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="1">
         <v>552</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="1">
         <v>544</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="1">
         <v>539</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="1">
         <v>534</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1">
         <v>529</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="1">
         <v>525</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -922,64 +1070,88 @@
       <c r="E9" s="1">
         <v>562</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="1">
         <v>553</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="1">
         <v>549</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="1">
         <v>542</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="1">
         <v>535</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>95</v>
       </c>
       <c r="E14" s="1">
         <v>526</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>96</v>
       </c>
       <c r="E15" s="1">
         <v>518</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>97</v>
       </c>
       <c r="E16" s="1">
         <v>514</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>159</v>
       </c>
@@ -992,64 +1164,88 @@
       <c r="E17" s="1">
         <v>553</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="1">
         <v>553</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="1">
         <v>552</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="1">
         <v>526</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="1">
         <v>523</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="1">
         <v>520</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="1">
         <v>520</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>102</v>
       </c>
       <c r="E24" s="1">
         <v>536</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>159</v>
       </c>
@@ -1062,64 +1258,88 @@
       <c r="E25" s="1">
         <v>515</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>110</v>
       </c>
       <c r="E26" s="1">
         <v>506</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>111</v>
       </c>
       <c r="E27" s="1">
         <v>506</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="1">
         <v>504</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>113</v>
       </c>
       <c r="E29" s="1">
         <v>504</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>114</v>
       </c>
       <c r="E30" s="1">
         <v>486</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>107</v>
       </c>
       <c r="E31" s="1">
         <v>498</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>108</v>
       </c>
       <c r="E32" s="1">
         <v>484</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>159</v>
       </c>
@@ -1132,64 +1352,88 @@
       <c r="E33" s="1">
         <v>539</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>42</v>
       </c>
       <c r="E34" s="1">
         <v>532</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>43</v>
       </c>
       <c r="E35" s="1">
         <v>524</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>44</v>
       </c>
       <c r="E36" s="1">
         <v>519</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="1">
         <v>514</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>116</v>
       </c>
       <c r="E38" s="1">
         <v>514</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>117</v>
       </c>
       <c r="E39" s="1">
         <v>512</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>118</v>
       </c>
       <c r="E40" s="1">
         <v>494</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -1202,64 +1446,88 @@
       <c r="E41" s="1">
         <v>529</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="1">
         <v>528</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>27</v>
       </c>
       <c r="E43" s="1">
         <v>512</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>28</v>
       </c>
       <c r="E44" s="1">
         <v>495</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>29</v>
       </c>
       <c r="E45" s="1">
         <v>492</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>30</v>
       </c>
       <c r="E46" s="1">
         <v>491</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>123</v>
       </c>
       <c r="E47" s="1">
         <v>509</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>124</v>
       </c>
       <c r="E48" s="1">
         <v>498</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>159</v>
       </c>
@@ -1272,64 +1540,88 @@
       <c r="E49" s="1">
         <v>544</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="1">
         <v>536</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="1">
         <v>532</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52" s="1">
         <v>516</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>13</v>
       </c>
       <c r="E53" s="1">
         <v>513</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="1">
         <v>512</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>15</v>
       </c>
       <c r="E55" s="1">
         <v>495</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>16</v>
       </c>
       <c r="E56" s="1">
         <v>476</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>159</v>
       </c>
@@ -1342,64 +1634,88 @@
       <c r="E57" s="1">
         <v>544</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>48</v>
       </c>
       <c r="E58" s="1">
         <v>541</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>49</v>
       </c>
       <c r="E59" s="1">
         <v>512</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>50</v>
       </c>
       <c r="E60" s="1">
         <v>508</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>51</v>
       </c>
       <c r="E61" s="1">
         <v>507</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>52</v>
       </c>
       <c r="E62" s="1">
         <v>498</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>131</v>
       </c>
       <c r="E63" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>132</v>
       </c>
       <c r="E64" s="1">
         <v>493</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>159</v>
       </c>
@@ -1412,64 +1728,88 @@
       <c r="E65" s="1">
         <v>519</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>55</v>
       </c>
       <c r="E66" s="1">
         <v>508</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>56</v>
       </c>
       <c r="E67" s="1">
         <v>507</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>57</v>
       </c>
       <c r="E68" s="1">
         <v>504</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>58</v>
       </c>
       <c r="E69" s="1">
         <v>494</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>59</v>
       </c>
       <c r="E70" s="1">
         <v>480</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>60</v>
       </c>
       <c r="E71" s="1">
         <v>470</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>136</v>
       </c>
       <c r="E72" s="1">
         <v>511</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>159</v>
       </c>
@@ -1482,64 +1822,88 @@
       <c r="E73" s="1">
         <v>519</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>63</v>
       </c>
       <c r="E74" s="1">
         <v>518</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>64</v>
       </c>
       <c r="E75" s="1">
         <v>506</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>65</v>
       </c>
       <c r="E76" s="1">
         <v>506</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>66</v>
       </c>
       <c r="E77" s="1">
         <v>477</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>141</v>
       </c>
       <c r="E78" s="1">
         <v>524</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>142</v>
       </c>
       <c r="E79" s="1">
         <v>523</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>143</v>
       </c>
       <c r="E80" s="1">
         <v>516</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>159</v>
       </c>
@@ -1552,64 +1916,88 @@
       <c r="E81" s="1">
         <v>546</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>69</v>
       </c>
       <c r="E82" s="1">
         <v>529</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>70</v>
       </c>
       <c r="E83" s="1">
         <v>528</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>71</v>
       </c>
       <c r="E84" s="1">
         <v>525</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>72</v>
       </c>
       <c r="E85" s="1">
         <v>515</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>73</v>
       </c>
       <c r="E86" s="1">
         <v>506</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>86</v>
       </c>
       <c r="E87" s="1">
         <v>523</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>87</v>
       </c>
       <c r="E88" s="1">
         <v>522</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>159</v>
       </c>
@@ -1622,64 +2010,88 @@
       <c r="E89" s="1">
         <v>555</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>76</v>
       </c>
       <c r="E90" s="1">
         <v>534</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>77</v>
       </c>
       <c r="E91" s="1">
         <v>507</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>78</v>
       </c>
       <c r="E92" s="1">
         <v>502</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>79</v>
       </c>
       <c r="E93" s="1">
         <v>497</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>80</v>
       </c>
       <c r="E94" s="1">
         <v>492</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>81</v>
       </c>
       <c r="E95" s="1">
         <v>491</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>147</v>
       </c>
       <c r="E96" s="1">
         <v>481</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>159</v>
       </c>
@@ -1692,64 +2104,88 @@
       <c r="E97" s="1">
         <v>546</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>84</v>
       </c>
       <c r="E98" s="1">
         <v>542</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>85</v>
       </c>
       <c r="E99" s="1">
         <v>538</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>86</v>
       </c>
       <c r="E100" s="1">
         <v>523</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
         <v>87</v>
       </c>
       <c r="E101" s="1">
         <v>522</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>88</v>
       </c>
       <c r="E102" s="1">
         <v>487</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>98</v>
       </c>
       <c r="E103" s="1">
         <v>512</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>99</v>
       </c>
       <c r="E104" s="1">
         <v>508</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>159</v>
       </c>
@@ -1762,61 +2198,85 @@
       <c r="E105" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
         <v>150</v>
       </c>
       <c r="E106" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>151</v>
       </c>
       <c r="E107" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
         <v>152</v>
       </c>
       <c r="E108" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
         <v>153</v>
       </c>
       <c r="E109" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
         <v>154</v>
       </c>
       <c r="E110" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
         <v>155</v>
       </c>
       <c r="E111" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
         <v>156</v>
       </c>
       <c r="E112" s="1">
         <v>300</v>
+      </c>
+      <c r="F112">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2857,15 +3317,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241AF5C2-1412-4CE1-B384-5D5E5A93430C}">
-  <dimension ref="A1:L130"/>
+  <dimension ref="A1:X130"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:L112"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M112" sqref="H1:M112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>15</v>
       </c>
@@ -2893,8 +3353,11 @@
       <c r="L1">
         <v>572</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>15</v>
       </c>
@@ -2916,8 +3379,29 @@
       <c r="L2" s="1">
         <v>559</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>160</v>
+      </c>
+      <c r="T2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="1">
+        <v>544</v>
+      </c>
+      <c r="V2">
+        <v>11918</v>
+      </c>
+      <c r="W2">
+        <v>22</v>
+      </c>
+      <c r="X2">
+        <v>541.72727272727275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15</v>
       </c>
@@ -2939,8 +3423,29 @@
       <c r="L3" s="1">
         <v>552</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>161</v>
+      </c>
+      <c r="T3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="1">
+        <v>536</v>
+      </c>
+      <c r="V3">
+        <v>10245</v>
+      </c>
+      <c r="W3">
+        <v>19</v>
+      </c>
+      <c r="X3">
+        <v>539.21052631578948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
@@ -2962,8 +3467,29 @@
       <c r="L4" s="1">
         <v>544</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>162</v>
+      </c>
+      <c r="T4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="1">
+        <v>532</v>
+      </c>
+      <c r="V4">
+        <v>11535</v>
+      </c>
+      <c r="W4">
+        <v>22</v>
+      </c>
+      <c r="X4">
+        <v>524.31818181818187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
@@ -2985,8 +3511,29 @@
       <c r="L5" s="1">
         <v>539</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>163</v>
+      </c>
+      <c r="T5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" s="1">
+        <v>513</v>
+      </c>
+      <c r="V5">
+        <v>10901</v>
+      </c>
+      <c r="W5">
+        <v>21</v>
+      </c>
+      <c r="X5">
+        <v>519.09523809523807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
@@ -3008,8 +3555,29 @@
       <c r="L6" s="1">
         <v>534</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>164</v>
+      </c>
+      <c r="T6" t="s">
+        <v>75</v>
+      </c>
+      <c r="U6" s="1">
+        <v>555</v>
+      </c>
+      <c r="V6">
+        <v>9337</v>
+      </c>
+      <c r="W6">
+        <v>17</v>
+      </c>
+      <c r="X6">
+        <v>549.23529411764707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
@@ -3031,8 +3599,29 @@
       <c r="L7" s="1">
         <v>529</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
+        <v>165</v>
+      </c>
+      <c r="T7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="1">
+        <v>544</v>
+      </c>
+      <c r="V7">
+        <v>7673</v>
+      </c>
+      <c r="W7">
+        <v>14</v>
+      </c>
+      <c r="X7">
+        <v>548.07142857142856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
@@ -3054,8 +3643,29 @@
       <c r="L8" s="1">
         <v>525</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>166</v>
+      </c>
+      <c r="T8" t="s">
+        <v>142</v>
+      </c>
+      <c r="U8" s="1">
+        <v>523</v>
+      </c>
+      <c r="V8">
+        <v>9975</v>
+      </c>
+      <c r="W8">
+        <v>19</v>
+      </c>
+      <c r="X8">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -3083,8 +3693,29 @@
       <c r="L9" s="1">
         <v>562</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
+        <v>167</v>
+      </c>
+      <c r="T9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="1">
+        <v>528</v>
+      </c>
+      <c r="V9">
+        <v>8870</v>
+      </c>
+      <c r="W9">
+        <v>17</v>
+      </c>
+      <c r="X9">
+        <v>521.76470588235293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
@@ -3106,8 +3737,14 @@
       <c r="L10" s="1">
         <v>553</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16</v>
       </c>
@@ -3129,8 +3766,14 @@
       <c r="L11" s="1">
         <v>549</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -3152,8 +3795,14 @@
       <c r="L12" s="1">
         <v>542</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>27</v>
+      </c>
+      <c r="N12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>16</v>
       </c>
@@ -3175,8 +3824,14 @@
       <c r="L13" s="1">
         <v>535</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>23</v>
+      </c>
+      <c r="N13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>17</v>
       </c>
@@ -3198,8 +3853,14 @@
       <c r="L14" s="1">
         <v>526</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>32</v>
+      </c>
+      <c r="N14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17</v>
       </c>
@@ -3221,8 +3882,14 @@
       <c r="L15" s="1">
         <v>518</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>22</v>
+      </c>
+      <c r="N15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17</v>
       </c>
@@ -3244,8 +3911,14 @@
       <c r="L16" s="1">
         <v>514</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>29</v>
+      </c>
+      <c r="N16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3273,8 +3946,14 @@
       <c r="L17" s="1">
         <v>553</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>28</v>
+      </c>
+      <c r="N17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3296,8 +3975,11 @@
       <c r="L18" s="1">
         <v>553</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3319,8 +4001,11 @@
       <c r="L19" s="1">
         <v>552</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3342,8 +4027,11 @@
       <c r="L20" s="1">
         <v>526</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -3365,8 +4053,29 @@
       <c r="L21" s="1">
         <v>523</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>24</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="T21" t="s">
+        <v>47</v>
+      </c>
+      <c r="U21" s="1">
+        <v>544</v>
+      </c>
+      <c r="V21">
+        <v>10660</v>
+      </c>
+      <c r="W21">
+        <v>20</v>
+      </c>
+      <c r="X21">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -3388,8 +4097,29 @@
       <c r="L22" s="1">
         <v>520</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>22</v>
+      </c>
+      <c r="N22" t="s">
+        <v>177</v>
+      </c>
+      <c r="T22" t="s">
+        <v>10</v>
+      </c>
+      <c r="U22" s="1">
+        <v>536</v>
+      </c>
+      <c r="V22">
+        <v>11425</v>
+      </c>
+      <c r="W22">
+        <v>21</v>
+      </c>
+      <c r="X22">
+        <v>544.04761904761904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -3411,8 +4141,29 @@
       <c r="L23" s="1">
         <v>520</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>24</v>
+      </c>
+      <c r="N23" t="s">
+        <v>178</v>
+      </c>
+      <c r="T23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U23" s="1">
+        <v>544</v>
+      </c>
+      <c r="V23">
+        <v>10926</v>
+      </c>
+      <c r="W23">
+        <v>20</v>
+      </c>
+      <c r="X23">
+        <v>546.29999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -3434,8 +4185,29 @@
       <c r="L24" s="1">
         <v>536</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>25</v>
+      </c>
+      <c r="N24" t="s">
+        <v>179</v>
+      </c>
+      <c r="T24" t="s">
+        <v>86</v>
+      </c>
+      <c r="U24" s="1">
+        <v>523</v>
+      </c>
+      <c r="V24">
+        <v>9641</v>
+      </c>
+      <c r="W24">
+        <v>18</v>
+      </c>
+      <c r="X24">
+        <v>535.61111111111109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -3463,8 +4235,29 @@
       <c r="L25" s="1">
         <v>515</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>22</v>
+      </c>
+      <c r="N25" t="s">
+        <v>180</v>
+      </c>
+      <c r="T25" t="s">
+        <v>75</v>
+      </c>
+      <c r="U25" s="1">
+        <v>555</v>
+      </c>
+      <c r="V25">
+        <v>10541</v>
+      </c>
+      <c r="W25">
+        <v>19</v>
+      </c>
+      <c r="X25">
+        <v>554.78947368421052</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>19</v>
       </c>
@@ -3486,8 +4279,29 @@
       <c r="L26" s="1">
         <v>506</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>29</v>
+      </c>
+      <c r="N26" t="s">
+        <v>181</v>
+      </c>
+      <c r="T26" t="s">
+        <v>84</v>
+      </c>
+      <c r="U26" s="1">
+        <v>542</v>
+      </c>
+      <c r="V26">
+        <v>11454</v>
+      </c>
+      <c r="W26">
+        <v>21</v>
+      </c>
+      <c r="X26">
+        <v>545.42857142857144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
@@ -3509,8 +4323,29 @@
       <c r="L27" s="1">
         <v>506</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>22</v>
+      </c>
+      <c r="N27" t="s">
+        <v>182</v>
+      </c>
+      <c r="T27" t="s">
+        <v>11</v>
+      </c>
+      <c r="U27" s="1">
+        <v>532</v>
+      </c>
+      <c r="V27">
+        <v>8916</v>
+      </c>
+      <c r="W27">
+        <v>17</v>
+      </c>
+      <c r="X27">
+        <v>524.47058823529414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>19</v>
       </c>
@@ -3532,8 +4367,29 @@
       <c r="L28" s="1">
         <v>504</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>27</v>
+      </c>
+      <c r="N28" t="s">
+        <v>183</v>
+      </c>
+      <c r="T28" t="s">
+        <v>34</v>
+      </c>
+      <c r="U28" s="1">
+        <v>553</v>
+      </c>
+      <c r="V28">
+        <v>9919</v>
+      </c>
+      <c r="W28">
+        <v>18</v>
+      </c>
+      <c r="X28">
+        <v>551.05555555555554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>19</v>
       </c>
@@ -3555,8 +4411,14 @@
       <c r="L29" s="1">
         <v>504</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>22</v>
+      </c>
+      <c r="N29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>19</v>
       </c>
@@ -3578,8 +4440,14 @@
       <c r="L30" s="1">
         <v>486</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>28</v>
+      </c>
+      <c r="N30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>19</v>
       </c>
@@ -3601,8 +4469,14 @@
       <c r="L31" s="1">
         <v>498</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>20</v>
+      </c>
+      <c r="N31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20</v>
       </c>
@@ -3624,8 +4498,14 @@
       <c r="L32" s="1">
         <v>484</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>32</v>
+      </c>
+      <c r="N32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20</v>
       </c>
@@ -3653,8 +4533,14 @@
       <c r="L33" s="1">
         <v>539</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>30</v>
+      </c>
+      <c r="N33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20</v>
       </c>
@@ -3676,8 +4562,14 @@
       <c r="L34" s="1">
         <v>532</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>27</v>
+      </c>
+      <c r="N34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20</v>
       </c>
@@ -3699,8 +4591,11 @@
       <c r="L35" s="1">
         <v>524</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>21</v>
       </c>
@@ -3722,8 +4617,11 @@
       <c r="L36" s="1">
         <v>519</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>21</v>
       </c>
@@ -3745,8 +4643,11 @@
       <c r="L37" s="1">
         <v>514</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>21</v>
       </c>
@@ -3768,8 +4669,11 @@
       <c r="L38" s="1">
         <v>514</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>21</v>
       </c>
@@ -3791,8 +4695,11 @@
       <c r="L39" s="1">
         <v>512</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>22</v>
       </c>
@@ -3814,8 +4721,11 @@
       <c r="L40" s="1">
         <v>494</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>22</v>
       </c>
@@ -3843,8 +4753,11 @@
       <c r="L41" s="1">
         <v>529</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>22</v>
       </c>
@@ -3866,8 +4779,11 @@
       <c r="L42" s="1">
         <v>528</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>22</v>
       </c>
@@ -3889,8 +4805,11 @@
       <c r="L43" s="1">
         <v>512</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>22</v>
       </c>
@@ -3912,8 +4831,11 @@
       <c r="L44" s="1">
         <v>495</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>22</v>
       </c>
@@ -3935,8 +4857,11 @@
       <c r="L45" s="1">
         <v>492</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>22</v>
       </c>
@@ -3958,8 +4883,11 @@
       <c r="L46" s="1">
         <v>491</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>9</v>
       </c>
@@ -3978,8 +4906,11 @@
       <c r="L47" s="1">
         <v>509</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>9</v>
       </c>
@@ -3998,8 +4929,11 @@
       <c r="L48" s="1">
         <v>498</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>9</v>
       </c>
@@ -4024,8 +4958,11 @@
       <c r="L49" s="1">
         <v>544</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>9</v>
       </c>
@@ -4044,8 +4981,11 @@
       <c r="L50" s="1">
         <v>536</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9</v>
       </c>
@@ -4064,8 +5004,11 @@
       <c r="L51" s="1">
         <v>532</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9</v>
       </c>
@@ -4084,8 +5027,11 @@
       <c r="L52" s="1">
         <v>516</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>9</v>
       </c>
@@ -4104,8 +5050,11 @@
       <c r="L53" s="1">
         <v>513</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10</v>
       </c>
@@ -4124,8 +5073,11 @@
       <c r="L54" s="1">
         <v>512</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10</v>
       </c>
@@ -4144,8 +5096,11 @@
       <c r="L55" s="1">
         <v>495</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10</v>
       </c>
@@ -4164,8 +5119,11 @@
       <c r="L56" s="1">
         <v>476</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10</v>
       </c>
@@ -4190,8 +5148,11 @@
       <c r="L57" s="1">
         <v>544</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10</v>
       </c>
@@ -4210,8 +5171,11 @@
       <c r="L58" s="1">
         <v>541</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>11</v>
       </c>
@@ -4230,8 +5194,11 @@
       <c r="L59" s="1">
         <v>512</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11</v>
       </c>
@@ -4250,8 +5217,11 @@
       <c r="L60" s="1">
         <v>508</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11</v>
       </c>
@@ -4270,8 +5240,11 @@
       <c r="L61" s="1">
         <v>507</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11</v>
       </c>
@@ -4290,8 +5263,11 @@
       <c r="L62" s="1">
         <v>498</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11</v>
       </c>
@@ -4310,8 +5286,11 @@
       <c r="L63" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>11</v>
       </c>
@@ -4330,8 +5309,11 @@
       <c r="L64" s="1">
         <v>493</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>12</v>
       </c>
@@ -4356,8 +5338,11 @@
       <c r="L65" s="1">
         <v>519</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>12</v>
       </c>
@@ -4376,8 +5361,11 @@
       <c r="L66" s="1">
         <v>508</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>12</v>
       </c>
@@ -4396,8 +5384,11 @@
       <c r="L67" s="1">
         <v>507</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>12</v>
       </c>
@@ -4416,8 +5407,11 @@
       <c r="L68" s="1">
         <v>504</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>12</v>
       </c>
@@ -4436,8 +5430,11 @@
       <c r="L69" s="1">
         <v>494</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>12</v>
       </c>
@@ -4456,8 +5453,11 @@
       <c r="L70" s="1">
         <v>480</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12</v>
       </c>
@@ -4476,8 +5476,11 @@
       <c r="L71" s="1">
         <v>470</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>13</v>
       </c>
@@ -4499,8 +5502,11 @@
       <c r="L72" s="1">
         <v>511</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>13</v>
       </c>
@@ -4528,8 +5534,11 @@
       <c r="L73" s="1">
         <v>519</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>13</v>
       </c>
@@ -4551,8 +5560,11 @@
       <c r="L74" s="1">
         <v>518</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>13</v>
       </c>
@@ -4574,8 +5586,11 @@
       <c r="L75" s="1">
         <v>506</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>13</v>
       </c>
@@ -4597,8 +5612,11 @@
       <c r="L76" s="1">
         <v>506</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>13</v>
       </c>
@@ -4620,8 +5638,11 @@
       <c r="L77" s="1">
         <v>477</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>14</v>
       </c>
@@ -4643,8 +5664,11 @@
       <c r="L78" s="1">
         <v>524</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>14</v>
       </c>
@@ -4666,8 +5690,11 @@
       <c r="L79" s="1">
         <v>523</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>14</v>
       </c>
@@ -4689,8 +5716,11 @@
       <c r="L80" s="1">
         <v>516</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>14</v>
       </c>
@@ -4718,8 +5748,11 @@
       <c r="L81" s="1">
         <v>546</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>14</v>
       </c>
@@ -4741,56 +5774,77 @@
       <c r="L82" s="1">
         <v>529</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K83" t="s">
         <v>70</v>
       </c>
       <c r="L83" s="1">
         <v>528</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K84" t="s">
         <v>71</v>
       </c>
       <c r="L84" s="1">
         <v>525</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K85" t="s">
         <v>72</v>
       </c>
       <c r="L85" s="1">
         <v>515</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K86" t="s">
         <v>73</v>
       </c>
       <c r="L86" s="1">
         <v>506</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K87" t="s">
         <v>86</v>
       </c>
       <c r="L87" s="1">
         <v>523</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K88" t="s">
         <v>87</v>
       </c>
       <c r="L88" s="1">
         <v>522</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H89" t="s">
         <v>159</v>
       </c>
@@ -4803,64 +5857,88 @@
       <c r="L89" s="1">
         <v>555</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K90" t="s">
         <v>76</v>
       </c>
       <c r="L90" s="1">
         <v>534</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K91" t="s">
         <v>77</v>
       </c>
       <c r="L91" s="1">
         <v>507</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K92" t="s">
         <v>78</v>
       </c>
       <c r="L92" s="1">
         <v>502</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K93" t="s">
         <v>79</v>
       </c>
       <c r="L93" s="1">
         <v>497</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K94" t="s">
         <v>80</v>
       </c>
       <c r="L94" s="1">
         <v>492</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K95" t="s">
         <v>81</v>
       </c>
       <c r="L95" s="1">
         <v>491</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K96" t="s">
         <v>147</v>
       </c>
       <c r="L96" s="1">
         <v>481</v>
       </c>
-    </row>
-    <row r="97" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M96">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H97" t="s">
         <v>159</v>
       </c>
@@ -4873,64 +5951,88 @@
       <c r="L97" s="1">
         <v>546</v>
       </c>
-    </row>
-    <row r="98" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M97">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="8:13" x14ac:dyDescent="0.25">
       <c r="K98" t="s">
         <v>84</v>
       </c>
       <c r="L98" s="1">
         <v>542</v>
       </c>
-    </row>
-    <row r="99" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M98">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="8:13" x14ac:dyDescent="0.25">
       <c r="K99" t="s">
         <v>85</v>
       </c>
       <c r="L99" s="1">
         <v>538</v>
       </c>
-    </row>
-    <row r="100" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M99">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="8:13" x14ac:dyDescent="0.25">
       <c r="K100" t="s">
         <v>86</v>
       </c>
       <c r="L100" s="1">
         <v>523</v>
       </c>
-    </row>
-    <row r="101" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M100">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="8:13" x14ac:dyDescent="0.25">
       <c r="K101" t="s">
         <v>87</v>
       </c>
       <c r="L101" s="1">
         <v>522</v>
       </c>
-    </row>
-    <row r="102" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M101">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="8:13" x14ac:dyDescent="0.25">
       <c r="K102" t="s">
         <v>88</v>
       </c>
       <c r="L102" s="1">
         <v>487</v>
       </c>
-    </row>
-    <row r="103" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M102">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="8:13" x14ac:dyDescent="0.25">
       <c r="K103" t="s">
         <v>98</v>
       </c>
       <c r="L103" s="1">
         <v>512</v>
       </c>
-    </row>
-    <row r="104" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M103">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="8:13" x14ac:dyDescent="0.25">
       <c r="K104" t="s">
         <v>99</v>
       </c>
       <c r="L104" s="1">
         <v>508</v>
       </c>
-    </row>
-    <row r="105" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M104">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H105" t="s">
         <v>159</v>
       </c>
@@ -4943,62 +6045,86 @@
       <c r="L105" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="106" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M105">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="8:13" x14ac:dyDescent="0.25">
       <c r="K106" t="s">
         <v>150</v>
       </c>
       <c r="L106" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="107" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M106">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="8:13" x14ac:dyDescent="0.25">
       <c r="K107" t="s">
         <v>151</v>
       </c>
       <c r="L107" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="108" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M107">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="8:13" x14ac:dyDescent="0.25">
       <c r="K108" t="s">
         <v>152</v>
       </c>
       <c r="L108" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="109" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M108">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="8:13" x14ac:dyDescent="0.25">
       <c r="K109" t="s">
         <v>153</v>
       </c>
       <c r="L109" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="110" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M109">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="8:13" x14ac:dyDescent="0.25">
       <c r="K110" t="s">
         <v>154</v>
       </c>
       <c r="L110" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="111" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M110">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="8:13" x14ac:dyDescent="0.25">
       <c r="K111" t="s">
         <v>155</v>
       </c>
       <c r="L111" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="112" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M111">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="8:13" x14ac:dyDescent="0.25">
       <c r="K112" t="s">
         <v>156</v>
       </c>
       <c r="L112" s="1">
         <v>300</v>
       </c>
+      <c r="M112">
+        <v>26</v>
+      </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E129" s="1"/>
@@ -5008,7 +6134,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E129:E130 E1:E82">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="num" val="460"/>
         <cfvo type="percentile" val="50"/>
@@ -5020,6 +6146,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:L13">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="num" val="460"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:L23">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="num" val="460"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="num" val="460"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33:L37">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="num" val="460"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L41:L46">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="num" val="460"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49:L56">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5031,7 +6217,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17:L23">
+  <conditionalFormatting sqref="L57:L62">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5043,7 +6229,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
+  <conditionalFormatting sqref="L65:L71">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5055,7 +6241,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L33:L37">
+  <conditionalFormatting sqref="L73:L77">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5067,7 +6253,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L41:L46">
+  <conditionalFormatting sqref="L81:L86">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5079,7 +6265,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L49:L56">
+  <conditionalFormatting sqref="L89:L95">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5091,7 +6277,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L57:L62">
+  <conditionalFormatting sqref="L97:L102 L105:L112">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5103,7 +6289,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L65:L71">
+  <conditionalFormatting sqref="L2:L8">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="num" val="460"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:L16">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5115,7 +6313,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L73:L77">
+  <conditionalFormatting sqref="L24">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5127,7 +6325,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L81:L86">
+  <conditionalFormatting sqref="L26:L30">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5139,7 +6337,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L89:L95">
+  <conditionalFormatting sqref="L31:L32">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5151,7 +6349,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L97:L102 L105:L112">
+  <conditionalFormatting sqref="L38:L40">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5163,19 +6361,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L8">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L16">
+  <conditionalFormatting sqref="L47:L48">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5187,7 +6373,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24">
+  <conditionalFormatting sqref="L63:L64">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5199,7 +6385,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26:L30">
+  <conditionalFormatting sqref="L72">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5211,7 +6397,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L31:L32">
+  <conditionalFormatting sqref="L78:L80">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5223,7 +6409,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L38:L40">
+  <conditionalFormatting sqref="L87:L88">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5235,7 +6421,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L47:L48">
+  <conditionalFormatting sqref="L96">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5247,7 +6433,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L63:L64">
+  <conditionalFormatting sqref="L103">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5259,7 +6445,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L72">
+  <conditionalFormatting sqref="L104">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5271,7 +6457,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L78:L80">
+  <conditionalFormatting sqref="U2:U6">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5283,7 +6469,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L87:L88">
+  <conditionalFormatting sqref="U7:U9">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5295,7 +6481,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L96">
+  <conditionalFormatting sqref="U21">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5307,7 +6493,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L103">
+  <conditionalFormatting sqref="U22:U26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5319,7 +6505,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L104">
+  <conditionalFormatting sqref="U27:U28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -5333,4 +6519,1476 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B870AC2-9AFD-4499-BB62-0CD79E899B62}">
+  <dimension ref="A1:AC47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" t="s">
+        <v>192</v>
+      </c>
+      <c r="W1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>-16</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3">
+        <v>32</v>
+      </c>
+      <c r="J3">
+        <v>-1</v>
+      </c>
+      <c r="K3">
+        <v>81</v>
+      </c>
+      <c r="R3" t="s">
+        <v>199</v>
+      </c>
+      <c r="S3" t="s">
+        <v>200</v>
+      </c>
+      <c r="T3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>-16</v>
+      </c>
+      <c r="D4">
+        <v>-6</v>
+      </c>
+      <c r="E4">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4">
+        <v>32</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>93</v>
+      </c>
+      <c r="N4" t="s">
+        <v>199</v>
+      </c>
+      <c r="O4" t="s">
+        <v>200</v>
+      </c>
+      <c r="P4" t="s">
+        <v>201</v>
+      </c>
+      <c r="R4">
+        <v>400</v>
+      </c>
+      <c r="S4">
+        <v>400</v>
+      </c>
+      <c r="T4">
+        <v>400</v>
+      </c>
+      <c r="W4" t="s">
+        <v>199</v>
+      </c>
+      <c r="X4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA4">
+        <v>400</v>
+      </c>
+      <c r="AB4">
+        <v>400</v>
+      </c>
+      <c r="AC4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5">
+        <v>-16</v>
+      </c>
+      <c r="D5">
+        <v>-13</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="M5">
+        <v>16</v>
+      </c>
+      <c r="N5" s="3">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="R5">
+        <f>R4+R4*N5</f>
+        <v>435.6</v>
+      </c>
+      <c r="S5">
+        <f>S4+S4*O5</f>
+        <v>452</v>
+      </c>
+      <c r="T5">
+        <f>T4+T4*P5</f>
+        <v>416</v>
+      </c>
+      <c r="V5">
+        <v>16</v>
+      </c>
+      <c r="W5" s="3">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="X5" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="AA5">
+        <f>AA4+AA4*W5</f>
+        <v>421.64</v>
+      </c>
+      <c r="AB5">
+        <f>AB4+AB4*X5</f>
+        <v>430</v>
+      </c>
+      <c r="AC5">
+        <f>AC4+AC4*Y5</f>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>-16</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>36</v>
+      </c>
+      <c r="M6">
+        <v>17</v>
+      </c>
+      <c r="N6" s="3">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="P6" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R6">
+        <f>R5+R5*N6</f>
+        <v>470.75292000000002</v>
+      </c>
+      <c r="S6">
+        <f>S5+S5*O6</f>
+        <v>501.72</v>
+      </c>
+      <c r="T6">
+        <f>T5+T5*P6</f>
+        <v>434.72</v>
+      </c>
+      <c r="V6">
+        <v>17</v>
+      </c>
+      <c r="W6" s="3">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="X6" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="AA6">
+        <f>AA5+AA5*W6</f>
+        <v>443.05931199999998</v>
+      </c>
+      <c r="AB6">
+        <f>AB5+AB5*X6</f>
+        <v>460.1</v>
+      </c>
+      <c r="AC6">
+        <f>AC5+AC5*Y6</f>
+        <v>420.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>-16</v>
+      </c>
+      <c r="D7">
+        <v>-8</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="M7">
+        <v>18</v>
+      </c>
+      <c r="N7" s="3">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="R7">
+        <f>R6+R6*N7</f>
+        <v>504.41175378000003</v>
+      </c>
+      <c r="S7">
+        <f>S6+S6*O7</f>
+        <v>551.89200000000005</v>
+      </c>
+      <c r="T7">
+        <f>T6+T6*P7</f>
+        <v>452.10880000000003</v>
+      </c>
+      <c r="V7">
+        <v>18</v>
+      </c>
+      <c r="W7" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="X7" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="AA7">
+        <f>AA6+AA6*W7</f>
+        <v>462.99698103999998</v>
+      </c>
+      <c r="AB7">
+        <f>AB6+AB6*X7</f>
+        <v>490.00650000000002</v>
+      </c>
+      <c r="AC7">
+        <f>AC6+AC6*Y7</f>
+        <v>428.64480000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>-16</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="M8">
+        <v>19</v>
+      </c>
+      <c r="N8" s="3">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="R8">
+        <f>R7+R7*N8</f>
+        <v>534.92866488368998</v>
+      </c>
+      <c r="S8">
+        <f>S7+S7*O8</f>
+        <v>596.04336000000001</v>
+      </c>
+      <c r="T8">
+        <f>T7+T7*P8</f>
+        <v>465.67206400000003</v>
+      </c>
+      <c r="V8">
+        <v>19</v>
+      </c>
+      <c r="W8" s="3">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="AA8">
+        <f>AA7+AA7*W8</f>
+        <v>482.026156960744</v>
+      </c>
+      <c r="AB8">
+        <f>AB7+AB7*X8</f>
+        <v>519.40688999999998</v>
+      </c>
+      <c r="AC8">
+        <f>AC7+AC7*Y8</f>
+        <v>437.21769600000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>-16</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>34</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="N9" s="3">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="O9" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="R9">
+        <f>R8+R8*N9</f>
+        <v>561.56811239489775</v>
+      </c>
+      <c r="S9">
+        <f>S8+S8*O9</f>
+        <v>637.76639520000003</v>
+      </c>
+      <c r="T9">
+        <f>T8+T8*P9</f>
+        <v>474.98550528000004</v>
+      </c>
+      <c r="V9">
+        <v>20</v>
+      </c>
+      <c r="W9" s="3">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="AA9">
+        <f>AA8+AA8*W9</f>
+        <v>499.57190907411507</v>
+      </c>
+      <c r="AB9">
+        <f>AB8+AB8*X9</f>
+        <v>550.57130339999992</v>
+      </c>
+      <c r="AC9">
+        <f>AC8+AC8*Y9</f>
+        <v>435.03160752000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>-16</v>
+      </c>
+      <c r="D10">
+        <v>-3</v>
+      </c>
+      <c r="E10">
+        <v>31</v>
+      </c>
+      <c r="M10">
+        <v>21</v>
+      </c>
+      <c r="N10" s="3">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="R10">
+        <f>R9+R9*N10</f>
+        <v>583.9185232682147</v>
+      </c>
+      <c r="S10">
+        <f>S9+S9*O10</f>
+        <v>676.03237891200001</v>
+      </c>
+      <c r="T10">
+        <f>T9+T9*P10</f>
+        <v>484.48521538560004</v>
+      </c>
+      <c r="V10">
+        <v>21</v>
+      </c>
+      <c r="W10" s="3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>-0.01</v>
+      </c>
+      <c r="AA10">
+        <f>AA9+AA9*W10</f>
+        <v>515.05863825541269</v>
+      </c>
+      <c r="AB10">
+        <f>AB9+AB9*X10</f>
+        <v>578.0998685699999</v>
+      </c>
+      <c r="AC10">
+        <f>AC9+AC9*Y10</f>
+        <v>430.68129144480002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>22</v>
+      </c>
+      <c r="N11" s="3">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f>R10+R10*N11</f>
+        <v>601.26090340928067</v>
+      </c>
+      <c r="S11">
+        <f>S10+S10*O11</f>
+        <v>709.83399785760002</v>
+      </c>
+      <c r="T11">
+        <f>T10+T10*P11</f>
+        <v>484.48521538560004</v>
+      </c>
+      <c r="V11">
+        <v>22</v>
+      </c>
+      <c r="W11" s="3">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="X11" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="AA11">
+        <f>AA10+AA10*W11</f>
+        <v>527.00799866293823</v>
+      </c>
+      <c r="AB11">
+        <f>AB10+AB10*X11</f>
+        <v>604.11436265564987</v>
+      </c>
+      <c r="AC11">
+        <f>AC10+AC10*Y11</f>
+        <v>424.22107207312803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>191</v>
+      </c>
+      <c r="M12">
+        <v>23</v>
+      </c>
+      <c r="N12" s="3">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="P12" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="R12">
+        <f>R11+R11*N12</f>
+        <v>613.82725629053459</v>
+      </c>
+      <c r="S12">
+        <f>S11+S11*O12</f>
+        <v>738.22735777190405</v>
+      </c>
+      <c r="T12">
+        <f>T11+T11*P12</f>
+        <v>474.79551107788802</v>
+      </c>
+      <c r="V12">
+        <v>23</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="X12" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="AA12">
+        <f>AA11+AA11*W12</f>
+        <v>537.54815863619694</v>
+      </c>
+      <c r="AB12">
+        <f>AB11+AB11*X12</f>
+        <v>631.29950897515414</v>
+      </c>
+      <c r="AC12">
+        <f>AC11+AC11*Y12</f>
+        <v>415.73665063166544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>24</v>
+      </c>
+      <c r="N13" s="3">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="P13" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="R13">
+        <f>R12+R12*N13</f>
+        <v>619.59723249966567</v>
+      </c>
+      <c r="S13">
+        <f>S12+S12*O13</f>
+        <v>760.3741785050612</v>
+      </c>
+      <c r="T13">
+        <f>T12+T12*P13</f>
+        <v>465.29960085633024</v>
+      </c>
+      <c r="V13">
+        <v>24</v>
+      </c>
+      <c r="W13" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="AA13">
+        <f>AA12+AA12*W13</f>
+        <v>545.61138101573988</v>
+      </c>
+      <c r="AB13">
+        <f>AB12+AB12*X13</f>
+        <v>656.55148933416035</v>
+      </c>
+      <c r="AC13">
+        <f>AC12+AC12*Y13</f>
+        <v>407.42191761903211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>193</v>
+      </c>
+      <c r="M14">
+        <v>25</v>
+      </c>
+      <c r="N14" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P14" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="R14">
+        <f>R13+R13*N14</f>
+        <v>620.1548700089154</v>
+      </c>
+      <c r="S14">
+        <f>S13+S13*O14</f>
+        <v>771.77979118263715</v>
+      </c>
+      <c r="T14">
+        <f>T13+T13*P14</f>
+        <v>455.99360883920366</v>
+      </c>
+      <c r="V14">
+        <v>25</v>
+      </c>
+      <c r="W14" s="3">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>-0.03</v>
+      </c>
+      <c r="AA14">
+        <f>AA13+AA13*W14</f>
+        <v>550.41276116867834</v>
+      </c>
+      <c r="AB14">
+        <f>AB13+AB13*X14</f>
+        <v>676.24803401418512</v>
+      </c>
+      <c r="AC14">
+        <f>AC13+AC13*Y14</f>
+        <v>395.19926009046117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>26</v>
+      </c>
+      <c r="N15" s="3">
+        <v>-1.0200000000000001E-2</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="P15" s="3">
+        <v>-0.03</v>
+      </c>
+      <c r="R15">
+        <f>R14+R14*N15</f>
+        <v>613.82929033482446</v>
+      </c>
+      <c r="S15">
+        <f>S14+S14*O15</f>
+        <v>787.21538700628992</v>
+      </c>
+      <c r="T15">
+        <f>T14+T14*P15</f>
+        <v>442.31380057402754</v>
+      </c>
+      <c r="V15">
+        <v>26</v>
+      </c>
+      <c r="W15" s="3">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="X15" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="AA15">
+        <f>AA14+AA14*W15</f>
+        <v>553.27490752675544</v>
+      </c>
+      <c r="AB15">
+        <f>AB14+AB14*X15</f>
+        <v>693.15423486453972</v>
+      </c>
+      <c r="AC15">
+        <f>AC14+AC14*Y15</f>
+        <v>381.36728598729502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f>E3-20</f>
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16" si="0">K3-20</f>
+        <v>61</v>
+      </c>
+      <c r="M16">
+        <v>27</v>
+      </c>
+      <c r="N16" s="3">
+        <v>-2.01E-2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="P16" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="R16">
+        <f>R15+R15*N16</f>
+        <v>601.49132159909448</v>
+      </c>
+      <c r="S16">
+        <f>S15+S15*O16</f>
+        <v>795.08754087635282</v>
+      </c>
+      <c r="T16">
+        <f>T15+T15*P16</f>
+        <v>420.19811054532613</v>
+      </c>
+      <c r="V16">
+        <v>27</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>-0.04</v>
+      </c>
+      <c r="AA16">
+        <f>AA15+AA15*W16</f>
+        <v>553.27490752675544</v>
+      </c>
+      <c r="AB16">
+        <f>AB15+AB15*X16</f>
+        <v>720.88040425912129</v>
+      </c>
+      <c r="AC16">
+        <f>AC15+AC15*Y16</f>
+        <v>366.11259454780321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" ref="E17:K23" si="1">E4-20</f>
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="M17">
+        <v>28</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="R17">
+        <f>R16+R16*N17</f>
+        <v>601.49132159909448</v>
+      </c>
+      <c r="S17">
+        <f>S16+S16*O17</f>
+        <v>795.08754087635282</v>
+      </c>
+      <c r="T17">
+        <f>T16+T16*P17</f>
+        <v>420.19811054532613</v>
+      </c>
+      <c r="V17">
+        <v>28</v>
+      </c>
+      <c r="W17" s="3">
+        <v>-5.1999999999999998E-3</v>
+      </c>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="AA17">
+        <f>AA16+AA16*W17</f>
+        <v>550.39787800761633</v>
+      </c>
+      <c r="AB17">
+        <f>AB16+AB16*X17</f>
+        <v>720.88040425912129</v>
+      </c>
+      <c r="AC17">
+        <f>AC16+AC16*Y17</f>
+        <v>366.11259454780321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>29</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="R18">
+        <f>R17+R17*N18</f>
+        <v>601.49132159909448</v>
+      </c>
+      <c r="S18">
+        <f>S17+S17*O18</f>
+        <v>795.08754087635282</v>
+      </c>
+      <c r="T18">
+        <f>T17+T17*P18</f>
+        <v>420.19811054532613</v>
+      </c>
+      <c r="V18">
+        <v>29</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-8.8000000000000005E-3</v>
+      </c>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="AA18">
+        <f>AA17+AA17*W18</f>
+        <v>545.55437668114928</v>
+      </c>
+      <c r="AB18">
+        <f>AB17+AB17*X18</f>
+        <v>720.88040425912129</v>
+      </c>
+      <c r="AC18">
+        <f>AC17+AC17*Y18</f>
+        <v>366.11259454780321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="M19">
+        <v>30</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="R19">
+        <f>R18+R18*N19</f>
+        <v>601.49132159909448</v>
+      </c>
+      <c r="S19">
+        <f>S18+S18*O19</f>
+        <v>795.08754087635282</v>
+      </c>
+      <c r="T19">
+        <f>T18+T18*P19</f>
+        <v>420.19811054532613</v>
+      </c>
+      <c r="V19">
+        <v>30</v>
+      </c>
+      <c r="W19" s="3">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="AA19">
+        <f>AA18+AA18*W19</f>
+        <v>537.37106103093208</v>
+      </c>
+      <c r="AB19">
+        <f>AB18+AB18*X19</f>
+        <v>720.88040425912129</v>
+      </c>
+      <c r="AC19">
+        <f>AC18+AC18*Y19</f>
+        <v>366.11259454780321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>31</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="R20">
+        <f>R19+R19*N20</f>
+        <v>601.49132159909448</v>
+      </c>
+      <c r="S20">
+        <f>S19+S19*O20</f>
+        <v>795.08754087635282</v>
+      </c>
+      <c r="T20">
+        <f>T19+T19*P20</f>
+        <v>420.19811054532613</v>
+      </c>
+      <c r="V20">
+        <v>31</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-0.02</v>
+      </c>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="AA20">
+        <f>AA19+AA19*W20</f>
+        <v>526.62363981031342</v>
+      </c>
+      <c r="AB20">
+        <f>AB19+AB19*X20</f>
+        <v>720.88040425912129</v>
+      </c>
+      <c r="AC20">
+        <f>AC19+AC19*Y20</f>
+        <v>366.11259454780321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="M21">
+        <v>32</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="R21">
+        <f>R20+R20*N21</f>
+        <v>601.49132159909448</v>
+      </c>
+      <c r="S21">
+        <f>S20+S20*O21</f>
+        <v>795.08754087635282</v>
+      </c>
+      <c r="T21">
+        <f>T20+T20*P21</f>
+        <v>420.19811054532613</v>
+      </c>
+      <c r="V21">
+        <v>32</v>
+      </c>
+      <c r="W21" s="3">
+        <v>-2.3199999999999998E-2</v>
+      </c>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="AA21">
+        <f>AA20+AA20*W21</f>
+        <v>514.4059713667142</v>
+      </c>
+      <c r="AB21">
+        <f>AB20+AB20*X21</f>
+        <v>720.88040425912129</v>
+      </c>
+      <c r="AC21">
+        <f>AC20+AC20*Y21</f>
+        <v>366.11259454780321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="M22">
+        <v>33</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="R22">
+        <f>R21+R21*N22</f>
+        <v>601.49132159909448</v>
+      </c>
+      <c r="S22">
+        <f>S21+S21*O22</f>
+        <v>795.08754087635282</v>
+      </c>
+      <c r="T22">
+        <f>T21+T21*P22</f>
+        <v>420.19811054532613</v>
+      </c>
+      <c r="V22">
+        <v>33</v>
+      </c>
+      <c r="W22" s="3">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="AA22">
+        <f>AA21+AA21*W22</f>
+        <v>498.45938625434604</v>
+      </c>
+      <c r="AB22">
+        <f>AB21+AB21*X22</f>
+        <v>720.88040425912129</v>
+      </c>
+      <c r="AC22">
+        <f>AC21+AC21*Y22</f>
+        <v>366.11259454780321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="M23">
+        <v>34</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="R23">
+        <f>R22+R22*N23</f>
+        <v>601.49132159909448</v>
+      </c>
+      <c r="S23">
+        <f>S22+S22*O23</f>
+        <v>795.08754087635282</v>
+      </c>
+      <c r="T23">
+        <f>T22+T22*P23</f>
+        <v>420.19811054532613</v>
+      </c>
+      <c r="V23">
+        <v>34</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-3.6400000000000002E-2</v>
+      </c>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="AA23">
+        <f>AA22+AA22*W23</f>
+        <v>480.31546459468785</v>
+      </c>
+      <c r="AB23">
+        <f>AB22+AB22*X23</f>
+        <v>720.88040425912129</v>
+      </c>
+      <c r="AC23">
+        <f>AC22+AC22*Y23</f>
+        <v>366.11259454780321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>35</v>
+      </c>
+      <c r="R24">
+        <f>R23+R23*N24</f>
+        <v>601.49132159909448</v>
+      </c>
+      <c r="S24">
+        <f>S23+S23*O24</f>
+        <v>795.08754087635282</v>
+      </c>
+      <c r="T24">
+        <f>T23+T23*P24</f>
+        <v>420.19811054532613</v>
+      </c>
+      <c r="V24">
+        <v>35</v>
+      </c>
+      <c r="W24" s="3">
+        <v>-4.1100000000000005E-2</v>
+      </c>
+      <c r="AA24">
+        <f>AA23+AA23*W24</f>
+        <v>460.57449899984618</v>
+      </c>
+      <c r="AB24">
+        <f>AB23+AB23*X24</f>
+        <v>720.88040425912129</v>
+      </c>
+      <c r="AC24">
+        <f>AC23+AC23*Y24</f>
+        <v>366.11259454780321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>36</v>
+      </c>
+      <c r="R25">
+        <f>R24+R24*N25</f>
+        <v>601.49132159909448</v>
+      </c>
+      <c r="S25">
+        <f>S24+S24*O25</f>
+        <v>795.08754087635282</v>
+      </c>
+      <c r="T25">
+        <f>T24+T24*P25</f>
+        <v>420.19811054532613</v>
+      </c>
+      <c r="V25">
+        <v>36</v>
+      </c>
+      <c r="W25" s="3">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="AA25">
+        <f>AA24+AA24*W25</f>
+        <v>439.84864654485312</v>
+      </c>
+      <c r="AB25">
+        <f>AB24+AB24*X25</f>
+        <v>720.88040425912129</v>
+      </c>
+      <c r="AC25">
+        <f>AC24+AC24*Y25</f>
+        <v>366.11259454780321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>37</v>
+      </c>
+      <c r="R26">
+        <f>R25+R25*N26</f>
+        <v>601.49132159909448</v>
+      </c>
+      <c r="S26">
+        <f>S25+S25*O26</f>
+        <v>795.08754087635282</v>
+      </c>
+      <c r="T26">
+        <f>T25+T25*P26</f>
+        <v>420.19811054532613</v>
+      </c>
+      <c r="V26">
+        <v>37</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-5.0799999999999998E-2</v>
+      </c>
+      <c r="AA26">
+        <f>AA25+AA25*W26</f>
+        <v>417.50433530037458</v>
+      </c>
+      <c r="AB26">
+        <f>AB25+AB25*X26</f>
+        <v>720.88040425912129</v>
+      </c>
+      <c r="AC26">
+        <f>AC25+AC25*Y26</f>
+        <v>366.11259454780321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>38</v>
+      </c>
+      <c r="V27">
+        <v>38</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-5.4100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>39</v>
+      </c>
+      <c r="V28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" t="s">
+        <v>194</v>
+      </c>
+      <c r="M29">
+        <v>40</v>
+      </c>
+      <c r="V29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>-16</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31">
+        <v>16</v>
+      </c>
+      <c r="J31">
+        <v>-1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>-16</v>
+      </c>
+      <c r="D32">
+        <v>-9</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G32" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32">
+        <v>16</v>
+      </c>
+      <c r="J32">
+        <v>16</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33">
+        <v>-16</v>
+      </c>
+      <c r="D33">
+        <v>-19</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33">
+        <v>16</v>
+      </c>
+      <c r="J33">
+        <v>-6</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34">
+        <v>-16</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>-16</v>
+      </c>
+      <c r="D35">
+        <v>-13</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>-16</v>
+      </c>
+      <c r="D36">
+        <v>-2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>-16</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>-16</v>
+      </c>
+      <c r="D38">
+        <v>-5</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>195</v>
+      </c>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>-11</v>
+      </c>
+      <c r="D43">
+        <v>-5</v>
+      </c>
+      <c r="E43">
+        <v>15</v>
+      </c>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Input.xlsx
+++ b/Input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C27A934-2858-453C-8FCA-D8AB92F2B725}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ED0E41-4DC4-473A-8062-8800C7EE34DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -955,15 +955,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>159</v>
       </c>
@@ -971,93 +971,117 @@
         <v>157</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1">
+        <v>552</v>
+      </c>
+      <c r="F1">
+        <v>26</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1">
+        <v>544</v>
+      </c>
+      <c r="F2">
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1">
+        <v>529</v>
+      </c>
+      <c r="F3">
+        <v>31</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1">
+        <v>534</v>
+      </c>
+      <c r="F4">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1">
+        <v>525</v>
+      </c>
+      <c r="F5">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>158</v>
       </c>
-      <c r="E1">
+      <c r="E6" s="1">
         <v>572</v>
       </c>
-      <c r="F1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E7" s="1">
         <v>559</v>
       </c>
-      <c r="F2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1">
-        <v>552</v>
-      </c>
-      <c r="F3">
+      <c r="F7">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1">
-        <v>544</v>
-      </c>
-      <c r="F4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E8" s="1">
         <v>539</v>
       </c>
-      <c r="F5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1">
-        <v>534</v>
-      </c>
-      <c r="F6">
+      <c r="F8">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1">
-        <v>529</v>
-      </c>
-      <c r="F7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1">
-        <v>525</v>
-      </c>
-      <c r="F8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -1065,71 +1089,89 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1">
+        <v>549</v>
+      </c>
+      <c r="F9">
         <v>33</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1">
+        <v>542</v>
+      </c>
+      <c r="F10">
+        <v>28</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1">
+        <v>535</v>
+      </c>
+      <c r="F11">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1">
         <v>562</v>
       </c>
-      <c r="F9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+      <c r="F12">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="1">
+        <v>514</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E14" s="1">
         <v>553</v>
       </c>
-      <c r="F10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="1">
-        <v>549</v>
-      </c>
-      <c r="F11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="1">
-        <v>542</v>
-      </c>
-      <c r="F12">
+      <c r="F14">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="1">
-        <v>535</v>
-      </c>
-      <c r="F13">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="1">
-        <v>526</v>
-      </c>
-      <c r="F14">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>96</v>
       </c>
@@ -1137,21 +1179,27 @@
         <v>518</v>
       </c>
       <c r="F15">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E16" s="1">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="F16">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>159</v>
       </c>
@@ -1159,16 +1207,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E17" s="1">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="F17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>3</v>
       </c>
@@ -1176,65 +1227,83 @@
         <v>553</v>
       </c>
       <c r="F18">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>553</v>
+      </c>
+      <c r="F19">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1">
+        <v>520</v>
+      </c>
+      <c r="F20">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E21" s="1">
         <v>552</v>
       </c>
-      <c r="F19">
+      <c r="F21">
+        <v>26</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>526</v>
+      </c>
+      <c r="F22">
+        <v>27</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>523</v>
+      </c>
+      <c r="F23">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1">
-        <v>526</v>
-      </c>
-      <c r="F20">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1">
-        <v>523</v>
-      </c>
-      <c r="F21">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1">
-        <v>520</v>
-      </c>
-      <c r="F22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="1">
-        <v>520</v>
-      </c>
-      <c r="F23">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>102</v>
       </c>
@@ -1242,10 +1311,13 @@
         <v>536</v>
       </c>
       <c r="F24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>159</v>
       </c>
@@ -1253,93 +1325,117 @@
         <v>38</v>
       </c>
       <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="1">
+        <v>484</v>
+      </c>
+      <c r="F25">
+        <v>33</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E26" s="1">
         <v>515</v>
       </c>
-      <c r="F25">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
+      <c r="F26">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="1">
+        <v>504</v>
+      </c>
+      <c r="F27">
+        <v>28</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E28" s="1">
         <v>506</v>
       </c>
-      <c r="F26">
+      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="1">
+        <v>486</v>
+      </c>
+      <c r="F29">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
+      <c r="G29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="1">
+        <v>498</v>
+      </c>
+      <c r="F30">
+        <v>21</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="1">
+        <v>504</v>
+      </c>
+      <c r="F31">
+        <v>23</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E32" s="1">
         <v>506</v>
       </c>
-      <c r="F27">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="1">
-        <v>504</v>
-      </c>
-      <c r="F28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="1">
-        <v>504</v>
-      </c>
-      <c r="F29">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="1">
-        <v>486</v>
-      </c>
-      <c r="F30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="1">
-        <v>498</v>
-      </c>
-      <c r="F31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="1">
-        <v>484</v>
-      </c>
       <c r="F32">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>159</v>
       </c>
@@ -1353,10 +1449,13 @@
         <v>539</v>
       </c>
       <c r="F33">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>42</v>
       </c>
@@ -1364,10 +1463,13 @@
         <v>532</v>
       </c>
       <c r="F34">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>43</v>
       </c>
@@ -1375,10 +1477,13 @@
         <v>524</v>
       </c>
       <c r="F35">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>44</v>
       </c>
@@ -1386,10 +1491,13 @@
         <v>519</v>
       </c>
       <c r="F36">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>45</v>
       </c>
@@ -1397,10 +1505,13 @@
         <v>514</v>
       </c>
       <c r="F37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>116</v>
       </c>
@@ -1408,10 +1519,13 @@
         <v>514</v>
       </c>
       <c r="F38">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>117</v>
       </c>
@@ -1419,10 +1533,13 @@
         <v>512</v>
       </c>
       <c r="F39">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>118</v>
       </c>
@@ -1430,10 +1547,13 @@
         <v>494</v>
       </c>
       <c r="F40">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -1447,10 +1567,13 @@
         <v>529</v>
       </c>
       <c r="F41">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>26</v>
       </c>
@@ -1458,10 +1581,13 @@
         <v>528</v>
       </c>
       <c r="F42">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>27</v>
       </c>
@@ -1469,10 +1595,13 @@
         <v>512</v>
       </c>
       <c r="F43">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>28</v>
       </c>
@@ -1480,10 +1609,13 @@
         <v>495</v>
       </c>
       <c r="F44">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>29</v>
       </c>
@@ -1491,10 +1623,13 @@
         <v>492</v>
       </c>
       <c r="F45">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>30</v>
       </c>
@@ -1502,10 +1637,13 @@
         <v>491</v>
       </c>
       <c r="F46">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>123</v>
       </c>
@@ -1513,10 +1651,13 @@
         <v>509</v>
       </c>
       <c r="F47">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>124</v>
       </c>
@@ -1524,10 +1665,13 @@
         <v>498</v>
       </c>
       <c r="F48">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>159</v>
       </c>
@@ -1541,10 +1685,13 @@
         <v>544</v>
       </c>
       <c r="F49">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>10</v>
       </c>
@@ -1552,10 +1699,13 @@
         <v>536</v>
       </c>
       <c r="F50">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>11</v>
       </c>
@@ -1563,10 +1713,13 @@
         <v>532</v>
       </c>
       <c r="F51">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>12</v>
       </c>
@@ -1574,10 +1727,13 @@
         <v>516</v>
       </c>
       <c r="F52">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>13</v>
       </c>
@@ -1585,10 +1741,13 @@
         <v>513</v>
       </c>
       <c r="F53">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>14</v>
       </c>
@@ -1596,10 +1755,13 @@
         <v>512</v>
       </c>
       <c r="F54">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>15</v>
       </c>
@@ -1607,10 +1769,13 @@
         <v>495</v>
       </c>
       <c r="F55">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>16</v>
       </c>
@@ -1618,10 +1783,13 @@
         <v>476</v>
       </c>
       <c r="F56">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>159</v>
       </c>
@@ -1635,10 +1803,13 @@
         <v>544</v>
       </c>
       <c r="F57">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>48</v>
       </c>
@@ -1646,10 +1817,13 @@
         <v>541</v>
       </c>
       <c r="F58">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>49</v>
       </c>
@@ -1657,10 +1831,13 @@
         <v>512</v>
       </c>
       <c r="F59">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>50</v>
       </c>
@@ -1668,10 +1845,13 @@
         <v>508</v>
       </c>
       <c r="F60">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>51</v>
       </c>
@@ -1679,10 +1859,13 @@
         <v>507</v>
       </c>
       <c r="F61">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>52</v>
       </c>
@@ -1690,10 +1873,13 @@
         <v>498</v>
       </c>
       <c r="F62">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>131</v>
       </c>
@@ -1701,10 +1887,13 @@
         <v>500</v>
       </c>
       <c r="F63">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>132</v>
       </c>
@@ -1712,10 +1901,13 @@
         <v>493</v>
       </c>
       <c r="F64">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>159</v>
       </c>
@@ -1729,10 +1921,13 @@
         <v>519</v>
       </c>
       <c r="F65">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>55</v>
       </c>
@@ -1740,10 +1935,13 @@
         <v>508</v>
       </c>
       <c r="F66">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>56</v>
       </c>
@@ -1751,10 +1949,13 @@
         <v>507</v>
       </c>
       <c r="F67">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>57</v>
       </c>
@@ -1762,10 +1963,13 @@
         <v>504</v>
       </c>
       <c r="F68">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="G68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>58</v>
       </c>
@@ -1773,10 +1977,13 @@
         <v>494</v>
       </c>
       <c r="F69">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>59</v>
       </c>
@@ -1784,10 +1991,13 @@
         <v>480</v>
       </c>
       <c r="F70">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>60</v>
       </c>
@@ -1795,10 +2005,13 @@
         <v>470</v>
       </c>
       <c r="F71">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>136</v>
       </c>
@@ -1806,10 +2019,13 @@
         <v>511</v>
       </c>
       <c r="F72">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>159</v>
       </c>
@@ -1823,10 +2039,13 @@
         <v>519</v>
       </c>
       <c r="F73">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>63</v>
       </c>
@@ -1834,10 +2053,13 @@
         <v>518</v>
       </c>
       <c r="F74">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>64</v>
       </c>
@@ -1845,10 +2067,13 @@
         <v>506</v>
       </c>
       <c r="F75">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>65</v>
       </c>
@@ -1856,10 +2081,13 @@
         <v>506</v>
       </c>
       <c r="F76">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>66</v>
       </c>
@@ -1867,10 +2095,13 @@
         <v>477</v>
       </c>
       <c r="F77">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>141</v>
       </c>
@@ -1878,10 +2109,13 @@
         <v>524</v>
       </c>
       <c r="F78">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>142</v>
       </c>
@@ -1889,10 +2123,13 @@
         <v>523</v>
       </c>
       <c r="F79">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>143</v>
       </c>
@@ -1900,10 +2137,13 @@
         <v>516</v>
       </c>
       <c r="F80">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>159</v>
       </c>
@@ -1917,10 +2157,13 @@
         <v>546</v>
       </c>
       <c r="F81">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>69</v>
       </c>
@@ -1928,10 +2171,13 @@
         <v>529</v>
       </c>
       <c r="F82">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>70</v>
       </c>
@@ -1939,10 +2185,13 @@
         <v>528</v>
       </c>
       <c r="F83">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>71</v>
       </c>
@@ -1950,10 +2199,13 @@
         <v>525</v>
       </c>
       <c r="F84">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>72</v>
       </c>
@@ -1961,10 +2213,13 @@
         <v>515</v>
       </c>
       <c r="F85">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>73</v>
       </c>
@@ -1972,10 +2227,13 @@
         <v>506</v>
       </c>
       <c r="F86">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>86</v>
       </c>
@@ -1983,10 +2241,13 @@
         <v>523</v>
       </c>
       <c r="F87">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>87</v>
       </c>
@@ -1994,10 +2255,13 @@
         <v>522</v>
       </c>
       <c r="F88">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>159</v>
       </c>
@@ -2011,10 +2275,13 @@
         <v>555</v>
       </c>
       <c r="F89">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>76</v>
       </c>
@@ -2022,10 +2289,13 @@
         <v>534</v>
       </c>
       <c r="F90">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>77</v>
       </c>
@@ -2033,10 +2303,13 @@
         <v>507</v>
       </c>
       <c r="F91">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>78</v>
       </c>
@@ -2044,10 +2317,13 @@
         <v>502</v>
       </c>
       <c r="F92">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>79</v>
       </c>
@@ -2055,10 +2331,13 @@
         <v>497</v>
       </c>
       <c r="F93">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>80</v>
       </c>
@@ -2066,10 +2345,13 @@
         <v>492</v>
       </c>
       <c r="F94">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>81</v>
       </c>
@@ -2077,10 +2359,13 @@
         <v>491</v>
       </c>
       <c r="F95">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>147</v>
       </c>
@@ -2088,10 +2373,13 @@
         <v>481</v>
       </c>
       <c r="F96">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>159</v>
       </c>
@@ -2105,10 +2393,13 @@
         <v>546</v>
       </c>
       <c r="F97">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>84</v>
       </c>
@@ -2116,10 +2407,13 @@
         <v>542</v>
       </c>
       <c r="F98">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>85</v>
       </c>
@@ -2127,10 +2421,13 @@
         <v>538</v>
       </c>
       <c r="F99">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>86</v>
       </c>
@@ -2138,10 +2435,13 @@
         <v>523</v>
       </c>
       <c r="F100">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
         <v>87</v>
       </c>
@@ -2149,10 +2449,13 @@
         <v>522</v>
       </c>
       <c r="F101">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>88</v>
       </c>
@@ -2160,10 +2463,13 @@
         <v>487</v>
       </c>
       <c r="F102">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>98</v>
       </c>
@@ -2171,10 +2477,13 @@
         <v>512</v>
       </c>
       <c r="F103">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="G103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>99</v>
       </c>
@@ -2182,10 +2491,13 @@
         <v>508</v>
       </c>
       <c r="F104">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>159</v>
       </c>
@@ -2199,10 +2511,13 @@
         <v>300</v>
       </c>
       <c r="F105">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
         <v>150</v>
       </c>
@@ -2210,10 +2525,13 @@
         <v>300</v>
       </c>
       <c r="F106">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>151</v>
       </c>
@@ -2221,10 +2539,13 @@
         <v>300</v>
       </c>
       <c r="F107">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
         <v>152</v>
       </c>
@@ -2232,10 +2553,13 @@
         <v>300</v>
       </c>
       <c r="F108">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="G108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
         <v>153</v>
       </c>
@@ -2243,10 +2567,13 @@
         <v>300</v>
       </c>
       <c r="F109">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
         <v>154</v>
       </c>
@@ -2254,10 +2581,13 @@
         <v>300</v>
       </c>
       <c r="F110">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
         <v>155</v>
       </c>
@@ -2265,10 +2595,13 @@
         <v>300</v>
       </c>
       <c r="F111">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="G111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
         <v>156</v>
       </c>
@@ -2276,7 +2609,10 @@
         <v>300</v>
       </c>
       <c r="F112">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="G112">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3317,15 +3653,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241AF5C2-1412-4CE1-B384-5D5E5A93430C}">
-  <dimension ref="A1:X130"/>
+  <dimension ref="A1:Y130"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M112" sqref="H1:M112"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>15</v>
       </c>
@@ -3356,8 +3692,11 @@
       <c r="M1">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>15</v>
       </c>
@@ -3382,26 +3721,29 @@
       <c r="M2">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
         <v>160</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>544</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>11918</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>22</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>541.72727272727275</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15</v>
       </c>
@@ -3426,26 +3768,29 @@
       <c r="M3">
         <v>25</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
         <v>161</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <v>536</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>10245</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>19</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>539.21052631578948</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
@@ -3470,26 +3815,29 @@
       <c r="M4">
         <v>30</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
         <v>162</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>532</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>11535</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>22</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>524.31818181818187</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
@@ -3514,26 +3862,29 @@
       <c r="M5">
         <v>26</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5" t="s">
         <v>163</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="1">
+      <c r="V5" s="1">
         <v>513</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>10901</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>21</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>519.09523809523807</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
@@ -3558,26 +3909,29 @@
       <c r="M6">
         <v>27</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6" t="s">
         <v>164</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>75</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <v>555</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>9337</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>17</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>549.23529411764707</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
@@ -3602,26 +3956,29 @@
       <c r="M7">
         <v>30</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
         <v>165</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="1">
+      <c r="V7" s="1">
         <v>544</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>7673</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>14</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>548.07142857142856</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
@@ -3646,26 +4003,29 @@
       <c r="M8">
         <v>22</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8" t="s">
         <v>166</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>142</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V8" s="1">
         <v>523</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>9975</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>19</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>525</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -3696,26 +4056,29 @@
       <c r="M9">
         <v>28</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9" t="s">
         <v>167</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>26</v>
       </c>
-      <c r="U9" s="1">
+      <c r="V9" s="1">
         <v>528</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>8870</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>17</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>521.76470588235293</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
@@ -3740,11 +4103,14 @@
       <c r="M10">
         <v>26</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16</v>
       </c>
@@ -3769,11 +4135,14 @@
       <c r="M11">
         <v>32</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -3798,11 +4167,14 @@
       <c r="M12">
         <v>27</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>16</v>
       </c>
@@ -3827,11 +4199,14 @@
       <c r="M13">
         <v>23</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>17</v>
       </c>
@@ -3856,11 +4231,14 @@
       <c r="M14">
         <v>32</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17</v>
       </c>
@@ -3885,11 +4263,14 @@
       <c r="M15">
         <v>22</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17</v>
       </c>
@@ -3914,11 +4295,14 @@
       <c r="M16">
         <v>29</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3949,11 +4333,14 @@
       <c r="M17">
         <v>28</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3978,8 +4365,11 @@
       <c r="M18">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4004,8 +4394,11 @@
       <c r="M19">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4030,8 +4423,11 @@
       <c r="M20">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -4056,26 +4452,29 @@
       <c r="M21">
         <v>24</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21" t="s">
         <v>176</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>47</v>
       </c>
-      <c r="U21" s="1">
+      <c r="V21" s="1">
         <v>544</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>10660</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>20</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>533</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -4100,26 +4499,29 @@
       <c r="M22">
         <v>22</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22" t="s">
         <v>177</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>10</v>
       </c>
-      <c r="U22" s="1">
+      <c r="V22" s="1">
         <v>536</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>11425</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>21</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>544.04761904761904</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -4144,26 +4546,29 @@
       <c r="M23">
         <v>24</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23" t="s">
         <v>178</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>9</v>
       </c>
-      <c r="U23" s="1">
+      <c r="V23" s="1">
         <v>544</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>10926</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>20</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>546.29999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -4188,26 +4593,29 @@
       <c r="M24">
         <v>25</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24" t="s">
         <v>179</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>86</v>
       </c>
-      <c r="U24" s="1">
+      <c r="V24" s="1">
         <v>523</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>9641</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>18</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>535.61111111111109</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
@@ -4238,26 +4646,29 @@
       <c r="M25">
         <v>22</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25" t="s">
         <v>180</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>75</v>
       </c>
-      <c r="U25" s="1">
+      <c r="V25" s="1">
         <v>555</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>10541</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>19</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>554.78947368421052</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>19</v>
       </c>
@@ -4282,26 +4693,29 @@
       <c r="M26">
         <v>29</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26">
+        <v>5</v>
+      </c>
+      <c r="O26" t="s">
         <v>181</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>84</v>
       </c>
-      <c r="U26" s="1">
+      <c r="V26" s="1">
         <v>542</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>11454</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>21</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>545.42857142857144</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
@@ -4326,26 +4740,29 @@
       <c r="M27">
         <v>22</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27" t="s">
         <v>182</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>11</v>
       </c>
-      <c r="U27" s="1">
+      <c r="V27" s="1">
         <v>532</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>8916</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>17</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>524.47058823529414</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>19</v>
       </c>
@@ -4370,26 +4787,29 @@
       <c r="M28">
         <v>27</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28" t="s">
         <v>183</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>34</v>
       </c>
-      <c r="U28" s="1">
+      <c r="V28" s="1">
         <v>553</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>9919</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>18</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>551.05555555555554</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>19</v>
       </c>
@@ -4414,11 +4834,14 @@
       <c r="M29">
         <v>22</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29">
+        <v>5</v>
+      </c>
+      <c r="O29" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>19</v>
       </c>
@@ -4443,11 +4866,14 @@
       <c r="M30">
         <v>28</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>19</v>
       </c>
@@ -4472,11 +4898,14 @@
       <c r="M31">
         <v>20</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31">
+        <v>5</v>
+      </c>
+      <c r="O31" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20</v>
       </c>
@@ -4501,11 +4930,14 @@
       <c r="M32">
         <v>32</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32">
+        <v>5</v>
+      </c>
+      <c r="O32" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20</v>
       </c>
@@ -4536,11 +4968,14 @@
       <c r="M33">
         <v>30</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33">
+        <v>5</v>
+      </c>
+      <c r="O33" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20</v>
       </c>
@@ -4565,11 +5000,14 @@
       <c r="M34">
         <v>27</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34">
+        <v>5</v>
+      </c>
+      <c r="O34" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20</v>
       </c>
@@ -4594,8 +5032,11 @@
       <c r="M35">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>21</v>
       </c>
@@ -4620,8 +5061,11 @@
       <c r="M36">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>21</v>
       </c>
@@ -4646,8 +5090,11 @@
       <c r="M37">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>21</v>
       </c>
@@ -4672,8 +5119,11 @@
       <c r="M38">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>21</v>
       </c>
@@ -4698,8 +5148,11 @@
       <c r="M39">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>22</v>
       </c>
@@ -4724,8 +5177,11 @@
       <c r="M40">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>22</v>
       </c>
@@ -4756,8 +5212,11 @@
       <c r="M41">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>22</v>
       </c>
@@ -4782,8 +5241,11 @@
       <c r="M42">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>22</v>
       </c>
@@ -4808,8 +5270,11 @@
       <c r="M43">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>22</v>
       </c>
@@ -4834,8 +5299,11 @@
       <c r="M44">
         <v>29</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>22</v>
       </c>
@@ -4860,8 +5328,11 @@
       <c r="M45">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>22</v>
       </c>
@@ -4886,8 +5357,11 @@
       <c r="M46">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>9</v>
       </c>
@@ -4909,8 +5383,11 @@
       <c r="M47">
         <v>28</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>9</v>
       </c>
@@ -4932,8 +5409,11 @@
       <c r="M48">
         <v>26</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>9</v>
       </c>
@@ -4961,8 +5441,11 @@
       <c r="M49">
         <v>31</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>9</v>
       </c>
@@ -4984,8 +5467,11 @@
       <c r="M50">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9</v>
       </c>
@@ -5007,8 +5493,11 @@
       <c r="M51">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9</v>
       </c>
@@ -5030,8 +5519,11 @@
       <c r="M52">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>9</v>
       </c>
@@ -5053,8 +5545,11 @@
       <c r="M53">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10</v>
       </c>
@@ -5076,8 +5571,11 @@
       <c r="M54">
         <v>28</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10</v>
       </c>
@@ -5099,8 +5597,11 @@
       <c r="M55">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10</v>
       </c>
@@ -5122,8 +5623,11 @@
       <c r="M56">
         <v>32</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10</v>
       </c>
@@ -5151,8 +5655,11 @@
       <c r="M57">
         <v>26</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10</v>
       </c>
@@ -5174,8 +5681,11 @@
       <c r="M58">
         <v>23</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>11</v>
       </c>
@@ -5197,8 +5707,11 @@
       <c r="M59">
         <v>30</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11</v>
       </c>
@@ -5220,8 +5733,11 @@
       <c r="M60">
         <v>31</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11</v>
       </c>
@@ -5243,8 +5759,11 @@
       <c r="M61">
         <v>32</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11</v>
       </c>
@@ -5266,8 +5785,11 @@
       <c r="M62">
         <v>30</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11</v>
       </c>
@@ -5289,8 +5811,11 @@
       <c r="M63">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>11</v>
       </c>
@@ -5312,8 +5837,11 @@
       <c r="M64">
         <v>21</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>12</v>
       </c>
@@ -5341,8 +5869,11 @@
       <c r="M65">
         <v>27</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>12</v>
       </c>
@@ -5364,8 +5895,11 @@
       <c r="M66">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>12</v>
       </c>
@@ -5387,8 +5921,11 @@
       <c r="M67">
         <v>21</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>12</v>
       </c>
@@ -5410,8 +5947,11 @@
       <c r="M68">
         <v>19</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>12</v>
       </c>
@@ -5433,8 +5973,11 @@
       <c r="M69">
         <v>21</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>12</v>
       </c>
@@ -5456,8 +5999,11 @@
       <c r="M70">
         <v>32</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12</v>
       </c>
@@ -5479,8 +6025,11 @@
       <c r="M71">
         <v>27</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>13</v>
       </c>
@@ -5505,8 +6054,11 @@
       <c r="M72">
         <v>22</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>13</v>
       </c>
@@ -5537,8 +6089,11 @@
       <c r="M73">
         <v>29</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>13</v>
       </c>
@@ -5563,8 +6118,11 @@
       <c r="M74">
         <v>28</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>13</v>
       </c>
@@ -5589,8 +6147,11 @@
       <c r="M75">
         <v>22</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>13</v>
       </c>
@@ -5615,8 +6176,11 @@
       <c r="M76">
         <v>28</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>13</v>
       </c>
@@ -5641,8 +6205,11 @@
       <c r="M77">
         <v>22</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>14</v>
       </c>
@@ -5667,8 +6234,11 @@
       <c r="M78">
         <v>22</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>14</v>
       </c>
@@ -5693,8 +6263,11 @@
       <c r="M79">
         <v>25</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>14</v>
       </c>
@@ -5719,8 +6292,11 @@
       <c r="M80">
         <v>29</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>14</v>
       </c>
@@ -5751,8 +6327,11 @@
       <c r="M81">
         <v>30</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>14</v>
       </c>
@@ -5777,8 +6356,11 @@
       <c r="M82">
         <v>24</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K83" t="s">
         <v>70</v>
       </c>
@@ -5788,8 +6370,11 @@
       <c r="M83">
         <v>31</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K84" t="s">
         <v>71</v>
       </c>
@@ -5799,8 +6384,11 @@
       <c r="M84">
         <v>31</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K85" t="s">
         <v>72</v>
       </c>
@@ -5810,8 +6398,11 @@
       <c r="M85">
         <v>28</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K86" t="s">
         <v>73</v>
       </c>
@@ -5821,8 +6412,11 @@
       <c r="M86">
         <v>21</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K87" t="s">
         <v>86</v>
       </c>
@@ -5832,8 +6426,11 @@
       <c r="M87">
         <v>23</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K88" t="s">
         <v>87</v>
       </c>
@@ -5843,8 +6440,11 @@
       <c r="M88">
         <v>31</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H89" t="s">
         <v>159</v>
       </c>
@@ -5860,8 +6460,11 @@
       <c r="M89">
         <v>21</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K90" t="s">
         <v>76</v>
       </c>
@@ -5871,8 +6474,11 @@
       <c r="M90">
         <v>23</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K91" t="s">
         <v>77</v>
       </c>
@@ -5882,8 +6488,11 @@
       <c r="M91">
         <v>28</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K92" t="s">
         <v>78</v>
       </c>
@@ -5893,8 +6502,11 @@
       <c r="M92">
         <v>28</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K93" t="s">
         <v>79</v>
       </c>
@@ -5904,8 +6516,11 @@
       <c r="M93">
         <v>23</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K94" t="s">
         <v>80</v>
       </c>
@@ -5915,8 +6530,11 @@
       <c r="M94">
         <v>23</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K95" t="s">
         <v>81</v>
       </c>
@@ -5926,8 +6544,11 @@
       <c r="M95">
         <v>30</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K96" t="s">
         <v>147</v>
       </c>
@@ -5937,8 +6558,11 @@
       <c r="M96">
         <v>32</v>
       </c>
-    </row>
-    <row r="97" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H97" t="s">
         <v>159</v>
       </c>
@@ -5954,8 +6578,11 @@
       <c r="M97">
         <v>29</v>
       </c>
-    </row>
-    <row r="98" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="8:14" x14ac:dyDescent="0.25">
       <c r="K98" t="s">
         <v>84</v>
       </c>
@@ -5965,8 +6592,11 @@
       <c r="M98">
         <v>24</v>
       </c>
-    </row>
-    <row r="99" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="8:14" x14ac:dyDescent="0.25">
       <c r="K99" t="s">
         <v>85</v>
       </c>
@@ -5976,8 +6606,11 @@
       <c r="M99">
         <v>26</v>
       </c>
-    </row>
-    <row r="100" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="8:14" x14ac:dyDescent="0.25">
       <c r="K100" t="s">
         <v>86</v>
       </c>
@@ -5987,8 +6620,11 @@
       <c r="M100">
         <v>21</v>
       </c>
-    </row>
-    <row r="101" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="8:14" x14ac:dyDescent="0.25">
       <c r="K101" t="s">
         <v>87</v>
       </c>
@@ -5998,8 +6634,11 @@
       <c r="M101">
         <v>27</v>
       </c>
-    </row>
-    <row r="102" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="8:14" x14ac:dyDescent="0.25">
       <c r="K102" t="s">
         <v>88</v>
       </c>
@@ -6009,8 +6648,11 @@
       <c r="M102">
         <v>31</v>
       </c>
-    </row>
-    <row r="103" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="8:14" x14ac:dyDescent="0.25">
       <c r="K103" t="s">
         <v>98</v>
       </c>
@@ -6020,8 +6662,11 @@
       <c r="M103">
         <v>19</v>
       </c>
-    </row>
-    <row r="104" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="8:14" x14ac:dyDescent="0.25">
       <c r="K104" t="s">
         <v>99</v>
       </c>
@@ -6031,8 +6676,11 @@
       <c r="M104">
         <v>22</v>
       </c>
-    </row>
-    <row r="105" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H105" t="s">
         <v>159</v>
       </c>
@@ -6048,8 +6696,11 @@
       <c r="M105">
         <v>24</v>
       </c>
-    </row>
-    <row r="106" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="8:14" x14ac:dyDescent="0.25">
       <c r="K106" t="s">
         <v>150</v>
       </c>
@@ -6059,8 +6710,11 @@
       <c r="M106">
         <v>22</v>
       </c>
-    </row>
-    <row r="107" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="8:14" x14ac:dyDescent="0.25">
       <c r="K107" t="s">
         <v>151</v>
       </c>
@@ -6070,8 +6724,11 @@
       <c r="M107">
         <v>30</v>
       </c>
-    </row>
-    <row r="108" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="8:14" x14ac:dyDescent="0.25">
       <c r="K108" t="s">
         <v>152</v>
       </c>
@@ -6081,8 +6738,11 @@
       <c r="M108">
         <v>19</v>
       </c>
-    </row>
-    <row r="109" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="8:14" x14ac:dyDescent="0.25">
       <c r="K109" t="s">
         <v>153</v>
       </c>
@@ -6092,8 +6752,11 @@
       <c r="M109">
         <v>28</v>
       </c>
-    </row>
-    <row r="110" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="8:14" x14ac:dyDescent="0.25">
       <c r="K110" t="s">
         <v>154</v>
       </c>
@@ -6103,8 +6766,11 @@
       <c r="M110">
         <v>26</v>
       </c>
-    </row>
-    <row r="111" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="8:14" x14ac:dyDescent="0.25">
       <c r="K111" t="s">
         <v>155</v>
       </c>
@@ -6114,8 +6780,11 @@
       <c r="M111">
         <v>27</v>
       </c>
-    </row>
-    <row r="112" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="N111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="8:14" x14ac:dyDescent="0.25">
       <c r="K112" t="s">
         <v>156</v>
       </c>
@@ -6124,6 +6793,9 @@
       </c>
       <c r="M112">
         <v>26</v>
+      </c>
+      <c r="N112">
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.25">
@@ -6457,7 +7129,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U6">
+  <conditionalFormatting sqref="V2:V6">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -6469,7 +7141,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U7:U9">
+  <conditionalFormatting sqref="V7:V9">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -6481,7 +7153,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U21">
+  <conditionalFormatting sqref="V21">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -6493,7 +7165,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U22:U26">
+  <conditionalFormatting sqref="V22:V26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -6505,7 +7177,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U27:U28">
+  <conditionalFormatting sqref="V27:V28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -6525,7 +7197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B870AC2-9AFD-4499-BB62-0CD79E899B62}">
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -6682,15 +7354,15 @@
         <v>0.04</v>
       </c>
       <c r="R5">
-        <f>R4+R4*N5</f>
+        <f t="shared" ref="R5:R26" si="0">R4+R4*N5</f>
         <v>435.6</v>
       </c>
       <c r="S5">
-        <f>S4+S4*O5</f>
+        <f t="shared" ref="S5:S26" si="1">S4+S4*O5</f>
         <v>452</v>
       </c>
       <c r="T5">
-        <f>T4+T4*P5</f>
+        <f t="shared" ref="T5:T26" si="2">T4+T4*P5</f>
         <v>416</v>
       </c>
       <c r="V5">
@@ -6706,15 +7378,15 @@
         <v>0.03</v>
       </c>
       <c r="AA5">
-        <f>AA4+AA4*W5</f>
+        <f t="shared" ref="AA5:AA26" si="3">AA4+AA4*W5</f>
         <v>421.64</v>
       </c>
       <c r="AB5">
-        <f>AB4+AB4*X5</f>
+        <f t="shared" ref="AB5:AB26" si="4">AB4+AB4*X5</f>
         <v>430</v>
       </c>
       <c r="AC5">
-        <f>AC4+AC4*Y5</f>
+        <f t="shared" ref="AC5:AC26" si="5">AC4+AC4*Y5</f>
         <v>412</v>
       </c>
     </row>
@@ -6744,15 +7416,15 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="R6">
-        <f>R5+R5*N6</f>
+        <f t="shared" si="0"/>
         <v>470.75292000000002</v>
       </c>
       <c r="S6">
-        <f>S5+S5*O6</f>
+        <f t="shared" si="1"/>
         <v>501.72</v>
       </c>
       <c r="T6">
-        <f>T5+T5*P6</f>
+        <f t="shared" si="2"/>
         <v>434.72</v>
       </c>
       <c r="V6">
@@ -6768,15 +7440,15 @@
         <v>0.02</v>
       </c>
       <c r="AA6">
-        <f>AA5+AA5*W6</f>
+        <f t="shared" si="3"/>
         <v>443.05931199999998</v>
       </c>
       <c r="AB6">
-        <f>AB5+AB5*X6</f>
+        <f t="shared" si="4"/>
         <v>460.1</v>
       </c>
       <c r="AC6">
-        <f>AC5+AC5*Y6</f>
+        <f t="shared" si="5"/>
         <v>420.24</v>
       </c>
     </row>
@@ -6806,15 +7478,15 @@
         <v>0.04</v>
       </c>
       <c r="R7">
-        <f>R6+R6*N7</f>
+        <f t="shared" si="0"/>
         <v>504.41175378000003</v>
       </c>
       <c r="S7">
-        <f>S6+S6*O7</f>
+        <f t="shared" si="1"/>
         <v>551.89200000000005</v>
       </c>
       <c r="T7">
-        <f>T6+T6*P7</f>
+        <f t="shared" si="2"/>
         <v>452.10880000000003</v>
       </c>
       <c r="V7">
@@ -6830,15 +7502,15 @@
         <v>0.02</v>
       </c>
       <c r="AA7">
-        <f>AA6+AA6*W7</f>
+        <f t="shared" si="3"/>
         <v>462.99698103999998</v>
       </c>
       <c r="AB7">
-        <f>AB6+AB6*X7</f>
+        <f t="shared" si="4"/>
         <v>490.00650000000002</v>
       </c>
       <c r="AC7">
-        <f>AC6+AC6*Y7</f>
+        <f t="shared" si="5"/>
         <v>428.64480000000003</v>
       </c>
     </row>
@@ -6868,15 +7540,15 @@
         <v>0.03</v>
       </c>
       <c r="R8">
-        <f>R7+R7*N8</f>
+        <f t="shared" si="0"/>
         <v>534.92866488368998</v>
       </c>
       <c r="S8">
-        <f>S7+S7*O8</f>
+        <f t="shared" si="1"/>
         <v>596.04336000000001</v>
       </c>
       <c r="T8">
-        <f>T7+T7*P8</f>
+        <f t="shared" si="2"/>
         <v>465.67206400000003</v>
       </c>
       <c r="V8">
@@ -6892,15 +7564,15 @@
         <v>0.02</v>
       </c>
       <c r="AA8">
-        <f>AA7+AA7*W8</f>
+        <f t="shared" si="3"/>
         <v>482.026156960744</v>
       </c>
       <c r="AB8">
-        <f>AB7+AB7*X8</f>
+        <f t="shared" si="4"/>
         <v>519.40688999999998</v>
       </c>
       <c r="AC8">
-        <f>AC7+AC7*Y8</f>
+        <f t="shared" si="5"/>
         <v>437.21769600000005</v>
       </c>
     </row>
@@ -6930,15 +7602,15 @@
         <v>0.02</v>
       </c>
       <c r="R9">
-        <f>R8+R8*N9</f>
+        <f t="shared" si="0"/>
         <v>561.56811239489775</v>
       </c>
       <c r="S9">
-        <f>S8+S8*O9</f>
+        <f t="shared" si="1"/>
         <v>637.76639520000003</v>
       </c>
       <c r="T9">
-        <f>T8+T8*P9</f>
+        <f t="shared" si="2"/>
         <v>474.98550528000004</v>
       </c>
       <c r="V9">
@@ -6954,15 +7626,15 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="AA9">
-        <f>AA8+AA8*W9</f>
+        <f t="shared" si="3"/>
         <v>499.57190907411507</v>
       </c>
       <c r="AB9">
-        <f>AB8+AB8*X9</f>
+        <f t="shared" si="4"/>
         <v>550.57130339999992</v>
       </c>
       <c r="AC9">
-        <f>AC8+AC8*Y9</f>
+        <f t="shared" si="5"/>
         <v>435.03160752000002</v>
       </c>
     </row>
@@ -6992,15 +7664,15 @@
         <v>0.02</v>
       </c>
       <c r="R10">
-        <f>R9+R9*N10</f>
+        <f t="shared" si="0"/>
         <v>583.9185232682147</v>
       </c>
       <c r="S10">
-        <f>S9+S9*O10</f>
+        <f t="shared" si="1"/>
         <v>676.03237891200001</v>
       </c>
       <c r="T10">
-        <f>T9+T9*P10</f>
+        <f t="shared" si="2"/>
         <v>484.48521538560004</v>
       </c>
       <c r="V10">
@@ -7016,15 +7688,15 @@
         <v>-0.01</v>
       </c>
       <c r="AA10">
-        <f>AA9+AA9*W10</f>
+        <f t="shared" si="3"/>
         <v>515.05863825541269</v>
       </c>
       <c r="AB10">
-        <f>AB9+AB9*X10</f>
+        <f t="shared" si="4"/>
         <v>578.0998685699999</v>
       </c>
       <c r="AC10">
-        <f>AC9+AC9*Y10</f>
+        <f t="shared" si="5"/>
         <v>430.68129144480002</v>
       </c>
     </row>
@@ -7042,15 +7714,15 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <f>R10+R10*N11</f>
+        <f t="shared" si="0"/>
         <v>601.26090340928067</v>
       </c>
       <c r="S11">
-        <f>S10+S10*O11</f>
+        <f t="shared" si="1"/>
         <v>709.83399785760002</v>
       </c>
       <c r="T11">
-        <f>T10+T10*P11</f>
+        <f t="shared" si="2"/>
         <v>484.48521538560004</v>
       </c>
       <c r="V11">
@@ -7066,15 +7738,15 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="AA11">
-        <f>AA10+AA10*W11</f>
+        <f t="shared" si="3"/>
         <v>527.00799866293823</v>
       </c>
       <c r="AB11">
-        <f>AB10+AB10*X11</f>
+        <f t="shared" si="4"/>
         <v>604.11436265564987</v>
       </c>
       <c r="AC11">
-        <f>AC10+AC10*Y11</f>
+        <f t="shared" si="5"/>
         <v>424.22107207312803</v>
       </c>
     </row>
@@ -7095,15 +7767,15 @@
         <v>-0.02</v>
       </c>
       <c r="R12">
-        <f>R11+R11*N12</f>
+        <f t="shared" si="0"/>
         <v>613.82725629053459</v>
       </c>
       <c r="S12">
-        <f>S11+S11*O12</f>
+        <f t="shared" si="1"/>
         <v>738.22735777190405</v>
       </c>
       <c r="T12">
-        <f>T11+T11*P12</f>
+        <f t="shared" si="2"/>
         <v>474.79551107788802</v>
       </c>
       <c r="V12">
@@ -7119,15 +7791,15 @@
         <v>-0.02</v>
       </c>
       <c r="AA12">
-        <f>AA11+AA11*W12</f>
+        <f t="shared" si="3"/>
         <v>537.54815863619694</v>
       </c>
       <c r="AB12">
-        <f>AB11+AB11*X12</f>
+        <f t="shared" si="4"/>
         <v>631.29950897515414</v>
       </c>
       <c r="AC12">
-        <f>AC11+AC11*Y12</f>
+        <f t="shared" si="5"/>
         <v>415.73665063166544</v>
       </c>
     </row>
@@ -7145,15 +7817,15 @@
         <v>-0.02</v>
       </c>
       <c r="R13">
-        <f>R12+R12*N13</f>
+        <f t="shared" si="0"/>
         <v>619.59723249966567</v>
       </c>
       <c r="S13">
-        <f>S12+S12*O13</f>
+        <f t="shared" si="1"/>
         <v>760.3741785050612</v>
       </c>
       <c r="T13">
-        <f>T12+T12*P13</f>
+        <f t="shared" si="2"/>
         <v>465.29960085633024</v>
       </c>
       <c r="V13">
@@ -7169,15 +7841,15 @@
         <v>-0.02</v>
       </c>
       <c r="AA13">
-        <f>AA12+AA12*W13</f>
+        <f t="shared" si="3"/>
         <v>545.61138101573988</v>
       </c>
       <c r="AB13">
-        <f>AB12+AB12*X13</f>
+        <f t="shared" si="4"/>
         <v>656.55148933416035</v>
       </c>
       <c r="AC13">
-        <f>AC12+AC12*Y13</f>
+        <f t="shared" si="5"/>
         <v>407.42191761903211</v>
       </c>
     </row>
@@ -7198,15 +7870,15 @@
         <v>-0.02</v>
       </c>
       <c r="R14">
-        <f>R13+R13*N14</f>
+        <f t="shared" si="0"/>
         <v>620.1548700089154</v>
       </c>
       <c r="S14">
-        <f>S13+S13*O14</f>
+        <f t="shared" si="1"/>
         <v>771.77979118263715</v>
       </c>
       <c r="T14">
-        <f>T13+T13*P14</f>
+        <f t="shared" si="2"/>
         <v>455.99360883920366</v>
       </c>
       <c r="V14">
@@ -7222,15 +7894,15 @@
         <v>-0.03</v>
       </c>
       <c r="AA14">
-        <f>AA13+AA13*W14</f>
+        <f t="shared" si="3"/>
         <v>550.41276116867834</v>
       </c>
       <c r="AB14">
-        <f>AB13+AB13*X14</f>
+        <f t="shared" si="4"/>
         <v>676.24803401418512</v>
       </c>
       <c r="AC14">
-        <f>AC13+AC13*Y14</f>
+        <f t="shared" si="5"/>
         <v>395.19926009046117</v>
       </c>
     </row>
@@ -7248,15 +7920,15 @@
         <v>-0.03</v>
       </c>
       <c r="R15">
-        <f>R14+R14*N15</f>
+        <f t="shared" si="0"/>
         <v>613.82929033482446</v>
       </c>
       <c r="S15">
-        <f>S14+S14*O15</f>
+        <f t="shared" si="1"/>
         <v>787.21538700628992</v>
       </c>
       <c r="T15">
-        <f>T14+T14*P15</f>
+        <f t="shared" si="2"/>
         <v>442.31380057402754</v>
       </c>
       <c r="V15">
@@ -7272,15 +7944,15 @@
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="AA15">
-        <f>AA14+AA14*W15</f>
+        <f t="shared" si="3"/>
         <v>553.27490752675544</v>
       </c>
       <c r="AB15">
-        <f>AB14+AB14*X15</f>
+        <f t="shared" si="4"/>
         <v>693.15423486453972</v>
       </c>
       <c r="AC15">
-        <f>AC14+AC14*Y15</f>
+        <f t="shared" si="5"/>
         <v>381.36728598729502</v>
       </c>
     </row>
@@ -7290,7 +7962,7 @@
         <v>18</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16" si="0">K3-20</f>
+        <f t="shared" ref="K16" si="6">K3-20</f>
         <v>61</v>
       </c>
       <c r="M16">
@@ -7306,15 +7978,15 @@
         <v>-0.05</v>
       </c>
       <c r="R16">
-        <f>R15+R15*N16</f>
+        <f t="shared" si="0"/>
         <v>601.49132159909448</v>
       </c>
       <c r="S16">
-        <f>S15+S15*O16</f>
+        <f t="shared" si="1"/>
         <v>795.08754087635282</v>
       </c>
       <c r="T16">
-        <f>T15+T15*P16</f>
+        <f t="shared" si="2"/>
         <v>420.19811054532613</v>
       </c>
       <c r="V16">
@@ -7330,25 +8002,25 @@
         <v>-0.04</v>
       </c>
       <c r="AA16">
-        <f>AA15+AA15*W16</f>
+        <f t="shared" si="3"/>
         <v>553.27490752675544</v>
       </c>
       <c r="AB16">
-        <f>AB15+AB15*X16</f>
+        <f t="shared" si="4"/>
         <v>720.88040425912129</v>
       </c>
       <c r="AC16">
-        <f>AC15+AC15*Y16</f>
+        <f t="shared" si="5"/>
         <v>366.11259454780321</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E17">
-        <f t="shared" ref="E17:K23" si="1">E4-20</f>
+        <f t="shared" ref="E17:K23" si="7">E4-20</f>
         <v>8</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
       <c r="M17">
@@ -7358,15 +8030,15 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="R17">
-        <f>R16+R16*N17</f>
+        <f t="shared" si="0"/>
         <v>601.49132159909448</v>
       </c>
       <c r="S17">
-        <f>S16+S16*O17</f>
+        <f t="shared" si="1"/>
         <v>795.08754087635282</v>
       </c>
       <c r="T17">
-        <f>T16+T16*P17</f>
+        <f t="shared" si="2"/>
         <v>420.19811054532613</v>
       </c>
       <c r="V17">
@@ -7378,21 +8050,21 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="AA17">
-        <f>AA16+AA16*W17</f>
+        <f t="shared" si="3"/>
         <v>550.39787800761633</v>
       </c>
       <c r="AB17">
-        <f>AB16+AB16*X17</f>
+        <f t="shared" si="4"/>
         <v>720.88040425912129</v>
       </c>
       <c r="AC17">
-        <f>AC16+AC16*Y17</f>
+        <f t="shared" si="5"/>
         <v>366.11259454780321</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M18">
@@ -7402,15 +8074,15 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="R18">
-        <f>R17+R17*N18</f>
+        <f t="shared" si="0"/>
         <v>601.49132159909448</v>
       </c>
       <c r="S18">
-        <f>S17+S17*O18</f>
+        <f t="shared" si="1"/>
         <v>795.08754087635282</v>
       </c>
       <c r="T18">
-        <f>T17+T17*P18</f>
+        <f t="shared" si="2"/>
         <v>420.19811054532613</v>
       </c>
       <c r="V18">
@@ -7422,21 +8094,21 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="AA18">
-        <f>AA17+AA17*W18</f>
+        <f t="shared" si="3"/>
         <v>545.55437668114928</v>
       </c>
       <c r="AB18">
-        <f>AB17+AB17*X18</f>
+        <f t="shared" si="4"/>
         <v>720.88040425912129</v>
       </c>
       <c r="AC18">
-        <f>AC17+AC17*Y18</f>
+        <f t="shared" si="5"/>
         <v>366.11259454780321</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="M19">
@@ -7446,15 +8118,15 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="R19">
-        <f>R18+R18*N19</f>
+        <f t="shared" si="0"/>
         <v>601.49132159909448</v>
       </c>
       <c r="S19">
-        <f>S18+S18*O19</f>
+        <f t="shared" si="1"/>
         <v>795.08754087635282</v>
       </c>
       <c r="T19">
-        <f>T18+T18*P19</f>
+        <f t="shared" si="2"/>
         <v>420.19811054532613</v>
       </c>
       <c r="V19">
@@ -7466,21 +8138,21 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="AA19">
-        <f>AA18+AA18*W19</f>
+        <f t="shared" si="3"/>
         <v>537.37106103093208</v>
       </c>
       <c r="AB19">
-        <f>AB18+AB18*X19</f>
+        <f t="shared" si="4"/>
         <v>720.88040425912129</v>
       </c>
       <c r="AC19">
-        <f>AC18+AC18*Y19</f>
+        <f t="shared" si="5"/>
         <v>366.11259454780321</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="M20">
@@ -7490,15 +8162,15 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="R20">
-        <f>R19+R19*N20</f>
+        <f t="shared" si="0"/>
         <v>601.49132159909448</v>
       </c>
       <c r="S20">
-        <f>S19+S19*O20</f>
+        <f t="shared" si="1"/>
         <v>795.08754087635282</v>
       </c>
       <c r="T20">
-        <f>T19+T19*P20</f>
+        <f t="shared" si="2"/>
         <v>420.19811054532613</v>
       </c>
       <c r="V20">
@@ -7510,21 +8182,21 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="AA20">
-        <f>AA19+AA19*W20</f>
+        <f t="shared" si="3"/>
         <v>526.62363981031342</v>
       </c>
       <c r="AB20">
-        <f>AB19+AB19*X20</f>
+        <f t="shared" si="4"/>
         <v>720.88040425912129</v>
       </c>
       <c r="AC20">
-        <f>AC19+AC19*Y20</f>
+        <f t="shared" si="5"/>
         <v>366.11259454780321</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="M21">
@@ -7534,15 +8206,15 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="R21">
-        <f>R20+R20*N21</f>
+        <f t="shared" si="0"/>
         <v>601.49132159909448</v>
       </c>
       <c r="S21">
-        <f>S20+S20*O21</f>
+        <f t="shared" si="1"/>
         <v>795.08754087635282</v>
       </c>
       <c r="T21">
-        <f>T20+T20*P21</f>
+        <f t="shared" si="2"/>
         <v>420.19811054532613</v>
       </c>
       <c r="V21">
@@ -7554,21 +8226,21 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="AA21">
-        <f>AA20+AA20*W21</f>
+        <f t="shared" si="3"/>
         <v>514.4059713667142</v>
       </c>
       <c r="AB21">
-        <f>AB20+AB20*X21</f>
+        <f t="shared" si="4"/>
         <v>720.88040425912129</v>
       </c>
       <c r="AC21">
-        <f>AC20+AC20*Y21</f>
+        <f t="shared" si="5"/>
         <v>366.11259454780321</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="M22">
@@ -7578,15 +8250,15 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="R22">
-        <f>R21+R21*N22</f>
+        <f t="shared" si="0"/>
         <v>601.49132159909448</v>
       </c>
       <c r="S22">
-        <f>S21+S21*O22</f>
+        <f t="shared" si="1"/>
         <v>795.08754087635282</v>
       </c>
       <c r="T22">
-        <f>T21+T21*P22</f>
+        <f t="shared" si="2"/>
         <v>420.19811054532613</v>
       </c>
       <c r="V22">
@@ -7598,21 +8270,21 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="AA22">
-        <f>AA21+AA21*W22</f>
+        <f t="shared" si="3"/>
         <v>498.45938625434604</v>
       </c>
       <c r="AB22">
-        <f>AB21+AB21*X22</f>
+        <f t="shared" si="4"/>
         <v>720.88040425912129</v>
       </c>
       <c r="AC22">
-        <f>AC21+AC21*Y22</f>
+        <f t="shared" si="5"/>
         <v>366.11259454780321</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="M23">
@@ -7622,15 +8294,15 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="R23">
-        <f>R22+R22*N23</f>
+        <f t="shared" si="0"/>
         <v>601.49132159909448</v>
       </c>
       <c r="S23">
-        <f>S22+S22*O23</f>
+        <f t="shared" si="1"/>
         <v>795.08754087635282</v>
       </c>
       <c r="T23">
-        <f>T22+T22*P23</f>
+        <f t="shared" si="2"/>
         <v>420.19811054532613</v>
       </c>
       <c r="V23">
@@ -7642,15 +8314,15 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="AA23">
-        <f>AA22+AA22*W23</f>
+        <f t="shared" si="3"/>
         <v>480.31546459468785</v>
       </c>
       <c r="AB23">
-        <f>AB22+AB22*X23</f>
+        <f t="shared" si="4"/>
         <v>720.88040425912129</v>
       </c>
       <c r="AC23">
-        <f>AC22+AC22*Y23</f>
+        <f t="shared" si="5"/>
         <v>366.11259454780321</v>
       </c>
     </row>
@@ -7659,15 +8331,15 @@
         <v>35</v>
       </c>
       <c r="R24">
-        <f>R23+R23*N24</f>
+        <f t="shared" si="0"/>
         <v>601.49132159909448</v>
       </c>
       <c r="S24">
-        <f>S23+S23*O24</f>
+        <f t="shared" si="1"/>
         <v>795.08754087635282</v>
       </c>
       <c r="T24">
-        <f>T23+T23*P24</f>
+        <f t="shared" si="2"/>
         <v>420.19811054532613</v>
       </c>
       <c r="V24">
@@ -7677,15 +8349,15 @@
         <v>-4.1100000000000005E-2</v>
       </c>
       <c r="AA24">
-        <f>AA23+AA23*W24</f>
+        <f t="shared" si="3"/>
         <v>460.57449899984618</v>
       </c>
       <c r="AB24">
-        <f>AB23+AB23*X24</f>
+        <f t="shared" si="4"/>
         <v>720.88040425912129</v>
       </c>
       <c r="AC24">
-        <f>AC23+AC23*Y24</f>
+        <f t="shared" si="5"/>
         <v>366.11259454780321</v>
       </c>
     </row>
@@ -7694,15 +8366,15 @@
         <v>36</v>
       </c>
       <c r="R25">
-        <f>R24+R24*N25</f>
+        <f t="shared" si="0"/>
         <v>601.49132159909448</v>
       </c>
       <c r="S25">
-        <f>S24+S24*O25</f>
+        <f t="shared" si="1"/>
         <v>795.08754087635282</v>
       </c>
       <c r="T25">
-        <f>T24+T24*P25</f>
+        <f t="shared" si="2"/>
         <v>420.19811054532613</v>
       </c>
       <c r="V25">
@@ -7712,15 +8384,15 @@
         <v>-4.4999999999999998E-2</v>
       </c>
       <c r="AA25">
-        <f>AA24+AA24*W25</f>
+        <f t="shared" si="3"/>
         <v>439.84864654485312</v>
       </c>
       <c r="AB25">
-        <f>AB24+AB24*X25</f>
+        <f t="shared" si="4"/>
         <v>720.88040425912129</v>
       </c>
       <c r="AC25">
-        <f>AC24+AC24*Y25</f>
+        <f t="shared" si="5"/>
         <v>366.11259454780321</v>
       </c>
     </row>
@@ -7729,15 +8401,15 @@
         <v>37</v>
       </c>
       <c r="R26">
-        <f>R25+R25*N26</f>
+        <f t="shared" si="0"/>
         <v>601.49132159909448</v>
       </c>
       <c r="S26">
-        <f>S25+S25*O26</f>
+        <f t="shared" si="1"/>
         <v>795.08754087635282</v>
       </c>
       <c r="T26">
-        <f>T25+T25*P26</f>
+        <f t="shared" si="2"/>
         <v>420.19811054532613</v>
       </c>
       <c r="V26">
@@ -7747,15 +8419,15 @@
         <v>-5.0799999999999998E-2</v>
       </c>
       <c r="AA26">
-        <f>AA25+AA25*W26</f>
+        <f t="shared" si="3"/>
         <v>417.50433530037458</v>
       </c>
       <c r="AB26">
-        <f>AB25+AB25*X26</f>
+        <f t="shared" si="4"/>
         <v>720.88040425912129</v>
       </c>
       <c r="AC26">
-        <f>AC25+AC25*Y26</f>
+        <f t="shared" si="5"/>
         <v>366.11259454780321</v>
       </c>
     </row>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ED0E41-4DC4-473A-8062-8800C7EE34DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9573FF-741C-4735-AAE6-AD72016AD981}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="246">
   <si>
     <t>SG Wählitz</t>
   </si>
@@ -635,6 +635,138 @@
   </si>
   <si>
     <t>Schlecht</t>
+  </si>
+  <si>
+    <t>Freilos</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>Manfred Knittel</t>
+  </si>
+  <si>
+    <t>Michael Snr Bergner</t>
+  </si>
+  <si>
+    <t>Fran Altmann</t>
+  </si>
+  <si>
+    <t>Hartmut Pressler</t>
+  </si>
+  <si>
+    <t>Maik Schilde</t>
+  </si>
+  <si>
+    <t>Volkmer Kunze</t>
+  </si>
+  <si>
+    <t>Thomas Wolffert</t>
+  </si>
+  <si>
+    <t>Uwe Arlt</t>
+  </si>
+  <si>
+    <t>Rainer Jacob</t>
+  </si>
+  <si>
+    <t>Ricardo Nahs</t>
+  </si>
+  <si>
+    <t>Daniel Dietzschold</t>
+  </si>
+  <si>
+    <t>Maik Pietsch 2</t>
+  </si>
+  <si>
+    <t>Harry Rösler</t>
+  </si>
+  <si>
+    <t>Michael Wrobel</t>
+  </si>
+  <si>
+    <t>Steffen Keller</t>
+  </si>
+  <si>
+    <t>Andreas Fuß</t>
+  </si>
+  <si>
+    <t>SV 1924 Nebra</t>
+  </si>
+  <si>
+    <t>Reimar Wachtel</t>
+  </si>
+  <si>
+    <t>Rene Knöfel</t>
+  </si>
+  <si>
+    <t>Siegfried Kowalewicz</t>
+  </si>
+  <si>
+    <t>Jörg Gonell</t>
+  </si>
+  <si>
+    <t>Marco Scherner</t>
+  </si>
+  <si>
+    <t>Thomas Spiegelberg</t>
+  </si>
+  <si>
+    <t>Ralph Güntner</t>
+  </si>
+  <si>
+    <t>E. Tannewitz</t>
+  </si>
+  <si>
+    <t>Peter Neugebauer</t>
+  </si>
+  <si>
+    <t>Peter Rott</t>
+  </si>
+  <si>
+    <t>Raik Bernadowitz</t>
+  </si>
+  <si>
+    <t>Marcel Ottmann</t>
+  </si>
+  <si>
+    <t>Michael Schock</t>
+  </si>
+  <si>
+    <t>Ronny Kutscher</t>
+  </si>
+  <si>
+    <t>Stefan Kalb</t>
+  </si>
+  <si>
+    <t>Steffen Wiebicke</t>
+  </si>
+  <si>
+    <t>Wolfgang Canitz</t>
+  </si>
+  <si>
+    <t>Martin Dothe</t>
   </si>
 </sst>
 </file>
@@ -957,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,16 +1100,16 @@
         <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E1">
-        <v>552</v>
+        <v>474</v>
       </c>
       <c r="F1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G1">
         <v>5</v>
@@ -985,13 +1117,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1">
-        <v>544</v>
+        <v>211</v>
+      </c>
+      <c r="E2">
+        <v>475</v>
       </c>
       <c r="F2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -999,13 +1131,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1">
-        <v>529</v>
+        <v>146</v>
+      </c>
+      <c r="E3">
+        <v>477</v>
       </c>
       <c r="F3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1013,13 +1145,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1">
-        <v>534</v>
+        <v>142</v>
+      </c>
+      <c r="E4">
+        <v>493</v>
       </c>
       <c r="F4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1027,13 +1159,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1">
-        <v>525</v>
+        <v>212</v>
+      </c>
+      <c r="E5">
+        <v>493</v>
       </c>
       <c r="F5">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1041,13 +1173,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="1">
-        <v>572</v>
+        <v>144</v>
+      </c>
+      <c r="E6">
+        <v>497</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -1055,13 +1187,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1">
-        <v>559</v>
+        <v>141</v>
+      </c>
+      <c r="E7">
+        <v>498</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -1069,13 +1201,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1">
-        <v>539</v>
+        <v>143</v>
+      </c>
+      <c r="E8">
+        <v>502</v>
       </c>
       <c r="F8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1086,16 +1218,16 @@
         <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1">
-        <v>549</v>
+        <v>124</v>
+      </c>
+      <c r="E9">
+        <v>470</v>
       </c>
       <c r="F9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -1103,13 +1235,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1">
-        <v>542</v>
+        <v>126</v>
+      </c>
+      <c r="E10">
+        <v>488</v>
       </c>
       <c r="F10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -1117,13 +1249,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="1">
-        <v>535</v>
+        <v>213</v>
+      </c>
+      <c r="E11">
+        <v>471</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -1131,10 +1263,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1">
-        <v>562</v>
+        <v>214</v>
+      </c>
+      <c r="E12">
+        <v>496</v>
       </c>
       <c r="F12">
         <v>29</v>
@@ -1145,13 +1277,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="1">
-        <v>514</v>
+        <v>123</v>
+      </c>
+      <c r="E13">
+        <v>465</v>
       </c>
       <c r="F13">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -1159,13 +1291,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="1">
-        <v>553</v>
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>478</v>
       </c>
       <c r="F14">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -1173,13 +1305,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="1">
-        <v>518</v>
+        <v>215</v>
+      </c>
+      <c r="E15">
+        <v>461</v>
       </c>
       <c r="F15">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -1187,13 +1319,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="1">
-        <v>526</v>
+        <v>216</v>
+      </c>
+      <c r="E16">
+        <v>463</v>
       </c>
       <c r="F16">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1204,16 +1336,16 @@
         <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1">
-        <v>520</v>
+        <v>217</v>
+      </c>
+      <c r="E17">
+        <v>484</v>
       </c>
       <c r="F17">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -1221,13 +1353,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>553</v>
+        <v>138</v>
+      </c>
+      <c r="E18">
+        <v>488</v>
       </c>
       <c r="F18">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -1235,10 +1367,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>553</v>
+        <v>218</v>
+      </c>
+      <c r="E19">
+        <v>492</v>
       </c>
       <c r="F19">
         <v>29</v>
@@ -1249,13 +1381,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1">
-        <v>520</v>
+        <v>219</v>
+      </c>
+      <c r="E20">
+        <v>498</v>
       </c>
       <c r="F20">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -1263,13 +1395,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>552</v>
+        <v>220</v>
+      </c>
+      <c r="E21">
+        <v>505</v>
       </c>
       <c r="F21">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -1277,13 +1409,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="1">
-        <v>526</v>
+        <v>221</v>
+      </c>
+      <c r="E22">
+        <v>506</v>
       </c>
       <c r="F22">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -1291,13 +1423,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1">
-        <v>523</v>
+        <v>136</v>
+      </c>
+      <c r="E23">
+        <v>528</v>
       </c>
       <c r="F23">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -1305,13 +1437,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="1">
-        <v>536</v>
+        <v>139</v>
+      </c>
+      <c r="E24">
+        <v>471</v>
       </c>
       <c r="F24">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -1322,16 +1454,16 @@
         <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="1">
-        <v>484</v>
+        <v>86</v>
+      </c>
+      <c r="E25">
+        <v>520</v>
       </c>
       <c r="F25">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -1339,13 +1471,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="1">
-        <v>515</v>
+        <v>85</v>
+      </c>
+      <c r="E26">
+        <v>521</v>
       </c>
       <c r="F26">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -1353,13 +1485,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="1">
-        <v>504</v>
+        <v>83</v>
+      </c>
+      <c r="E27">
+        <v>536</v>
       </c>
       <c r="F27">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -1367,13 +1499,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" s="1">
-        <v>506</v>
+        <v>84</v>
+      </c>
+      <c r="E28">
+        <v>539</v>
       </c>
       <c r="F28">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -1381,10 +1513,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="1">
-        <v>486</v>
+        <v>222</v>
+      </c>
+      <c r="E29">
+        <v>490</v>
       </c>
       <c r="F29">
         <v>29</v>
@@ -1395,13 +1527,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="1">
-        <v>498</v>
+        <v>223</v>
+      </c>
+      <c r="E30">
+        <v>501</v>
       </c>
       <c r="F30">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -1409,13 +1541,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="1">
+        <v>224</v>
+      </c>
+      <c r="E31">
         <v>504</v>
       </c>
       <c r="F31">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -1423,13 +1555,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="1">
-        <v>506</v>
+        <v>87</v>
+      </c>
+      <c r="E32">
+        <v>505</v>
       </c>
       <c r="F32">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G32">
         <v>5</v>
@@ -1440,16 +1572,16 @@
         <v>159</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="1">
-        <v>539</v>
+        <v>119</v>
+      </c>
+      <c r="E33">
+        <v>504</v>
       </c>
       <c r="F33">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G33">
         <v>5</v>
@@ -1457,13 +1589,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="1">
-        <v>532</v>
+        <v>116</v>
+      </c>
+      <c r="E34">
+        <v>506</v>
       </c>
       <c r="F34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G34">
         <v>5</v>
@@ -1471,13 +1603,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="1">
-        <v>524</v>
+        <v>225</v>
+      </c>
+      <c r="E35">
+        <v>511</v>
       </c>
       <c r="F35">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G35">
         <v>5</v>
@@ -1485,13 +1617,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="1">
-        <v>519</v>
+        <v>117</v>
+      </c>
+      <c r="E36">
+        <v>533</v>
       </c>
       <c r="F36">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G36">
         <v>5</v>
@@ -1499,13 +1631,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="1">
-        <v>514</v>
+        <v>226</v>
+      </c>
+      <c r="E37">
+        <v>462</v>
       </c>
       <c r="F37">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -1513,10 +1645,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="1">
-        <v>514</v>
+        <v>121</v>
+      </c>
+      <c r="E38">
+        <v>463</v>
       </c>
       <c r="F38">
         <v>29</v>
@@ -1527,13 +1659,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="1">
-        <v>512</v>
+        <v>120</v>
+      </c>
+      <c r="E39">
+        <v>486</v>
       </c>
       <c r="F39">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -1543,11 +1675,11 @@
       <c r="D40" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="1">
-        <v>494</v>
+      <c r="E40">
+        <v>496</v>
       </c>
       <c r="F40">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G40">
         <v>5</v>
@@ -1558,16 +1690,16 @@
         <v>159</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="1">
-        <v>529</v>
+        <v>112</v>
+      </c>
+      <c r="E41">
+        <v>504</v>
       </c>
       <c r="F41">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G41">
         <v>5</v>
@@ -1575,13 +1707,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="1">
-        <v>528</v>
+        <v>111</v>
+      </c>
+      <c r="E42">
+        <v>524</v>
       </c>
       <c r="F42">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -1589,13 +1721,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="1">
-        <v>512</v>
+        <v>113</v>
+      </c>
+      <c r="E43">
+        <v>493</v>
       </c>
       <c r="F43">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -1603,13 +1735,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="1">
-        <v>495</v>
+        <v>114</v>
+      </c>
+      <c r="E44">
+        <v>479</v>
       </c>
       <c r="F44">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G44">
         <v>5</v>
@@ -1617,13 +1749,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45">
+        <v>443</v>
+      </c>
+      <c r="F45">
         <v>29</v>
-      </c>
-      <c r="E45" s="1">
-        <v>492</v>
-      </c>
-      <c r="F45">
-        <v>24</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -1631,13 +1763,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="1">
-        <v>491</v>
+        <v>229</v>
+      </c>
+      <c r="E46">
+        <v>462</v>
       </c>
       <c r="F46">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G46">
         <v>5</v>
@@ -1645,10 +1777,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="1">
-        <v>509</v>
+        <v>110</v>
+      </c>
+      <c r="E47">
+        <v>501</v>
       </c>
       <c r="F47">
         <v>29</v>
@@ -1659,13 +1791,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" s="1">
-        <v>498</v>
+        <v>230</v>
+      </c>
+      <c r="E48">
+        <v>460</v>
       </c>
       <c r="F48">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G48">
         <v>5</v>
@@ -1676,16 +1808,16 @@
         <v>159</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="1">
-        <v>544</v>
+        <v>23</v>
+      </c>
+      <c r="E49">
+        <v>520</v>
       </c>
       <c r="F49">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -1693,13 +1825,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="1">
-        <v>536</v>
+        <v>92</v>
+      </c>
+      <c r="E50">
+        <v>492</v>
       </c>
       <c r="F50">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G50">
         <v>5</v>
@@ -1707,13 +1839,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="1">
-        <v>532</v>
+        <v>93</v>
+      </c>
+      <c r="E51">
+        <v>493</v>
       </c>
       <c r="F51">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G51">
         <v>5</v>
@@ -1721,13 +1853,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="1">
-        <v>516</v>
+        <v>231</v>
+      </c>
+      <c r="E52">
+        <v>499</v>
       </c>
       <c r="F52">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G52">
         <v>5</v>
@@ -1735,13 +1867,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="1">
-        <v>513</v>
+        <v>232</v>
+      </c>
+      <c r="E53">
+        <v>502</v>
       </c>
       <c r="F53">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -1749,10 +1881,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="1">
-        <v>512</v>
+        <v>233</v>
+      </c>
+      <c r="E54">
+        <v>509</v>
       </c>
       <c r="F54">
         <v>29</v>
@@ -1763,13 +1895,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="1">
-        <v>495</v>
+        <v>234</v>
+      </c>
+      <c r="E55">
+        <v>470</v>
       </c>
       <c r="F55">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -1777,13 +1909,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="1">
-        <v>476</v>
+        <v>235</v>
+      </c>
+      <c r="E56">
+        <v>475</v>
       </c>
       <c r="F56">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G56">
         <v>5</v>
@@ -1794,16 +1926,16 @@
         <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="D57" t="s">
-        <v>47</v>
-      </c>
-      <c r="E57" s="1">
-        <v>544</v>
+        <v>236</v>
+      </c>
+      <c r="E57">
+        <v>461</v>
       </c>
       <c r="F57">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G57">
         <v>5</v>
@@ -1811,13 +1943,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>48</v>
-      </c>
-      <c r="E58" s="1">
-        <v>541</v>
+        <v>237</v>
+      </c>
+      <c r="E58">
+        <v>480</v>
       </c>
       <c r="F58">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G58">
         <v>5</v>
@@ -1825,13 +1957,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>49</v>
-      </c>
-      <c r="E59" s="1">
-        <v>512</v>
+        <v>238</v>
+      </c>
+      <c r="E59">
+        <v>504</v>
       </c>
       <c r="F59">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G59">
         <v>5</v>
@@ -1839,13 +1971,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E60" s="1">
-        <v>508</v>
+        <v>134</v>
+      </c>
+      <c r="E60">
+        <v>474</v>
       </c>
       <c r="F60">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G60">
         <v>5</v>
@@ -1853,13 +1985,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>51</v>
-      </c>
-      <c r="E61" s="1">
-        <v>507</v>
+        <v>131</v>
+      </c>
+      <c r="E61">
+        <v>491</v>
       </c>
       <c r="F61">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G61">
         <v>5</v>
@@ -1867,13 +1999,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>52</v>
-      </c>
-      <c r="E62" s="1">
-        <v>498</v>
+        <v>132</v>
+      </c>
+      <c r="E62">
+        <v>493</v>
       </c>
       <c r="F62">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G62">
         <v>5</v>
@@ -1881,13 +2013,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>131</v>
-      </c>
-      <c r="E63" s="1">
-        <v>500</v>
+        <v>239</v>
+      </c>
+      <c r="E63">
+        <v>471</v>
       </c>
       <c r="F63">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G63">
         <v>5</v>
@@ -1895,13 +2027,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>132</v>
-      </c>
-      <c r="E64" s="1">
-        <v>493</v>
+        <v>240</v>
+      </c>
+      <c r="E64">
+        <v>447</v>
       </c>
       <c r="F64">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G64">
         <v>5</v>
@@ -1912,16 +2044,16 @@
         <v>159</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E65" s="1">
-        <v>519</v>
+        <v>536.07142857142856</v>
       </c>
       <c r="F65">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G65">
         <v>5</v>
@@ -1929,13 +2061,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E66" s="1">
-        <v>508</v>
+        <v>490.33333333333331</v>
       </c>
       <c r="F66">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G66">
         <v>5</v>
@@ -1943,13 +2075,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E67" s="1">
-        <v>507</v>
+        <v>542.5</v>
       </c>
       <c r="F67">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G67">
         <v>5</v>
@@ -1957,13 +2089,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="E68" s="1">
-        <v>504</v>
+        <v>535.23076923076928</v>
       </c>
       <c r="F68">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G68">
         <v>5</v>
@@ -1971,13 +2103,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E69" s="1">
-        <v>494</v>
+        <v>532.58333333333337</v>
       </c>
       <c r="F69">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G69">
         <v>5</v>
@@ -1985,13 +2117,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E70" s="1">
-        <v>480</v>
+        <v>509.25</v>
       </c>
       <c r="F70">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G70">
         <v>5</v>
@@ -1999,13 +2131,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="E71" s="1">
-        <v>470</v>
+        <v>533.9</v>
       </c>
       <c r="F71">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>5</v>
@@ -2013,13 +2145,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="E72" s="1">
-        <v>511</v>
+        <v>551.29999999999995</v>
       </c>
       <c r="F72">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G72">
         <v>5</v>
@@ -2030,16 +2162,16 @@
         <v>159</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="D73" t="s">
-        <v>62</v>
-      </c>
-      <c r="E73" s="1">
-        <v>519</v>
+        <v>203</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
       </c>
       <c r="F73">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G73">
         <v>5</v>
@@ -2047,13 +2179,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>63</v>
-      </c>
-      <c r="E74" s="1">
-        <v>518</v>
+        <v>204</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
       </c>
       <c r="F74">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G74">
         <v>5</v>
@@ -2061,13 +2193,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>64</v>
-      </c>
-      <c r="E75" s="1">
-        <v>506</v>
+        <v>205</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
       </c>
       <c r="F75">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G75">
         <v>5</v>
@@ -2075,13 +2207,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>65</v>
-      </c>
-      <c r="E76" s="1">
-        <v>506</v>
+        <v>206</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
       </c>
       <c r="F76">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -2089,13 +2221,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>66</v>
-      </c>
-      <c r="E77" s="1">
-        <v>477</v>
+        <v>207</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
       </c>
       <c r="F77">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G77">
         <v>5</v>
@@ -2103,13 +2235,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>141</v>
-      </c>
-      <c r="E78" s="1">
-        <v>524</v>
+        <v>208</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
       </c>
       <c r="F78">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G78">
         <v>5</v>
@@ -2117,13 +2249,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>142</v>
-      </c>
-      <c r="E79" s="1">
-        <v>523</v>
+        <v>209</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
       </c>
       <c r="F79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G79">
         <v>5</v>
@@ -2131,13 +2263,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>143</v>
-      </c>
-      <c r="E80" s="1">
-        <v>516</v>
+        <v>210</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
       </c>
       <c r="F80">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G80">
         <v>5</v>
@@ -2148,16 +2280,16 @@
         <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="D81" t="s">
-        <v>68</v>
-      </c>
-      <c r="E81" s="1">
-        <v>546</v>
+        <v>103</v>
+      </c>
+      <c r="E81">
+        <v>507</v>
       </c>
       <c r="F81">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G81">
         <v>5</v>
@@ -2165,10 +2297,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E82" s="1">
-        <v>529</v>
+        <v>104</v>
+      </c>
+      <c r="E82">
+        <v>519</v>
       </c>
       <c r="F82">
         <v>25</v>
@@ -2179,13 +2311,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>70</v>
-      </c>
-      <c r="E83" s="1">
-        <v>528</v>
+        <v>107</v>
+      </c>
+      <c r="E83">
+        <v>476</v>
       </c>
       <c r="F83">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G83">
         <v>5</v>
@@ -2193,13 +2325,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>71</v>
-      </c>
-      <c r="E84" s="1">
-        <v>525</v>
+        <v>108</v>
+      </c>
+      <c r="E84">
+        <v>470</v>
       </c>
       <c r="F84">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G84">
         <v>5</v>
@@ -2207,13 +2339,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>72</v>
-      </c>
-      <c r="E85" s="1">
-        <v>515</v>
+        <v>106</v>
+      </c>
+      <c r="E85">
+        <v>486</v>
       </c>
       <c r="F85">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G85">
         <v>5</v>
@@ -2221,13 +2353,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>73</v>
-      </c>
-      <c r="E86" s="1">
-        <v>506</v>
+        <v>105</v>
+      </c>
+      <c r="E86">
+        <v>503</v>
       </c>
       <c r="F86">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G86">
         <v>5</v>
@@ -2235,13 +2367,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>86</v>
-      </c>
-      <c r="E87" s="1">
-        <v>523</v>
+        <v>241</v>
+      </c>
+      <c r="E87">
+        <v>462</v>
       </c>
       <c r="F87">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G87">
         <v>5</v>
@@ -2249,13 +2381,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>87</v>
-      </c>
-      <c r="E88" s="1">
-        <v>522</v>
+        <v>242</v>
+      </c>
+      <c r="E88">
+        <v>530</v>
       </c>
       <c r="F88">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G88">
         <v>5</v>
@@ -2266,16 +2398,16 @@
         <v>159</v>
       </c>
       <c r="B89" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D89" t="s">
-        <v>75</v>
-      </c>
-      <c r="E89" s="1">
-        <v>555</v>
+        <v>100</v>
+      </c>
+      <c r="E89">
+        <v>473</v>
       </c>
       <c r="F89">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G89">
         <v>5</v>
@@ -2283,13 +2415,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>76</v>
-      </c>
-      <c r="E90" s="1">
-        <v>534</v>
+        <v>243</v>
+      </c>
+      <c r="E90">
+        <v>481</v>
       </c>
       <c r="F90">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G90">
         <v>5</v>
@@ -2297,13 +2429,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>77</v>
-      </c>
-      <c r="E91" s="1">
-        <v>507</v>
+        <v>244</v>
+      </c>
+      <c r="E91">
+        <v>503</v>
       </c>
       <c r="F91">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G91">
         <v>5</v>
@@ -2311,13 +2443,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>78</v>
-      </c>
-      <c r="E92" s="1">
-        <v>502</v>
+        <v>245</v>
+      </c>
+      <c r="E92">
+        <v>497</v>
       </c>
       <c r="F92">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G92">
         <v>5</v>
@@ -2325,13 +2457,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>79</v>
-      </c>
-      <c r="E93" s="1">
-        <v>497</v>
+        <v>97</v>
+      </c>
+      <c r="E93">
+        <v>513</v>
       </c>
       <c r="F93">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G93">
         <v>5</v>
@@ -2339,13 +2471,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>80</v>
-      </c>
-      <c r="E94" s="1">
-        <v>492</v>
+        <v>98</v>
+      </c>
+      <c r="E94">
+        <v>513</v>
       </c>
       <c r="F94">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G94">
         <v>5</v>
@@ -2353,13 +2485,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>81</v>
-      </c>
-      <c r="E95" s="1">
-        <v>491</v>
+        <v>95</v>
+      </c>
+      <c r="E95">
+        <v>537</v>
       </c>
       <c r="F95">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G95">
         <v>5</v>
@@ -2367,364 +2499,68 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>147</v>
-      </c>
-      <c r="E96" s="1">
-        <v>481</v>
+        <v>96</v>
+      </c>
+      <c r="E96">
+        <v>540</v>
       </c>
       <c r="F96">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G96">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>159</v>
-      </c>
-      <c r="B97" t="s">
-        <v>82</v>
-      </c>
-      <c r="D97" t="s">
-        <v>83</v>
-      </c>
-      <c r="E97" s="1">
-        <v>546</v>
-      </c>
-      <c r="F97">
-        <v>30</v>
-      </c>
-      <c r="G97">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D98" t="s">
-        <v>84</v>
-      </c>
-      <c r="E98" s="1">
-        <v>542</v>
-      </c>
-      <c r="F98">
-        <v>25</v>
-      </c>
-      <c r="G98">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D99" t="s">
-        <v>85</v>
-      </c>
-      <c r="E99" s="1">
-        <v>538</v>
-      </c>
-      <c r="F99">
-        <v>27</v>
-      </c>
-      <c r="G99">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D100" t="s">
-        <v>86</v>
-      </c>
-      <c r="E100" s="1">
-        <v>523</v>
-      </c>
-      <c r="F100">
-        <v>22</v>
-      </c>
-      <c r="G100">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D101" t="s">
-        <v>87</v>
-      </c>
-      <c r="E101" s="1">
-        <v>522</v>
-      </c>
-      <c r="F101">
-        <v>28</v>
-      </c>
-      <c r="G101">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D102" t="s">
-        <v>88</v>
-      </c>
-      <c r="E102" s="1">
-        <v>487</v>
-      </c>
-      <c r="F102">
-        <v>32</v>
-      </c>
-      <c r="G102">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
-        <v>98</v>
-      </c>
-      <c r="E103" s="1">
-        <v>512</v>
-      </c>
-      <c r="F103">
-        <v>20</v>
-      </c>
-      <c r="G103">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
-        <v>99</v>
-      </c>
-      <c r="E104" s="1">
-        <v>508</v>
-      </c>
-      <c r="F104">
-        <v>23</v>
-      </c>
-      <c r="G104">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>159</v>
-      </c>
-      <c r="B105" t="s">
-        <v>148</v>
-      </c>
-      <c r="D105" t="s">
-        <v>149</v>
-      </c>
-      <c r="E105" s="1">
-        <v>300</v>
-      </c>
-      <c r="F105">
-        <v>25</v>
-      </c>
-      <c r="G105">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
-        <v>150</v>
-      </c>
-      <c r="E106" s="1">
-        <v>300</v>
-      </c>
-      <c r="F106">
-        <v>23</v>
-      </c>
-      <c r="G106">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D107" t="s">
-        <v>151</v>
-      </c>
-      <c r="E107" s="1">
-        <v>300</v>
-      </c>
-      <c r="F107">
-        <v>31</v>
-      </c>
-      <c r="G107">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D108" t="s">
-        <v>152</v>
-      </c>
-      <c r="E108" s="1">
-        <v>300</v>
-      </c>
-      <c r="F108">
-        <v>20</v>
-      </c>
-      <c r="G108">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D109" t="s">
-        <v>153</v>
-      </c>
-      <c r="E109" s="1">
-        <v>300</v>
-      </c>
-      <c r="F109">
-        <v>29</v>
-      </c>
-      <c r="G109">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D110" t="s">
-        <v>154</v>
-      </c>
-      <c r="E110" s="1">
-        <v>300</v>
-      </c>
-      <c r="F110">
-        <v>27</v>
-      </c>
-      <c r="G110">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D111" t="s">
-        <v>155</v>
-      </c>
-      <c r="E111" s="1">
-        <v>300</v>
-      </c>
-      <c r="F111">
-        <v>28</v>
-      </c>
-      <c r="G111">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D112" t="s">
-        <v>156</v>
-      </c>
-      <c r="E112" s="1">
-        <v>300</v>
-      </c>
-      <c r="F112">
-        <v>27</v>
-      </c>
-      <c r="G112">
-        <v>5</v>
-      </c>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E112" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E9:E13">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E23">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E37">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41:E46">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E56">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E62">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65:E71">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73:E77">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E86">
+  <conditionalFormatting sqref="E97:E102 E105:E112">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -2736,151 +2572,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89:E95">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97:E102 E105:E112">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E16">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E30">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E32">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E40">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E48">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63:E64">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E80">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="num" val="460"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87:E88">
+  <conditionalFormatting sqref="E103">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -2892,7 +2584,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
+  <conditionalFormatting sqref="E104">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="460"/>
@@ -2904,10 +2596,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
+  <conditionalFormatting sqref="E65:E72">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="num" val="460"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
@@ -2916,10 +2608,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
+  <conditionalFormatting sqref="E65:E72">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="num" val="460"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
